--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -12,9 +12,9 @@
     <sheet name="Gesamt" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$100</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$171</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$170</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$109</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -168,10 +168,19 @@
     <t>zusätzlich noch 20000€ Kapitalanlage bei der AWO Böblingen</t>
   </si>
   <si>
-    <t>2a</t>
+    <t>Übertrag aus 2020</t>
   </si>
   <si>
-    <t>Übertrag aus 2020</t>
+    <t>WGV Versicherung</t>
+  </si>
+  <si>
+    <t>EnBW Abschlag Strom</t>
+  </si>
+  <si>
+    <t>GEZ</t>
+  </si>
+  <si>
+    <t>Spende Fr.Heidenreich</t>
   </si>
 </sst>
 </file>
@@ -875,7 +884,57 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="335">
+  <dxfs count="345">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2698,7 +2757,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wildner" refreshedDate="43833.744825231479" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="167">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E2:J170" sheet="Ausgaben"/>
+    <worksheetSource ref="E2:J169" sheet="Ausgaben"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -5035,17 +5094,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="331">
+    <format dxfId="341">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="330">
+    <format dxfId="340">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="329">
+    <format dxfId="339">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5143,17 +5202,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="334">
+    <format dxfId="344">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="333">
+    <format dxfId="343">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="332">
+    <format dxfId="342">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6278,7 +6337,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6351,7 +6410,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12">
@@ -6375,13 +6434,21 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="15">
+        <v>44204</v>
+      </c>
       <c r="B4" s="60">
         <v>1</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="20">
+        <v>25</v>
+      </c>
       <c r="F4" s="21"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -7922,7 +7989,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>50.53</v>
+        <v>75.53</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -7964,23 +8031,23 @@
       <c r="C107" s="25"/>
       <c r="D107" s="52"/>
       <c r="E107" s="28">
-        <f>E105+Ausgaben!F171</f>
-        <v>50.53</v>
+        <f>E105+Ausgaben!F170</f>
+        <v>75.53</v>
       </c>
       <c r="F107" s="28">
-        <f>F105+Ausgaben!G171</f>
-        <v>6262.45</v>
+        <f>F105+Ausgaben!G170</f>
+        <v>5960.96</v>
       </c>
       <c r="G107" s="28">
-        <f>G105+Ausgaben!H171</f>
+        <f>G105+Ausgaben!H170</f>
         <v>2000.5</v>
       </c>
       <c r="H107" s="28">
-        <f>H105+Ausgaben!I171</f>
-        <v>441.88</v>
+        <f>H105+Ausgaben!I170</f>
+        <v>278.47000000000003</v>
       </c>
       <c r="I107" s="29">
-        <f>I105+Ausgaben!J171</f>
+        <f>I105+Ausgaben!J170</f>
         <v>949.21</v>
       </c>
       <c r="J107" s="2"/>
@@ -8007,7 +8074,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9704.57</v>
+        <v>9264.6699999999983</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8808,652 +8875,652 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G16 G20 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7 F18:G19 G17 H4:I104 G27:G29">
-    <cfRule type="cellIs" dxfId="328" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="327" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="326" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="325" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="324" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="323" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="322" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="321" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="320" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="319" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="318" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="317" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="316" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="315" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="314" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="313" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="312" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="311" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="310" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="309" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="308" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="307" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="306" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="305" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="304" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="303" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="302" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="301" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="300" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="299" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="298" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="297" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="296" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="295" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="294" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="293" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="292" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="291" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="290" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="289" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="288" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="287" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="286" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="285" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="284" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="283" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="282" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="281" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="280" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="279" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="278" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="277" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="276" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="275" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="274" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="273" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="272" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="271" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="270" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="269" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="268" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="267" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="266" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="265" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="264" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="263" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="262" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="261" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="260" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="259" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="258" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="257" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="256" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="255" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="254" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="253" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="252" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="251" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="250" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="249" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="248" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="247" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="246" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="245" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="244" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="243" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="242" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="241" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="240" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="239" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="238" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="237" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="236" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="235" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="234" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="233" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="232" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="231" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="230" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="229" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="228" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="227" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="226" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="225" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="224" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="223" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="222" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="230" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="229" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="228" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="227" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="226" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="225" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="224" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="223" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="222" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="221" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="220" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="219" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="218" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="217" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="216" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="cellIs" dxfId="215" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="214" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="213" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="212" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="211" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="210" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="209" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="221" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="220" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="219" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="218" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="217" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="216" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="215" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="214" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="213" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="212" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="211" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="210" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="209" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="208" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="207" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="206" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="205" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="204" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="203" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="202" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="201" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="200" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="199" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9461,13 +9528,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D57:D61 D53 D55">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D14 D16:D25 D27:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3:D14 D16:D25 D27:D31">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56 D26">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98 D4 D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98 D15">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -9488,11 +9555,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:IM237"/>
+  <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40:M49"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9512,7 +9579,7 @@
     <col min="14" max="247" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
       <c r="B1" s="101" t="s">
         <v>2</v>
@@ -9531,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:247" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -9566,18 +9633,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="15">
+        <v>44200</v>
+      </c>
       <c r="C3" s="60">
         <v>1</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="I3" s="21">
+        <v>-163.41</v>
+      </c>
       <c r="J3" s="22"/>
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
@@ -9585,16 +9660,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="15">
+        <v>44201</v>
+      </c>
       <c r="C4" s="60">
         <v>2</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="21">
+        <v>-45</v>
+      </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="22"/>
@@ -9604,284 +9687,68 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="41"/>
+      <c r="B5" s="15">
+        <v>44201</v>
+      </c>
+      <c r="C5" s="60">
+        <v>3</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="21">
+        <v>-239</v>
+      </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
       <c r="K5" s="4"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="39"/>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="39"/>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="39"/>
-      <c r="BL5" s="39"/>
-      <c r="BM5" s="39"/>
-      <c r="BN5" s="39"/>
-      <c r="BO5" s="39"/>
-      <c r="BP5" s="39"/>
-      <c r="BQ5" s="39"/>
-      <c r="BR5" s="39"/>
-      <c r="BS5" s="39"/>
-      <c r="BT5" s="39"/>
-      <c r="BU5" s="39"/>
-      <c r="BV5" s="39"/>
-      <c r="BW5" s="39"/>
-      <c r="BX5" s="39"/>
-      <c r="BY5" s="39"/>
-      <c r="BZ5" s="39"/>
-      <c r="CA5" s="39"/>
-      <c r="CB5" s="39"/>
-      <c r="CC5" s="39"/>
-      <c r="CD5" s="39"/>
-      <c r="CE5" s="39"/>
-      <c r="CF5" s="39"/>
-      <c r="CG5" s="39"/>
-      <c r="CH5" s="39"/>
-      <c r="CI5" s="39"/>
-      <c r="CJ5" s="39"/>
-      <c r="CK5" s="39"/>
-      <c r="CL5" s="39"/>
-      <c r="CM5" s="39"/>
-      <c r="CN5" s="39"/>
-      <c r="CO5" s="39"/>
-      <c r="CP5" s="39"/>
-      <c r="CQ5" s="39"/>
-      <c r="CR5" s="39"/>
-      <c r="CS5" s="39"/>
-      <c r="CT5" s="39"/>
-      <c r="CU5" s="39"/>
-      <c r="CV5" s="39"/>
-      <c r="CW5" s="39"/>
-      <c r="CX5" s="39"/>
-      <c r="CY5" s="39"/>
-      <c r="CZ5" s="39"/>
-      <c r="DA5" s="39"/>
-      <c r="DB5" s="39"/>
-      <c r="DC5" s="39"/>
-      <c r="DD5" s="39"/>
-      <c r="DE5" s="39"/>
-      <c r="DF5" s="39"/>
-      <c r="DG5" s="39"/>
-      <c r="DH5" s="39"/>
-      <c r="DI5" s="39"/>
-      <c r="DJ5" s="39"/>
-      <c r="DK5" s="39"/>
-      <c r="DL5" s="39"/>
-      <c r="DM5" s="39"/>
-      <c r="DN5" s="39"/>
-      <c r="DO5" s="39"/>
-      <c r="DP5" s="39"/>
-      <c r="DQ5" s="39"/>
-      <c r="DR5" s="39"/>
-      <c r="DS5" s="39"/>
-      <c r="DT5" s="39"/>
-      <c r="DU5" s="39"/>
-      <c r="DV5" s="39"/>
-      <c r="DW5" s="39"/>
-      <c r="DX5" s="39"/>
-      <c r="DY5" s="39"/>
-      <c r="DZ5" s="39"/>
-      <c r="EA5" s="39"/>
-      <c r="EB5" s="39"/>
-      <c r="EC5" s="39"/>
-      <c r="ED5" s="39"/>
-      <c r="EE5" s="39"/>
-      <c r="EF5" s="39"/>
-      <c r="EG5" s="39"/>
-      <c r="EH5" s="39"/>
-      <c r="EI5" s="39"/>
-      <c r="EJ5" s="39"/>
-      <c r="EK5" s="39"/>
-      <c r="EL5" s="39"/>
-      <c r="EM5" s="39"/>
-      <c r="EN5" s="39"/>
-      <c r="EO5" s="39"/>
-      <c r="EP5" s="39"/>
-      <c r="EQ5" s="39"/>
-      <c r="ER5" s="39"/>
-      <c r="ES5" s="39"/>
-      <c r="ET5" s="39"/>
-      <c r="EU5" s="39"/>
-      <c r="EV5" s="39"/>
-      <c r="EW5" s="39"/>
-      <c r="EX5" s="39"/>
-      <c r="EY5" s="39"/>
-      <c r="EZ5" s="39"/>
-      <c r="FA5" s="39"/>
-      <c r="FB5" s="39"/>
-      <c r="FC5" s="39"/>
-      <c r="FD5" s="39"/>
-      <c r="FE5" s="39"/>
-      <c r="FF5" s="39"/>
-      <c r="FG5" s="39"/>
-      <c r="FH5" s="39"/>
-      <c r="FI5" s="39"/>
-      <c r="FJ5" s="39"/>
-      <c r="FK5" s="39"/>
-      <c r="FL5" s="39"/>
-      <c r="FM5" s="39"/>
-      <c r="FN5" s="39"/>
-      <c r="FO5" s="39"/>
-      <c r="FP5" s="39"/>
-      <c r="FQ5" s="39"/>
-      <c r="FR5" s="39"/>
-      <c r="FS5" s="39"/>
-      <c r="FT5" s="39"/>
-      <c r="FU5" s="39"/>
-      <c r="FV5" s="39"/>
-      <c r="FW5" s="39"/>
-      <c r="FX5" s="39"/>
-      <c r="FY5" s="39"/>
-      <c r="FZ5" s="39"/>
-      <c r="GA5" s="39"/>
-      <c r="GB5" s="39"/>
-      <c r="GC5" s="39"/>
-      <c r="GD5" s="39"/>
-      <c r="GE5" s="39"/>
-      <c r="GF5" s="39"/>
-      <c r="GG5" s="39"/>
-      <c r="GH5" s="39"/>
-      <c r="GI5" s="39"/>
-      <c r="GJ5" s="39"/>
-      <c r="GK5" s="39"/>
-      <c r="GL5" s="39"/>
-      <c r="GM5" s="39"/>
-      <c r="GN5" s="39"/>
-      <c r="GO5" s="39"/>
-      <c r="GP5" s="39"/>
-      <c r="GQ5" s="39"/>
-      <c r="GR5" s="39"/>
-      <c r="GS5" s="39"/>
-      <c r="GT5" s="39"/>
-      <c r="GU5" s="39"/>
-      <c r="GV5" s="39"/>
-      <c r="GW5" s="39"/>
-      <c r="GX5" s="39"/>
-      <c r="GY5" s="39"/>
-      <c r="GZ5" s="39"/>
-      <c r="HA5" s="39"/>
-      <c r="HB5" s="39"/>
-      <c r="HC5" s="39"/>
-      <c r="HD5" s="39"/>
-      <c r="HE5" s="39"/>
-      <c r="HF5" s="39"/>
-      <c r="HG5" s="39"/>
-      <c r="HH5" s="39"/>
-      <c r="HI5" s="39"/>
-      <c r="HJ5" s="39"/>
-      <c r="HK5" s="39"/>
-      <c r="HL5" s="39"/>
-      <c r="HM5" s="39"/>
-      <c r="HN5" s="39"/>
-      <c r="HO5" s="39"/>
-      <c r="HP5" s="39"/>
-      <c r="HQ5" s="39"/>
-      <c r="HR5" s="39"/>
-      <c r="HS5" s="39"/>
-      <c r="HT5" s="39"/>
-      <c r="HU5" s="39"/>
-      <c r="HV5" s="39"/>
-      <c r="HW5" s="39"/>
-      <c r="HX5" s="39"/>
-      <c r="HY5" s="39"/>
-      <c r="HZ5" s="39"/>
-      <c r="IA5" s="39"/>
-      <c r="IB5" s="39"/>
-      <c r="IC5" s="39"/>
-      <c r="ID5" s="39"/>
-      <c r="IE5" s="39"/>
-      <c r="IF5" s="39"/>
-      <c r="IG5" s="39"/>
-      <c r="IH5" s="39"/>
-      <c r="II5" s="39"/>
-      <c r="IJ5" s="39"/>
-      <c r="IK5" s="39"/>
-      <c r="IL5" s="39"/>
-      <c r="IM5" s="39"/>
-    </row>
-    <row r="6" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="43">
+        <v>44211</v>
+      </c>
       <c r="C6" s="60">
-        <v>3</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="21">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
       <c r="K6" s="4"/>
       <c r="L6" s="2"/>
       <c r="M6" s="53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="43"/>
       <c r="C7" s="60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="55"/>
-      <c r="E7" s="41"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -9890,17 +9757,17 @@
       <c r="K7" s="4"/>
       <c r="L7" s="2"/>
       <c r="M7" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="43"/>
       <c r="C8" s="60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="55"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -9909,18 +9776,18 @@
       <c r="K8" s="4"/>
       <c r="L8" s="2"/>
       <c r="M8" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="43"/>
       <c r="C9" s="60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="55"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -9928,18 +9795,18 @@
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
       <c r="M9" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="55"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -9947,17 +9814,17 @@
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
       <c r="M10" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="55"/>
-      <c r="E11" s="41"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -9966,17 +9833,17 @@
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
       <c r="M11" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="43"/>
       <c r="C12" s="60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="55"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -9985,14 +9852,14 @@
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
       <c r="M12" s="53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="43"/>
       <c r="C13" s="60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="56"/>
@@ -10003,19 +9870,19 @@
       <c r="J13" s="22"/>
       <c r="K13" s="4"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="43"/>
       <c r="C14" s="60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -10023,14 +9890,14 @@
       <c r="K14" s="4"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="43"/>
       <c r="C15" s="60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="55"/>
       <c r="E15" s="41"/>
@@ -10042,14 +9909,14 @@
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
-      <c r="B16" s="43"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="41"/>
@@ -10061,18 +9928,18 @@
       <c r="K16" s="4"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="15"/>
       <c r="C17" s="60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -10080,14 +9947,14 @@
       <c r="K17" s="4"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="15"/>
       <c r="C18" s="60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="41"/>
@@ -10099,14 +9966,14 @@
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="15"/>
       <c r="C19" s="60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="41"/>
@@ -10118,14 +9985,14 @@
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="15"/>
       <c r="C20" s="60">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="41"/>
@@ -10136,15 +10003,13 @@
       <c r="J20" s="22"/>
       <c r="K20" s="4"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="15"/>
       <c r="C21" s="60">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="41"/>
@@ -10161,7 +10026,7 @@
       <c r="A22" s="47"/>
       <c r="B22" s="15"/>
       <c r="C22" s="60">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="41"/>
@@ -10177,12 +10042,12 @@
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="60">
-        <v>20</v>
+      <c r="C23" s="16">
+        <v>21</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -10195,7 +10060,7 @@
       <c r="A24" s="47"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="41"/>
@@ -10211,12 +10076,12 @@
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="16">
-        <v>22</v>
+      <c r="C25" s="60">
+        <v>23</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="41"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -10227,9 +10092,9 @@
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="60">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="41"/>
@@ -10246,10 +10111,10 @@
       <c r="A27" s="47"/>
       <c r="B27" s="43"/>
       <c r="C27" s="60">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="55"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="56"/>
       <c r="F27" s="20"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -10263,10 +10128,10 @@
       <c r="A28" s="47"/>
       <c r="B28" s="43"/>
       <c r="C28" s="60">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="20"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -10280,7 +10145,7 @@
       <c r="A29" s="47"/>
       <c r="B29" s="43"/>
       <c r="C29" s="60">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="55"/>
       <c r="E29" s="41"/>
@@ -10295,9 +10160,9 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
-      <c r="B30" s="43"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="60">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="41"/>
@@ -10314,7 +10179,7 @@
       <c r="A31" s="47"/>
       <c r="B31" s="15"/>
       <c r="C31" s="60">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="41"/>
@@ -10331,7 +10196,7 @@
       <c r="A32" s="47"/>
       <c r="B32" s="15"/>
       <c r="C32" s="60">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="41"/>
@@ -10348,7 +10213,7 @@
       <c r="A33" s="47"/>
       <c r="B33" s="15"/>
       <c r="C33" s="60">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" s="55"/>
       <c r="E33" s="41"/>
@@ -10365,11 +10230,11 @@
       <c r="A34" s="47"/>
       <c r="B34" s="15"/>
       <c r="C34" s="60">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -10382,11 +10247,11 @@
       <c r="A35" s="47"/>
       <c r="B35" s="15"/>
       <c r="C35" s="60">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="55"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
@@ -10399,10 +10264,10 @@
       <c r="A36" s="47"/>
       <c r="B36" s="15"/>
       <c r="C36" s="60">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="55"/>
-      <c r="E36" s="23"/>
+      <c r="E36" s="56"/>
       <c r="F36" s="20"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -10415,12 +10280,12 @@
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="60">
-        <v>34</v>
+      <c r="C37" s="16">
+        <v>35</v>
       </c>
       <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="20"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -10433,10 +10298,10 @@
       <c r="A38" s="47"/>
       <c r="B38" s="15"/>
       <c r="C38" s="16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" s="55"/>
-      <c r="E38" s="41"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="17"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -10450,10 +10315,10 @@
       <c r="A39" s="47"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="17"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -10466,10 +10331,10 @@
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="16">
-        <v>37</v>
-      </c>
-      <c r="D40" s="55"/>
+      <c r="C40" s="60">
+        <v>38</v>
+      </c>
+      <c r="D40" s="40"/>
       <c r="E40" s="41"/>
       <c r="F40" s="17"/>
       <c r="G40" s="21"/>
@@ -10484,7 +10349,7 @@
       <c r="A41" s="47"/>
       <c r="B41" s="15"/>
       <c r="C41" s="60">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="41"/>
@@ -10500,12 +10365,12 @@
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="60">
-        <v>39</v>
-      </c>
-      <c r="D42" s="40"/>
+      <c r="C42" s="61">
+        <v>40</v>
+      </c>
+      <c r="D42" s="55"/>
       <c r="E42" s="41"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -10517,12 +10382,12 @@
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="61">
-        <v>40</v>
+      <c r="C43" s="60">
+        <v>41</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="41"/>
-      <c r="F43" s="20"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
@@ -10535,9 +10400,9 @@
       <c r="A44" s="47"/>
       <c r="B44" s="15"/>
       <c r="C44" s="60">
-        <v>41</v>
-      </c>
-      <c r="D44" s="55"/>
+        <v>42</v>
+      </c>
+      <c r="D44" s="40"/>
       <c r="E44" s="41"/>
       <c r="F44" s="17"/>
       <c r="G44" s="21"/>
@@ -10552,11 +10417,11 @@
       <c r="A45" s="47"/>
       <c r="B45" s="15"/>
       <c r="C45" s="60">
-        <v>42</v>
-      </c>
-      <c r="D45" s="40"/>
+        <v>43</v>
+      </c>
+      <c r="D45" s="55"/>
       <c r="E45" s="41"/>
-      <c r="F45" s="17"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
@@ -10568,8 +10433,8 @@
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
       <c r="B46" s="15"/>
-      <c r="C46" s="60">
-        <v>43</v>
+      <c r="C46" s="16">
+        <v>44</v>
       </c>
       <c r="D46" s="55"/>
       <c r="E46" s="41"/>
@@ -10585,11 +10450,11 @@
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="16">
-        <v>44</v>
+      <c r="C47" s="60">
+        <v>45</v>
       </c>
       <c r="D47" s="55"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="56"/>
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -10603,10 +10468,10 @@
       <c r="A48" s="47"/>
       <c r="B48" s="15"/>
       <c r="C48" s="60">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="20"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -10619,11 +10484,11 @@
     <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="60">
-        <v>46</v>
+      <c r="C49" s="61">
+        <v>47</v>
       </c>
       <c r="D49" s="55"/>
-      <c r="E49" s="23"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -10636,8 +10501,8 @@
     <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="61">
-        <v>47</v>
+      <c r="C50" s="60">
+        <v>48</v>
       </c>
       <c r="D50" s="55"/>
       <c r="E50" s="41"/>
@@ -10654,7 +10519,7 @@
       <c r="A51" s="47"/>
       <c r="B51" s="15"/>
       <c r="C51" s="60">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="41"/>
@@ -10671,10 +10536,10 @@
       <c r="A52" s="47"/>
       <c r="B52" s="15"/>
       <c r="C52" s="60">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" s="55"/>
-      <c r="E52" s="41"/>
+      <c r="E52" s="56"/>
       <c r="F52" s="20"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -10688,12 +10553,12 @@
       <c r="A53" s="47"/>
       <c r="B53" s="15"/>
       <c r="C53" s="60">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D53" s="55"/>
-      <c r="E53" s="56"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
@@ -10703,26 +10568,260 @@
     </row>
     <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="60">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="41"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="22"/>
       <c r="K54" s="4"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="39"/>
+      <c r="AH54" s="39"/>
+      <c r="AI54" s="39"/>
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="39"/>
+      <c r="AL54" s="39"/>
+      <c r="AM54" s="39"/>
+      <c r="AN54" s="39"/>
+      <c r="AO54" s="39"/>
+      <c r="AP54" s="39"/>
+      <c r="AQ54" s="39"/>
+      <c r="AR54" s="39"/>
+      <c r="AS54" s="39"/>
+      <c r="AT54" s="39"/>
+      <c r="AU54" s="39"/>
+      <c r="AV54" s="39"/>
+      <c r="AW54" s="39"/>
+      <c r="AX54" s="39"/>
+      <c r="AY54" s="39"/>
+      <c r="AZ54" s="39"/>
+      <c r="BA54" s="39"/>
+      <c r="BB54" s="39"/>
+      <c r="BC54" s="39"/>
+      <c r="BD54" s="39"/>
+      <c r="BE54" s="39"/>
+      <c r="BF54" s="39"/>
+      <c r="BG54" s="39"/>
+      <c r="BH54" s="39"/>
+      <c r="BI54" s="39"/>
+      <c r="BJ54" s="39"/>
+      <c r="BK54" s="39"/>
+      <c r="BL54" s="39"/>
+      <c r="BM54" s="39"/>
+      <c r="BN54" s="39"/>
+      <c r="BO54" s="39"/>
+      <c r="BP54" s="39"/>
+      <c r="BQ54" s="39"/>
+      <c r="BR54" s="39"/>
+      <c r="BS54" s="39"/>
+      <c r="BT54" s="39"/>
+      <c r="BU54" s="39"/>
+      <c r="BV54" s="39"/>
+      <c r="BW54" s="39"/>
+      <c r="BX54" s="39"/>
+      <c r="BY54" s="39"/>
+      <c r="BZ54" s="39"/>
+      <c r="CA54" s="39"/>
+      <c r="CB54" s="39"/>
+      <c r="CC54" s="39"/>
+      <c r="CD54" s="39"/>
+      <c r="CE54" s="39"/>
+      <c r="CF54" s="39"/>
+      <c r="CG54" s="39"/>
+      <c r="CH54" s="39"/>
+      <c r="CI54" s="39"/>
+      <c r="CJ54" s="39"/>
+      <c r="CK54" s="39"/>
+      <c r="CL54" s="39"/>
+      <c r="CM54" s="39"/>
+      <c r="CN54" s="39"/>
+      <c r="CO54" s="39"/>
+      <c r="CP54" s="39"/>
+      <c r="CQ54" s="39"/>
+      <c r="CR54" s="39"/>
+      <c r="CS54" s="39"/>
+      <c r="CT54" s="39"/>
+      <c r="CU54" s="39"/>
+      <c r="CV54" s="39"/>
+      <c r="CW54" s="39"/>
+      <c r="CX54" s="39"/>
+      <c r="CY54" s="39"/>
+      <c r="CZ54" s="39"/>
+      <c r="DA54" s="39"/>
+      <c r="DB54" s="39"/>
+      <c r="DC54" s="39"/>
+      <c r="DD54" s="39"/>
+      <c r="DE54" s="39"/>
+      <c r="DF54" s="39"/>
+      <c r="DG54" s="39"/>
+      <c r="DH54" s="39"/>
+      <c r="DI54" s="39"/>
+      <c r="DJ54" s="39"/>
+      <c r="DK54" s="39"/>
+      <c r="DL54" s="39"/>
+      <c r="DM54" s="39"/>
+      <c r="DN54" s="39"/>
+      <c r="DO54" s="39"/>
+      <c r="DP54" s="39"/>
+      <c r="DQ54" s="39"/>
+      <c r="DR54" s="39"/>
+      <c r="DS54" s="39"/>
+      <c r="DT54" s="39"/>
+      <c r="DU54" s="39"/>
+      <c r="DV54" s="39"/>
+      <c r="DW54" s="39"/>
+      <c r="DX54" s="39"/>
+      <c r="DY54" s="39"/>
+      <c r="DZ54" s="39"/>
+      <c r="EA54" s="39"/>
+      <c r="EB54" s="39"/>
+      <c r="EC54" s="39"/>
+      <c r="ED54" s="39"/>
+      <c r="EE54" s="39"/>
+      <c r="EF54" s="39"/>
+      <c r="EG54" s="39"/>
+      <c r="EH54" s="39"/>
+      <c r="EI54" s="39"/>
+      <c r="EJ54" s="39"/>
+      <c r="EK54" s="39"/>
+      <c r="EL54" s="39"/>
+      <c r="EM54" s="39"/>
+      <c r="EN54" s="39"/>
+      <c r="EO54" s="39"/>
+      <c r="EP54" s="39"/>
+      <c r="EQ54" s="39"/>
+      <c r="ER54" s="39"/>
+      <c r="ES54" s="39"/>
+      <c r="ET54" s="39"/>
+      <c r="EU54" s="39"/>
+      <c r="EV54" s="39"/>
+      <c r="EW54" s="39"/>
+      <c r="EX54" s="39"/>
+      <c r="EY54" s="39"/>
+      <c r="EZ54" s="39"/>
+      <c r="FA54" s="39"/>
+      <c r="FB54" s="39"/>
+      <c r="FC54" s="39"/>
+      <c r="FD54" s="39"/>
+      <c r="FE54" s="39"/>
+      <c r="FF54" s="39"/>
+      <c r="FG54" s="39"/>
+      <c r="FH54" s="39"/>
+      <c r="FI54" s="39"/>
+      <c r="FJ54" s="39"/>
+      <c r="FK54" s="39"/>
+      <c r="FL54" s="39"/>
+      <c r="FM54" s="39"/>
+      <c r="FN54" s="39"/>
+      <c r="FO54" s="39"/>
+      <c r="FP54" s="39"/>
+      <c r="FQ54" s="39"/>
+      <c r="FR54" s="39"/>
+      <c r="FS54" s="39"/>
+      <c r="FT54" s="39"/>
+      <c r="FU54" s="39"/>
+      <c r="FV54" s="39"/>
+      <c r="FW54" s="39"/>
+      <c r="FX54" s="39"/>
+      <c r="FY54" s="39"/>
+      <c r="FZ54" s="39"/>
+      <c r="GA54" s="39"/>
+      <c r="GB54" s="39"/>
+      <c r="GC54" s="39"/>
+      <c r="GD54" s="39"/>
+      <c r="GE54" s="39"/>
+      <c r="GF54" s="39"/>
+      <c r="GG54" s="39"/>
+      <c r="GH54" s="39"/>
+      <c r="GI54" s="39"/>
+      <c r="GJ54" s="39"/>
+      <c r="GK54" s="39"/>
+      <c r="GL54" s="39"/>
+      <c r="GM54" s="39"/>
+      <c r="GN54" s="39"/>
+      <c r="GO54" s="39"/>
+      <c r="GP54" s="39"/>
+      <c r="GQ54" s="39"/>
+      <c r="GR54" s="39"/>
+      <c r="GS54" s="39"/>
+      <c r="GT54" s="39"/>
+      <c r="GU54" s="39"/>
+      <c r="GV54" s="39"/>
+      <c r="GW54" s="39"/>
+      <c r="GX54" s="39"/>
+      <c r="GY54" s="39"/>
+      <c r="GZ54" s="39"/>
+      <c r="HA54" s="39"/>
+      <c r="HB54" s="39"/>
+      <c r="HC54" s="39"/>
+      <c r="HD54" s="39"/>
+      <c r="HE54" s="39"/>
+      <c r="HF54" s="39"/>
+      <c r="HG54" s="39"/>
+      <c r="HH54" s="39"/>
+      <c r="HI54" s="39"/>
+      <c r="HJ54" s="39"/>
+      <c r="HK54" s="39"/>
+      <c r="HL54" s="39"/>
+      <c r="HM54" s="39"/>
+      <c r="HN54" s="39"/>
+      <c r="HO54" s="39"/>
+      <c r="HP54" s="39"/>
+      <c r="HQ54" s="39"/>
+      <c r="HR54" s="39"/>
+      <c r="HS54" s="39"/>
+      <c r="HT54" s="39"/>
+      <c r="HU54" s="39"/>
+      <c r="HV54" s="39"/>
+      <c r="HW54" s="39"/>
+      <c r="HX54" s="39"/>
+      <c r="HY54" s="39"/>
+      <c r="HZ54" s="39"/>
+      <c r="IA54" s="39"/>
+      <c r="IB54" s="39"/>
+      <c r="IC54" s="39"/>
+      <c r="ID54" s="39"/>
+      <c r="IE54" s="39"/>
+      <c r="IF54" s="39"/>
+      <c r="IG54" s="39"/>
+      <c r="IH54" s="39"/>
+      <c r="II54" s="39"/>
+      <c r="IJ54" s="39"/>
+      <c r="IK54" s="39"/>
+      <c r="IL54" s="39"/>
+      <c r="IM54" s="39"/>
     </row>
     <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="60">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D55" s="55"/>
       <c r="E55" s="41"/>
@@ -10734,246 +10833,12 @@
       <c r="K55" s="4"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39"/>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39"/>
-      <c r="AP55" s="39"/>
-      <c r="AQ55" s="39"/>
-      <c r="AR55" s="39"/>
-      <c r="AS55" s="39"/>
-      <c r="AT55" s="39"/>
-      <c r="AU55" s="39"/>
-      <c r="AV55" s="39"/>
-      <c r="AW55" s="39"/>
-      <c r="AX55" s="39"/>
-      <c r="AY55" s="39"/>
-      <c r="AZ55" s="39"/>
-      <c r="BA55" s="39"/>
-      <c r="BB55" s="39"/>
-      <c r="BC55" s="39"/>
-      <c r="BD55" s="39"/>
-      <c r="BE55" s="39"/>
-      <c r="BF55" s="39"/>
-      <c r="BG55" s="39"/>
-      <c r="BH55" s="39"/>
-      <c r="BI55" s="39"/>
-      <c r="BJ55" s="39"/>
-      <c r="BK55" s="39"/>
-      <c r="BL55" s="39"/>
-      <c r="BM55" s="39"/>
-      <c r="BN55" s="39"/>
-      <c r="BO55" s="39"/>
-      <c r="BP55" s="39"/>
-      <c r="BQ55" s="39"/>
-      <c r="BR55" s="39"/>
-      <c r="BS55" s="39"/>
-      <c r="BT55" s="39"/>
-      <c r="BU55" s="39"/>
-      <c r="BV55" s="39"/>
-      <c r="BW55" s="39"/>
-      <c r="BX55" s="39"/>
-      <c r="BY55" s="39"/>
-      <c r="BZ55" s="39"/>
-      <c r="CA55" s="39"/>
-      <c r="CB55" s="39"/>
-      <c r="CC55" s="39"/>
-      <c r="CD55" s="39"/>
-      <c r="CE55" s="39"/>
-      <c r="CF55" s="39"/>
-      <c r="CG55" s="39"/>
-      <c r="CH55" s="39"/>
-      <c r="CI55" s="39"/>
-      <c r="CJ55" s="39"/>
-      <c r="CK55" s="39"/>
-      <c r="CL55" s="39"/>
-      <c r="CM55" s="39"/>
-      <c r="CN55" s="39"/>
-      <c r="CO55" s="39"/>
-      <c r="CP55" s="39"/>
-      <c r="CQ55" s="39"/>
-      <c r="CR55" s="39"/>
-      <c r="CS55" s="39"/>
-      <c r="CT55" s="39"/>
-      <c r="CU55" s="39"/>
-      <c r="CV55" s="39"/>
-      <c r="CW55" s="39"/>
-      <c r="CX55" s="39"/>
-      <c r="CY55" s="39"/>
-      <c r="CZ55" s="39"/>
-      <c r="DA55" s="39"/>
-      <c r="DB55" s="39"/>
-      <c r="DC55" s="39"/>
-      <c r="DD55" s="39"/>
-      <c r="DE55" s="39"/>
-      <c r="DF55" s="39"/>
-      <c r="DG55" s="39"/>
-      <c r="DH55" s="39"/>
-      <c r="DI55" s="39"/>
-      <c r="DJ55" s="39"/>
-      <c r="DK55" s="39"/>
-      <c r="DL55" s="39"/>
-      <c r="DM55" s="39"/>
-      <c r="DN55" s="39"/>
-      <c r="DO55" s="39"/>
-      <c r="DP55" s="39"/>
-      <c r="DQ55" s="39"/>
-      <c r="DR55" s="39"/>
-      <c r="DS55" s="39"/>
-      <c r="DT55" s="39"/>
-      <c r="DU55" s="39"/>
-      <c r="DV55" s="39"/>
-      <c r="DW55" s="39"/>
-      <c r="DX55" s="39"/>
-      <c r="DY55" s="39"/>
-      <c r="DZ55" s="39"/>
-      <c r="EA55" s="39"/>
-      <c r="EB55" s="39"/>
-      <c r="EC55" s="39"/>
-      <c r="ED55" s="39"/>
-      <c r="EE55" s="39"/>
-      <c r="EF55" s="39"/>
-      <c r="EG55" s="39"/>
-      <c r="EH55" s="39"/>
-      <c r="EI55" s="39"/>
-      <c r="EJ55" s="39"/>
-      <c r="EK55" s="39"/>
-      <c r="EL55" s="39"/>
-      <c r="EM55" s="39"/>
-      <c r="EN55" s="39"/>
-      <c r="EO55" s="39"/>
-      <c r="EP55" s="39"/>
-      <c r="EQ55" s="39"/>
-      <c r="ER55" s="39"/>
-      <c r="ES55" s="39"/>
-      <c r="ET55" s="39"/>
-      <c r="EU55" s="39"/>
-      <c r="EV55" s="39"/>
-      <c r="EW55" s="39"/>
-      <c r="EX55" s="39"/>
-      <c r="EY55" s="39"/>
-      <c r="EZ55" s="39"/>
-      <c r="FA55" s="39"/>
-      <c r="FB55" s="39"/>
-      <c r="FC55" s="39"/>
-      <c r="FD55" s="39"/>
-      <c r="FE55" s="39"/>
-      <c r="FF55" s="39"/>
-      <c r="FG55" s="39"/>
-      <c r="FH55" s="39"/>
-      <c r="FI55" s="39"/>
-      <c r="FJ55" s="39"/>
-      <c r="FK55" s="39"/>
-      <c r="FL55" s="39"/>
-      <c r="FM55" s="39"/>
-      <c r="FN55" s="39"/>
-      <c r="FO55" s="39"/>
-      <c r="FP55" s="39"/>
-      <c r="FQ55" s="39"/>
-      <c r="FR55" s="39"/>
-      <c r="FS55" s="39"/>
-      <c r="FT55" s="39"/>
-      <c r="FU55" s="39"/>
-      <c r="FV55" s="39"/>
-      <c r="FW55" s="39"/>
-      <c r="FX55" s="39"/>
-      <c r="FY55" s="39"/>
-      <c r="FZ55" s="39"/>
-      <c r="GA55" s="39"/>
-      <c r="GB55" s="39"/>
-      <c r="GC55" s="39"/>
-      <c r="GD55" s="39"/>
-      <c r="GE55" s="39"/>
-      <c r="GF55" s="39"/>
-      <c r="GG55" s="39"/>
-      <c r="GH55" s="39"/>
-      <c r="GI55" s="39"/>
-      <c r="GJ55" s="39"/>
-      <c r="GK55" s="39"/>
-      <c r="GL55" s="39"/>
-      <c r="GM55" s="39"/>
-      <c r="GN55" s="39"/>
-      <c r="GO55" s="39"/>
-      <c r="GP55" s="39"/>
-      <c r="GQ55" s="39"/>
-      <c r="GR55" s="39"/>
-      <c r="GS55" s="39"/>
-      <c r="GT55" s="39"/>
-      <c r="GU55" s="39"/>
-      <c r="GV55" s="39"/>
-      <c r="GW55" s="39"/>
-      <c r="GX55" s="39"/>
-      <c r="GY55" s="39"/>
-      <c r="GZ55" s="39"/>
-      <c r="HA55" s="39"/>
-      <c r="HB55" s="39"/>
-      <c r="HC55" s="39"/>
-      <c r="HD55" s="39"/>
-      <c r="HE55" s="39"/>
-      <c r="HF55" s="39"/>
-      <c r="HG55" s="39"/>
-      <c r="HH55" s="39"/>
-      <c r="HI55" s="39"/>
-      <c r="HJ55" s="39"/>
-      <c r="HK55" s="39"/>
-      <c r="HL55" s="39"/>
-      <c r="HM55" s="39"/>
-      <c r="HN55" s="39"/>
-      <c r="HO55" s="39"/>
-      <c r="HP55" s="39"/>
-      <c r="HQ55" s="39"/>
-      <c r="HR55" s="39"/>
-      <c r="HS55" s="39"/>
-      <c r="HT55" s="39"/>
-      <c r="HU55" s="39"/>
-      <c r="HV55" s="39"/>
-      <c r="HW55" s="39"/>
-      <c r="HX55" s="39"/>
-      <c r="HY55" s="39"/>
-      <c r="HZ55" s="39"/>
-      <c r="IA55" s="39"/>
-      <c r="IB55" s="39"/>
-      <c r="IC55" s="39"/>
-      <c r="ID55" s="39"/>
-      <c r="IE55" s="39"/>
-      <c r="IF55" s="39"/>
-      <c r="IG55" s="39"/>
-      <c r="IH55" s="39"/>
-      <c r="II55" s="39"/>
-      <c r="IJ55" s="39"/>
-      <c r="IK55" s="39"/>
-      <c r="IL55" s="39"/>
-      <c r="IM55" s="39"/>
     </row>
     <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="15"/>
       <c r="C56" s="60">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D56" s="55"/>
       <c r="E56" s="41"/>
@@ -10990,10 +10855,10 @@
       <c r="A57" s="47"/>
       <c r="B57" s="15"/>
       <c r="C57" s="60">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D57" s="55"/>
-      <c r="E57" s="41"/>
+      <c r="E57" s="56"/>
       <c r="F57" s="20"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -11005,9 +10870,9 @@
     </row>
     <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="60">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="56"/>
@@ -11024,10 +10889,10 @@
       <c r="A59" s="47"/>
       <c r="B59" s="43"/>
       <c r="C59" s="60">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59" s="55"/>
-      <c r="E59" s="56"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="20"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -11041,11 +10906,11 @@
       <c r="A60" s="47"/>
       <c r="B60" s="43"/>
       <c r="C60" s="60">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D60" s="55"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="20"/>
+      <c r="F60" s="17"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -11053,12 +10918,246 @@
       <c r="K60" s="4"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="39"/>
+      <c r="AE60" s="39"/>
+      <c r="AF60" s="39"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="39"/>
+      <c r="AK60" s="39"/>
+      <c r="AL60" s="39"/>
+      <c r="AM60" s="39"/>
+      <c r="AN60" s="39"/>
+      <c r="AO60" s="39"/>
+      <c r="AP60" s="39"/>
+      <c r="AQ60" s="39"/>
+      <c r="AR60" s="39"/>
+      <c r="AS60" s="39"/>
+      <c r="AT60" s="39"/>
+      <c r="AU60" s="39"/>
+      <c r="AV60" s="39"/>
+      <c r="AW60" s="39"/>
+      <c r="AX60" s="39"/>
+      <c r="AY60" s="39"/>
+      <c r="AZ60" s="39"/>
+      <c r="BA60" s="39"/>
+      <c r="BB60" s="39"/>
+      <c r="BC60" s="39"/>
+      <c r="BD60" s="39"/>
+      <c r="BE60" s="39"/>
+      <c r="BF60" s="39"/>
+      <c r="BG60" s="39"/>
+      <c r="BH60" s="39"/>
+      <c r="BI60" s="39"/>
+      <c r="BJ60" s="39"/>
+      <c r="BK60" s="39"/>
+      <c r="BL60" s="39"/>
+      <c r="BM60" s="39"/>
+      <c r="BN60" s="39"/>
+      <c r="BO60" s="39"/>
+      <c r="BP60" s="39"/>
+      <c r="BQ60" s="39"/>
+      <c r="BR60" s="39"/>
+      <c r="BS60" s="39"/>
+      <c r="BT60" s="39"/>
+      <c r="BU60" s="39"/>
+      <c r="BV60" s="39"/>
+      <c r="BW60" s="39"/>
+      <c r="BX60" s="39"/>
+      <c r="BY60" s="39"/>
+      <c r="BZ60" s="39"/>
+      <c r="CA60" s="39"/>
+      <c r="CB60" s="39"/>
+      <c r="CC60" s="39"/>
+      <c r="CD60" s="39"/>
+      <c r="CE60" s="39"/>
+      <c r="CF60" s="39"/>
+      <c r="CG60" s="39"/>
+      <c r="CH60" s="39"/>
+      <c r="CI60" s="39"/>
+      <c r="CJ60" s="39"/>
+      <c r="CK60" s="39"/>
+      <c r="CL60" s="39"/>
+      <c r="CM60" s="39"/>
+      <c r="CN60" s="39"/>
+      <c r="CO60" s="39"/>
+      <c r="CP60" s="39"/>
+      <c r="CQ60" s="39"/>
+      <c r="CR60" s="39"/>
+      <c r="CS60" s="39"/>
+      <c r="CT60" s="39"/>
+      <c r="CU60" s="39"/>
+      <c r="CV60" s="39"/>
+      <c r="CW60" s="39"/>
+      <c r="CX60" s="39"/>
+      <c r="CY60" s="39"/>
+      <c r="CZ60" s="39"/>
+      <c r="DA60" s="39"/>
+      <c r="DB60" s="39"/>
+      <c r="DC60" s="39"/>
+      <c r="DD60" s="39"/>
+      <c r="DE60" s="39"/>
+      <c r="DF60" s="39"/>
+      <c r="DG60" s="39"/>
+      <c r="DH60" s="39"/>
+      <c r="DI60" s="39"/>
+      <c r="DJ60" s="39"/>
+      <c r="DK60" s="39"/>
+      <c r="DL60" s="39"/>
+      <c r="DM60" s="39"/>
+      <c r="DN60" s="39"/>
+      <c r="DO60" s="39"/>
+      <c r="DP60" s="39"/>
+      <c r="DQ60" s="39"/>
+      <c r="DR60" s="39"/>
+      <c r="DS60" s="39"/>
+      <c r="DT60" s="39"/>
+      <c r="DU60" s="39"/>
+      <c r="DV60" s="39"/>
+      <c r="DW60" s="39"/>
+      <c r="DX60" s="39"/>
+      <c r="DY60" s="39"/>
+      <c r="DZ60" s="39"/>
+      <c r="EA60" s="39"/>
+      <c r="EB60" s="39"/>
+      <c r="EC60" s="39"/>
+      <c r="ED60" s="39"/>
+      <c r="EE60" s="39"/>
+      <c r="EF60" s="39"/>
+      <c r="EG60" s="39"/>
+      <c r="EH60" s="39"/>
+      <c r="EI60" s="39"/>
+      <c r="EJ60" s="39"/>
+      <c r="EK60" s="39"/>
+      <c r="EL60" s="39"/>
+      <c r="EM60" s="39"/>
+      <c r="EN60" s="39"/>
+      <c r="EO60" s="39"/>
+      <c r="EP60" s="39"/>
+      <c r="EQ60" s="39"/>
+      <c r="ER60" s="39"/>
+      <c r="ES60" s="39"/>
+      <c r="ET60" s="39"/>
+      <c r="EU60" s="39"/>
+      <c r="EV60" s="39"/>
+      <c r="EW60" s="39"/>
+      <c r="EX60" s="39"/>
+      <c r="EY60" s="39"/>
+      <c r="EZ60" s="39"/>
+      <c r="FA60" s="39"/>
+      <c r="FB60" s="39"/>
+      <c r="FC60" s="39"/>
+      <c r="FD60" s="39"/>
+      <c r="FE60" s="39"/>
+      <c r="FF60" s="39"/>
+      <c r="FG60" s="39"/>
+      <c r="FH60" s="39"/>
+      <c r="FI60" s="39"/>
+      <c r="FJ60" s="39"/>
+      <c r="FK60" s="39"/>
+      <c r="FL60" s="39"/>
+      <c r="FM60" s="39"/>
+      <c r="FN60" s="39"/>
+      <c r="FO60" s="39"/>
+      <c r="FP60" s="39"/>
+      <c r="FQ60" s="39"/>
+      <c r="FR60" s="39"/>
+      <c r="FS60" s="39"/>
+      <c r="FT60" s="39"/>
+      <c r="FU60" s="39"/>
+      <c r="FV60" s="39"/>
+      <c r="FW60" s="39"/>
+      <c r="FX60" s="39"/>
+      <c r="FY60" s="39"/>
+      <c r="FZ60" s="39"/>
+      <c r="GA60" s="39"/>
+      <c r="GB60" s="39"/>
+      <c r="GC60" s="39"/>
+      <c r="GD60" s="39"/>
+      <c r="GE60" s="39"/>
+      <c r="GF60" s="39"/>
+      <c r="GG60" s="39"/>
+      <c r="GH60" s="39"/>
+      <c r="GI60" s="39"/>
+      <c r="GJ60" s="39"/>
+      <c r="GK60" s="39"/>
+      <c r="GL60" s="39"/>
+      <c r="GM60" s="39"/>
+      <c r="GN60" s="39"/>
+      <c r="GO60" s="39"/>
+      <c r="GP60" s="39"/>
+      <c r="GQ60" s="39"/>
+      <c r="GR60" s="39"/>
+      <c r="GS60" s="39"/>
+      <c r="GT60" s="39"/>
+      <c r="GU60" s="39"/>
+      <c r="GV60" s="39"/>
+      <c r="GW60" s="39"/>
+      <c r="GX60" s="39"/>
+      <c r="GY60" s="39"/>
+      <c r="GZ60" s="39"/>
+      <c r="HA60" s="39"/>
+      <c r="HB60" s="39"/>
+      <c r="HC60" s="39"/>
+      <c r="HD60" s="39"/>
+      <c r="HE60" s="39"/>
+      <c r="HF60" s="39"/>
+      <c r="HG60" s="39"/>
+      <c r="HH60" s="39"/>
+      <c r="HI60" s="39"/>
+      <c r="HJ60" s="39"/>
+      <c r="HK60" s="39"/>
+      <c r="HL60" s="39"/>
+      <c r="HM60" s="39"/>
+      <c r="HN60" s="39"/>
+      <c r="HO60" s="39"/>
+      <c r="HP60" s="39"/>
+      <c r="HQ60" s="39"/>
+      <c r="HR60" s="39"/>
+      <c r="HS60" s="39"/>
+      <c r="HT60" s="39"/>
+      <c r="HU60" s="39"/>
+      <c r="HV60" s="39"/>
+      <c r="HW60" s="39"/>
+      <c r="HX60" s="39"/>
+      <c r="HY60" s="39"/>
+      <c r="HZ60" s="39"/>
+      <c r="IA60" s="39"/>
+      <c r="IB60" s="39"/>
+      <c r="IC60" s="39"/>
+      <c r="ID60" s="39"/>
+      <c r="IE60" s="39"/>
+      <c r="IF60" s="39"/>
+      <c r="IG60" s="39"/>
+      <c r="IH60" s="39"/>
+      <c r="II60" s="39"/>
+      <c r="IJ60" s="39"/>
+      <c r="IK60" s="39"/>
+      <c r="IL60" s="39"/>
+      <c r="IM60" s="39"/>
     </row>
     <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="43"/>
       <c r="C61" s="60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61" s="55"/>
       <c r="E61" s="41"/>
@@ -11309,7 +11408,7 @@
       <c r="A62" s="47"/>
       <c r="B62" s="43"/>
       <c r="C62" s="60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="41"/>
@@ -11560,11 +11659,11 @@
       <c r="A63" s="47"/>
       <c r="B63" s="43"/>
       <c r="C63" s="60">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D63" s="55"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="17"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -11810,10 +11909,10 @@
     <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
       <c r="B64" s="43"/>
-      <c r="C64" s="60">
-        <v>61</v>
-      </c>
-      <c r="D64" s="55"/>
+      <c r="C64" s="61">
+        <v>62</v>
+      </c>
+      <c r="D64" s="40"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
       <c r="G64" s="21"/>
@@ -12062,10 +12161,10 @@
       <c r="A65" s="47"/>
       <c r="B65" s="43"/>
       <c r="C65" s="61">
-        <v>62</v>
-      </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="D65" s="55"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="20"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -12311,9 +12410,9 @@
     </row>
     <row r="66" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="61">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D66" s="55"/>
       <c r="E66" s="41"/>
@@ -12564,11 +12663,11 @@
       <c r="A67" s="47"/>
       <c r="B67" s="15"/>
       <c r="C67" s="61">
-        <v>64</v>
-      </c>
-      <c r="D67" s="55"/>
+        <v>65</v>
+      </c>
+      <c r="D67" s="40"/>
       <c r="E67" s="41"/>
-      <c r="F67" s="20"/>
+      <c r="F67" s="17"/>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
@@ -12815,11 +12914,11 @@
       <c r="A68" s="47"/>
       <c r="B68" s="15"/>
       <c r="C68" s="61">
-        <v>65</v>
-      </c>
-      <c r="D68" s="40"/>
+        <v>66</v>
+      </c>
+      <c r="D68" s="55"/>
       <c r="E68" s="41"/>
-      <c r="F68" s="17"/>
+      <c r="F68" s="20"/>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
@@ -13066,7 +13165,7 @@
       <c r="A69" s="47"/>
       <c r="B69" s="15"/>
       <c r="C69" s="61">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D69" s="55"/>
       <c r="E69" s="41"/>
@@ -13317,7 +13416,7 @@
       <c r="A70" s="47"/>
       <c r="B70" s="15"/>
       <c r="C70" s="61">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D70" s="55"/>
       <c r="E70" s="41"/>
@@ -13568,13 +13667,13 @@
       <c r="A71" s="47"/>
       <c r="B71" s="15"/>
       <c r="C71" s="61">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D71" s="55"/>
-      <c r="E71" s="41"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="20"/>
       <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
+      <c r="H71" s="20"/>
       <c r="I71" s="21"/>
       <c r="J71" s="22"/>
       <c r="K71" s="4"/>
@@ -13818,14 +13917,14 @@
     <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="15"/>
-      <c r="C72" s="61">
-        <v>69</v>
+      <c r="C72" s="60">
+        <v>70</v>
       </c>
       <c r="D72" s="55"/>
-      <c r="E72" s="23"/>
+      <c r="E72" s="56"/>
       <c r="F72" s="20"/>
       <c r="G72" s="21"/>
-      <c r="H72" s="20"/>
+      <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="22"/>
       <c r="K72" s="4"/>
@@ -14069,11 +14168,11 @@
     <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="15"/>
-      <c r="C73" s="60">
-        <v>70</v>
+      <c r="C73" s="61">
+        <v>71</v>
       </c>
       <c r="D73" s="55"/>
-      <c r="E73" s="56"/>
+      <c r="E73" s="41"/>
       <c r="F73" s="20"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
@@ -14320,11 +14419,11 @@
     <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="15"/>
-      <c r="C74" s="61">
-        <v>71</v>
-      </c>
-      <c r="D74" s="55"/>
-      <c r="E74" s="41"/>
+      <c r="C74" s="60">
+        <v>72</v>
+      </c>
+      <c r="D74" s="40"/>
+      <c r="E74" s="19"/>
       <c r="F74" s="20"/>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
@@ -14572,10 +14671,10 @@
       <c r="A75" s="47"/>
       <c r="B75" s="15"/>
       <c r="C75" s="60">
-        <v>72</v>
-      </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="19"/>
+        <v>73</v>
+      </c>
+      <c r="D75" s="55"/>
+      <c r="E75" s="56"/>
       <c r="F75" s="20"/>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
@@ -14821,12 +14920,12 @@
     </row>
     <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="60">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D76" s="55"/>
-      <c r="E76" s="56"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="20"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
@@ -15074,7 +15173,7 @@
       <c r="A77" s="47"/>
       <c r="B77" s="43"/>
       <c r="C77" s="60">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D77" s="55"/>
       <c r="E77" s="41"/>
@@ -15323,9 +15422,9 @@
     </row>
     <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="60">
-        <v>75</v>
+      <c r="B78" s="15"/>
+      <c r="C78" s="61">
+        <v>76</v>
       </c>
       <c r="D78" s="55"/>
       <c r="E78" s="41"/>
@@ -15575,11 +15674,11 @@
     <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="15"/>
-      <c r="C79" s="61">
-        <v>76</v>
+      <c r="C79" s="60">
+        <v>77</v>
       </c>
       <c r="D79" s="55"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="56"/>
       <c r="F79" s="20"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
@@ -15827,10 +15926,10 @@
       <c r="A80" s="47"/>
       <c r="B80" s="15"/>
       <c r="C80" s="60">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D80" s="55"/>
-      <c r="E80" s="56"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="20"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
@@ -16078,10 +16177,10 @@
       <c r="A81" s="47"/>
       <c r="B81" s="15"/>
       <c r="C81" s="60">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D81" s="55"/>
-      <c r="E81" s="19"/>
+      <c r="E81" s="41"/>
       <c r="F81" s="20"/>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
@@ -16329,7 +16428,7 @@
       <c r="A82" s="47"/>
       <c r="B82" s="15"/>
       <c r="C82" s="60">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D82" s="55"/>
       <c r="E82" s="41"/>
@@ -16580,7 +16679,7 @@
       <c r="A83" s="47"/>
       <c r="B83" s="15"/>
       <c r="C83" s="60">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D83" s="55"/>
       <c r="E83" s="41"/>
@@ -16829,12 +16928,12 @@
     </row>
     <row r="84" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="60">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D84" s="55"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="56"/>
       <c r="F84" s="20"/>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
@@ -17082,11 +17181,11 @@
       <c r="A85" s="47"/>
       <c r="B85" s="43"/>
       <c r="C85" s="60">
-        <v>82</v>
-      </c>
-      <c r="D85" s="55"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="D85" s="40"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="17"/>
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
@@ -17333,11 +17432,11 @@
       <c r="A86" s="47"/>
       <c r="B86" s="43"/>
       <c r="C86" s="60">
-        <v>83</v>
-      </c>
-      <c r="D86" s="40"/>
+        <v>84</v>
+      </c>
+      <c r="D86" s="55"/>
       <c r="E86" s="41"/>
-      <c r="F86" s="17"/>
+      <c r="F86" s="20"/>
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
@@ -17582,9 +17681,9 @@
     </row>
     <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="60">
-        <v>84</v>
+      <c r="B87" s="15"/>
+      <c r="C87" s="16">
+        <v>85</v>
       </c>
       <c r="D87" s="55"/>
       <c r="E87" s="41"/>
@@ -17835,7 +17934,7 @@
       <c r="A88" s="47"/>
       <c r="B88" s="15"/>
       <c r="C88" s="16">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D88" s="55"/>
       <c r="E88" s="41"/>
@@ -18086,7 +18185,7 @@
       <c r="A89" s="47"/>
       <c r="B89" s="15"/>
       <c r="C89" s="16">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D89" s="55"/>
       <c r="E89" s="41"/>
@@ -18336,11 +18435,11 @@
     <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
       <c r="B90" s="15"/>
-      <c r="C90" s="16">
-        <v>87</v>
+      <c r="C90" s="61">
+        <v>88</v>
       </c>
       <c r="D90" s="55"/>
-      <c r="E90" s="41"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="20"/>
       <c r="G90" s="21"/>
       <c r="H90" s="21"/>
@@ -18587,11 +18686,11 @@
     <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="B91" s="15"/>
-      <c r="C91" s="61">
-        <v>88</v>
+      <c r="C91" s="60">
+        <v>89</v>
       </c>
       <c r="D91" s="55"/>
-      <c r="E91" s="23"/>
+      <c r="E91" s="56"/>
       <c r="F91" s="20"/>
       <c r="G91" s="21"/>
       <c r="H91" s="21"/>
@@ -18839,7 +18938,7 @@
       <c r="A92" s="47"/>
       <c r="B92" s="15"/>
       <c r="C92" s="60">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D92" s="55"/>
       <c r="E92" s="56"/>
@@ -19090,10 +19189,10 @@
       <c r="A93" s="47"/>
       <c r="B93" s="15"/>
       <c r="C93" s="60">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D93" s="55"/>
-      <c r="E93" s="56"/>
+      <c r="E93" s="41"/>
       <c r="F93" s="20"/>
       <c r="G93" s="21"/>
       <c r="H93" s="21"/>
@@ -19341,7 +19440,7 @@
       <c r="A94" s="47"/>
       <c r="B94" s="15"/>
       <c r="C94" s="60">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D94" s="55"/>
       <c r="E94" s="41"/>
@@ -19592,7 +19691,7 @@
       <c r="A95" s="47"/>
       <c r="B95" s="15"/>
       <c r="C95" s="60">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D95" s="55"/>
       <c r="E95" s="41"/>
@@ -19843,10 +19942,10 @@
       <c r="A96" s="47"/>
       <c r="B96" s="15"/>
       <c r="C96" s="60">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D96" s="55"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="56"/>
       <c r="F96" s="20"/>
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
@@ -20094,10 +20193,10 @@
       <c r="A97" s="47"/>
       <c r="B97" s="15"/>
       <c r="C97" s="60">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D97" s="55"/>
-      <c r="E97" s="56"/>
+      <c r="E97" s="19"/>
       <c r="F97" s="20"/>
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
@@ -20345,7 +20444,7 @@
       <c r="A98" s="47"/>
       <c r="B98" s="15"/>
       <c r="C98" s="60">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D98" s="55"/>
       <c r="E98" s="19"/>
@@ -20596,7 +20695,7 @@
       <c r="A99" s="47"/>
       <c r="B99" s="15"/>
       <c r="C99" s="60">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D99" s="55"/>
       <c r="E99" s="19"/>
@@ -20847,10 +20946,10 @@
       <c r="A100" s="47"/>
       <c r="B100" s="15"/>
       <c r="C100" s="60">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D100" s="55"/>
-      <c r="E100" s="19"/>
+      <c r="E100" s="41"/>
       <c r="F100" s="20"/>
       <c r="G100" s="21"/>
       <c r="H100" s="21"/>
@@ -21091,14 +21190,14 @@
       <c r="II100" s="39"/>
       <c r="IJ100" s="39"/>
       <c r="IK100" s="39"/>
-      <c r="IL100" s="39"/>
-      <c r="IM100" s="39"/>
+      <c r="IL100"/>
+      <c r="IM100"/>
     </row>
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
       <c r="B101" s="15"/>
       <c r="C101" s="60">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D101" s="55"/>
       <c r="E101" s="41"/>
@@ -21342,14 +21441,14 @@
       <c r="II101" s="39"/>
       <c r="IJ101" s="39"/>
       <c r="IK101" s="39"/>
-      <c r="IL101"/>
-      <c r="IM101"/>
+      <c r="IL101" s="39"/>
+      <c r="IM101" s="39"/>
     </row>
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
       <c r="B102" s="15"/>
       <c r="C102" s="60">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D102" s="55"/>
       <c r="E102" s="41"/>
@@ -21600,10 +21699,10 @@
       <c r="A103" s="47"/>
       <c r="B103" s="15"/>
       <c r="C103" s="60">
-        <v>100</v>
-      </c>
-      <c r="D103" s="55"/>
-      <c r="E103" s="41"/>
+        <v>101</v>
+      </c>
+      <c r="D103" s="40"/>
+      <c r="E103" s="19"/>
       <c r="F103" s="20"/>
       <c r="G103" s="21"/>
       <c r="H103" s="21"/>
@@ -21851,7 +21950,7 @@
       <c r="A104" s="47"/>
       <c r="B104" s="15"/>
       <c r="C104" s="60">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D104" s="40"/>
       <c r="E104" s="19"/>
@@ -22102,7 +22201,7 @@
       <c r="A105" s="47"/>
       <c r="B105" s="15"/>
       <c r="C105" s="60">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D105" s="40"/>
       <c r="E105" s="19"/>
@@ -22352,11 +22451,11 @@
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="60">
-        <v>103</v>
-      </c>
-      <c r="D106" s="40"/>
-      <c r="E106" s="19"/>
+      <c r="C106" s="61">
+        <v>104</v>
+      </c>
+      <c r="D106" s="55"/>
+      <c r="E106" s="56"/>
       <c r="F106" s="20"/>
       <c r="G106" s="21"/>
       <c r="H106" s="21"/>
@@ -22602,12 +22701,12 @@
     </row>
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="61">
-        <v>104</v>
+      <c r="B107" s="43"/>
+      <c r="C107" s="60">
+        <v>105</v>
       </c>
       <c r="D107" s="55"/>
-      <c r="E107" s="56"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="20"/>
       <c r="G107" s="21"/>
       <c r="H107" s="21"/>
@@ -22855,10 +22954,10 @@
       <c r="A108" s="47"/>
       <c r="B108" s="43"/>
       <c r="C108" s="60">
-        <v>105</v>
-      </c>
-      <c r="D108" s="55"/>
-      <c r="E108" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="D108" s="40"/>
+      <c r="E108" s="19"/>
       <c r="F108" s="20"/>
       <c r="G108" s="21"/>
       <c r="H108" s="21"/>
@@ -23106,7 +23205,7 @@
       <c r="A109" s="47"/>
       <c r="B109" s="43"/>
       <c r="C109" s="60">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="19"/>
@@ -23355,9 +23454,9 @@
     </row>
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="43"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="60">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="19"/>
@@ -23608,7 +23707,7 @@
       <c r="A111" s="47"/>
       <c r="B111" s="15"/>
       <c r="C111" s="60">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D111" s="40"/>
       <c r="E111" s="19"/>
@@ -23858,11 +23957,11 @@
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
       <c r="B112" s="15"/>
-      <c r="C112" s="60">
-        <v>109</v>
-      </c>
-      <c r="D112" s="40"/>
-      <c r="E112" s="19"/>
+      <c r="C112" s="16">
+        <v>110</v>
+      </c>
+      <c r="D112" s="55"/>
+      <c r="E112" s="41"/>
       <c r="F112" s="20"/>
       <c r="G112" s="21"/>
       <c r="H112" s="21"/>
@@ -24110,7 +24209,7 @@
       <c r="A113" s="47"/>
       <c r="B113" s="15"/>
       <c r="C113" s="16">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D113" s="55"/>
       <c r="E113" s="41"/>
@@ -24361,10 +24460,10 @@
       <c r="A114" s="47"/>
       <c r="B114" s="15"/>
       <c r="C114" s="16">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D114" s="55"/>
-      <c r="E114" s="41"/>
+      <c r="E114" s="19"/>
       <c r="F114" s="20"/>
       <c r="G114" s="21"/>
       <c r="H114" s="21"/>
@@ -24611,11 +24710,11 @@
     <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
       <c r="B115" s="15"/>
-      <c r="C115" s="16">
-        <v>112</v>
+      <c r="C115" s="60">
+        <v>113</v>
       </c>
       <c r="D115" s="55"/>
-      <c r="E115" s="19"/>
+      <c r="E115" s="23"/>
       <c r="F115" s="20"/>
       <c r="G115" s="21"/>
       <c r="H115" s="21"/>
@@ -24861,12 +24960,12 @@
     </row>
     <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="15"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="60">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D116" s="55"/>
-      <c r="E116" s="23"/>
+      <c r="E116" s="56"/>
       <c r="F116" s="20"/>
       <c r="G116" s="21"/>
       <c r="H116" s="21"/>
@@ -25114,7 +25213,7 @@
       <c r="A117" s="47"/>
       <c r="B117" s="43"/>
       <c r="C117" s="60">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D117" s="55"/>
       <c r="E117" s="56"/>
@@ -25363,12 +25462,12 @@
     </row>
     <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="43"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="60">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D118" s="55"/>
-      <c r="E118" s="56"/>
+      <c r="E118" s="23"/>
       <c r="F118" s="20"/>
       <c r="G118" s="21"/>
       <c r="H118" s="21"/>
@@ -25616,12 +25715,12 @@
       <c r="A119" s="47"/>
       <c r="B119" s="15"/>
       <c r="C119" s="60">
-        <v>116</v>
-      </c>
-      <c r="D119" s="55"/>
-      <c r="E119" s="23"/>
+        <v>117</v>
+      </c>
+      <c r="D119" s="40"/>
+      <c r="E119" s="19"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="21"/>
+      <c r="G119" s="20"/>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
@@ -25867,12 +25966,12 @@
       <c r="A120" s="47"/>
       <c r="B120" s="15"/>
       <c r="C120" s="60">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D120" s="40"/>
-      <c r="E120" s="19"/>
+      <c r="E120" s="23"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
+      <c r="G120" s="21"/>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
       <c r="J120" s="22"/>
@@ -26118,11 +26217,10 @@
       <c r="A121" s="47"/>
       <c r="B121" s="15"/>
       <c r="C121" s="60">
-        <v>118</v>
-      </c>
-      <c r="D121" s="40"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="D121" s="64"/>
+      <c r="F121" s="65"/>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
@@ -26369,10 +26467,11 @@
       <c r="A122" s="47"/>
       <c r="B122" s="15"/>
       <c r="C122" s="60">
-        <v>119</v>
-      </c>
-      <c r="D122" s="64"/>
-      <c r="F122" s="65"/>
+        <v>120</v>
+      </c>
+      <c r="D122" s="55"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="20"/>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
@@ -26619,12 +26718,11 @@
       <c r="A123" s="47"/>
       <c r="B123" s="15"/>
       <c r="C123" s="60">
-        <v>120</v>
-      </c>
-      <c r="D123" s="55"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="D123" s="40"/>
+      <c r="E123" s="19"/>
+      <c r="G123" s="20"/>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
       <c r="J123" s="22"/>
@@ -26870,11 +26968,12 @@
       <c r="A124" s="47"/>
       <c r="B124" s="15"/>
       <c r="C124" s="60">
-        <v>121</v>
-      </c>
-      <c r="D124" s="40"/>
-      <c r="E124" s="19"/>
-      <c r="G124" s="20"/>
+        <v>122</v>
+      </c>
+      <c r="D124" s="55"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="21"/>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
       <c r="J124" s="22"/>
@@ -27120,7 +27219,7 @@
       <c r="A125" s="47"/>
       <c r="B125" s="15"/>
       <c r="C125" s="60">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D125" s="55"/>
       <c r="E125" s="56"/>
@@ -27371,10 +27470,10 @@
       <c r="A126" s="47"/>
       <c r="B126" s="15"/>
       <c r="C126" s="60">
-        <v>123</v>
-      </c>
-      <c r="D126" s="55"/>
-      <c r="E126" s="56"/>
+        <v>124</v>
+      </c>
+      <c r="D126" s="40"/>
+      <c r="E126" s="41"/>
       <c r="F126" s="20"/>
       <c r="G126" s="21"/>
       <c r="H126" s="21"/>
@@ -27622,10 +27721,10 @@
       <c r="A127" s="47"/>
       <c r="B127" s="15"/>
       <c r="C127" s="60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D127" s="40"/>
-      <c r="E127" s="41"/>
+      <c r="E127" s="19"/>
       <c r="F127" s="20"/>
       <c r="G127" s="21"/>
       <c r="H127" s="21"/>
@@ -27873,7 +27972,7 @@
       <c r="A128" s="47"/>
       <c r="B128" s="15"/>
       <c r="C128" s="60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D128" s="40"/>
       <c r="E128" s="19"/>
@@ -28124,10 +28223,10 @@
       <c r="A129" s="47"/>
       <c r="B129" s="15"/>
       <c r="C129" s="60">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D129" s="40"/>
-      <c r="E129" s="19"/>
+      <c r="E129" s="56"/>
       <c r="F129" s="20"/>
       <c r="G129" s="21"/>
       <c r="H129" s="21"/>
@@ -28375,10 +28474,10 @@
       <c r="A130" s="47"/>
       <c r="B130" s="15"/>
       <c r="C130" s="60">
-        <v>127</v>
-      </c>
-      <c r="D130" s="40"/>
-      <c r="E130" s="56"/>
+        <v>128</v>
+      </c>
+      <c r="D130" s="55"/>
+      <c r="E130" s="23"/>
       <c r="F130" s="20"/>
       <c r="G130" s="21"/>
       <c r="H130" s="21"/>
@@ -28626,11 +28725,11 @@
       <c r="A131" s="47"/>
       <c r="B131" s="15"/>
       <c r="C131" s="60">
-        <v>128</v>
-      </c>
-      <c r="D131" s="55"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D131" s="64"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="65"/>
       <c r="G131" s="21"/>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
@@ -28877,11 +28976,11 @@
       <c r="A132" s="47"/>
       <c r="B132" s="15"/>
       <c r="C132" s="60">
-        <v>129</v>
-      </c>
-      <c r="D132" s="64"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="65"/>
+        <v>130</v>
+      </c>
+      <c r="D132" s="40"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="20"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
@@ -29128,10 +29227,10 @@
       <c r="A133" s="47"/>
       <c r="B133" s="15"/>
       <c r="C133" s="60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D133" s="40"/>
-      <c r="E133" s="41"/>
+      <c r="E133" s="19"/>
       <c r="F133" s="20"/>
       <c r="G133" s="21"/>
       <c r="H133" s="21"/>
@@ -29379,10 +29478,10 @@
       <c r="A134" s="47"/>
       <c r="B134" s="15"/>
       <c r="C134" s="60">
-        <v>131</v>
-      </c>
-      <c r="D134" s="40"/>
-      <c r="E134" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="D134" s="55"/>
+      <c r="E134" s="23"/>
       <c r="F134" s="20"/>
       <c r="G134" s="21"/>
       <c r="H134" s="21"/>
@@ -29630,10 +29729,10 @@
       <c r="A135" s="47"/>
       <c r="B135" s="15"/>
       <c r="C135" s="60">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D135" s="55"/>
-      <c r="E135" s="23"/>
+      <c r="E135" s="41"/>
       <c r="F135" s="20"/>
       <c r="G135" s="21"/>
       <c r="H135" s="21"/>
@@ -29881,10 +29980,10 @@
       <c r="A136" s="47"/>
       <c r="B136" s="15"/>
       <c r="C136" s="60">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D136" s="55"/>
-      <c r="E136" s="41"/>
+      <c r="E136" s="56"/>
       <c r="F136" s="20"/>
       <c r="G136" s="21"/>
       <c r="H136" s="21"/>
@@ -30132,7 +30231,7 @@
       <c r="A137" s="47"/>
       <c r="B137" s="15"/>
       <c r="C137" s="60">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D137" s="55"/>
       <c r="E137" s="56"/>
@@ -30383,10 +30482,10 @@
       <c r="A138" s="47"/>
       <c r="B138" s="15"/>
       <c r="C138" s="60">
-        <v>135</v>
-      </c>
-      <c r="D138" s="55"/>
-      <c r="E138" s="56"/>
+        <v>136</v>
+      </c>
+      <c r="D138" s="40"/>
+      <c r="E138" s="41"/>
       <c r="F138" s="20"/>
       <c r="G138" s="21"/>
       <c r="H138" s="21"/>
@@ -30633,10 +30732,10 @@
     <row r="139" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="47"/>
       <c r="B139" s="15"/>
-      <c r="C139" s="60">
-        <v>136</v>
-      </c>
-      <c r="D139" s="40"/>
+      <c r="C139" s="16">
+        <v>137</v>
+      </c>
+      <c r="D139" s="55"/>
       <c r="E139" s="41"/>
       <c r="F139" s="20"/>
       <c r="G139" s="21"/>
@@ -30885,11 +30984,11 @@
       <c r="A140" s="47"/>
       <c r="B140" s="15"/>
       <c r="C140" s="16">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D140" s="55"/>
       <c r="E140" s="41"/>
-      <c r="F140" s="20"/>
+      <c r="F140" s="17"/>
       <c r="G140" s="21"/>
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
@@ -31136,7 +31235,7 @@
       <c r="A141" s="47"/>
       <c r="B141" s="15"/>
       <c r="C141" s="16">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D141" s="55"/>
       <c r="E141" s="41"/>
@@ -31387,7 +31486,7 @@
       <c r="A142" s="47"/>
       <c r="B142" s="15"/>
       <c r="C142" s="16">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D142" s="55"/>
       <c r="E142" s="41"/>
@@ -31638,7 +31737,7 @@
       <c r="A143" s="47"/>
       <c r="B143" s="15"/>
       <c r="C143" s="16">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D143" s="55"/>
       <c r="E143" s="41"/>
@@ -31888,12 +31987,12 @@
     <row r="144" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="47"/>
       <c r="B144" s="15"/>
-      <c r="C144" s="16">
-        <v>141</v>
-      </c>
-      <c r="D144" s="55"/>
+      <c r="C144" s="60">
+        <v>142</v>
+      </c>
+      <c r="D144" s="40"/>
       <c r="E144" s="41"/>
-      <c r="F144" s="17"/>
+      <c r="F144" s="20"/>
       <c r="G144" s="21"/>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
@@ -32140,12 +32239,12 @@
       <c r="A145" s="47"/>
       <c r="B145" s="15"/>
       <c r="C145" s="60">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D145" s="40"/>
       <c r="E145" s="41"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="21"/>
+      <c r="G145" s="20"/>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
       <c r="J145" s="22"/>
@@ -32391,12 +32490,12 @@
       <c r="A146" s="47"/>
       <c r="B146" s="15"/>
       <c r="C146" s="60">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D146" s="40"/>
       <c r="E146" s="41"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
+      <c r="G146" s="21"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="22"/>
@@ -32642,7 +32741,7 @@
       <c r="A147" s="47"/>
       <c r="B147" s="15"/>
       <c r="C147" s="60">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D147" s="40"/>
       <c r="E147" s="41"/>
@@ -32893,7 +32992,7 @@
       <c r="A148" s="47"/>
       <c r="B148" s="15"/>
       <c r="C148" s="60">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D148" s="40"/>
       <c r="E148" s="41"/>
@@ -33144,7 +33243,7 @@
       <c r="A149" s="47"/>
       <c r="B149" s="15"/>
       <c r="C149" s="60">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D149" s="40"/>
       <c r="E149" s="41"/>
@@ -33395,7 +33494,7 @@
       <c r="A150" s="47"/>
       <c r="B150" s="15"/>
       <c r="C150" s="60">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D150" s="40"/>
       <c r="E150" s="41"/>
@@ -33646,10 +33745,10 @@
       <c r="A151" s="47"/>
       <c r="B151" s="15"/>
       <c r="C151" s="60">
-        <v>148</v>
-      </c>
-      <c r="D151" s="40"/>
-      <c r="E151" s="41"/>
+        <v>149</v>
+      </c>
+      <c r="D151" s="55"/>
+      <c r="E151" s="23"/>
       <c r="F151" s="20"/>
       <c r="G151" s="21"/>
       <c r="H151" s="21"/>
@@ -33897,10 +33996,10 @@
       <c r="A152" s="47"/>
       <c r="B152" s="15"/>
       <c r="C152" s="60">
-        <v>149</v>
-      </c>
-      <c r="D152" s="55"/>
-      <c r="E152" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="D152" s="40"/>
+      <c r="E152" s="41"/>
       <c r="F152" s="20"/>
       <c r="G152" s="21"/>
       <c r="H152" s="21"/>
@@ -34148,7 +34247,7 @@
       <c r="A153" s="47"/>
       <c r="B153" s="15"/>
       <c r="C153" s="60">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D153" s="40"/>
       <c r="E153" s="41"/>
@@ -34399,7 +34498,7 @@
       <c r="A154" s="47"/>
       <c r="B154" s="15"/>
       <c r="C154" s="60">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D154" s="40"/>
       <c r="E154" s="41"/>
@@ -34650,7 +34749,7 @@
       <c r="A155" s="47"/>
       <c r="B155" s="15"/>
       <c r="C155" s="60">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D155" s="40"/>
       <c r="E155" s="41"/>
@@ -34901,7 +35000,7 @@
       <c r="A156" s="47"/>
       <c r="B156" s="15"/>
       <c r="C156" s="60">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="41"/>
@@ -35152,7 +35251,7 @@
       <c r="A157" s="47"/>
       <c r="B157" s="15"/>
       <c r="C157" s="60">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D157" s="40"/>
       <c r="E157" s="41"/>
@@ -35403,7 +35502,7 @@
       <c r="A158" s="47"/>
       <c r="B158" s="15"/>
       <c r="C158" s="60">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D158" s="40"/>
       <c r="E158" s="41"/>
@@ -35654,10 +35753,10 @@
       <c r="A159" s="47"/>
       <c r="B159" s="15"/>
       <c r="C159" s="60">
-        <v>156</v>
-      </c>
-      <c r="D159" s="40"/>
-      <c r="E159" s="41"/>
+        <v>157</v>
+      </c>
+      <c r="D159" s="55"/>
+      <c r="E159" s="23"/>
       <c r="F159" s="20"/>
       <c r="G159" s="21"/>
       <c r="H159" s="21"/>
@@ -35905,10 +36004,10 @@
       <c r="A160" s="47"/>
       <c r="B160" s="15"/>
       <c r="C160" s="60">
-        <v>157</v>
-      </c>
-      <c r="D160" s="55"/>
-      <c r="E160" s="23"/>
+        <v>158</v>
+      </c>
+      <c r="D160" s="40"/>
+      <c r="E160" s="41"/>
       <c r="F160" s="20"/>
       <c r="G160" s="21"/>
       <c r="H160" s="21"/>
@@ -36156,11 +36255,11 @@
       <c r="A161" s="47"/>
       <c r="B161" s="15"/>
       <c r="C161" s="60">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D161" s="40"/>
       <c r="E161" s="41"/>
-      <c r="F161" s="20"/>
+      <c r="F161" s="21"/>
       <c r="G161" s="21"/>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
@@ -36407,11 +36506,11 @@
       <c r="A162" s="47"/>
       <c r="B162" s="15"/>
       <c r="C162" s="60">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D162" s="40"/>
       <c r="E162" s="41"/>
-      <c r="F162" s="21"/>
+      <c r="F162" s="20"/>
       <c r="G162" s="21"/>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
@@ -36658,7 +36757,7 @@
       <c r="A163" s="47"/>
       <c r="B163" s="15"/>
       <c r="C163" s="60">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D163" s="40"/>
       <c r="E163" s="41"/>
@@ -36909,7 +37008,7 @@
       <c r="A164" s="47"/>
       <c r="B164" s="15"/>
       <c r="C164" s="60">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D164" s="40"/>
       <c r="E164" s="41"/>
@@ -37159,9 +37258,7 @@
     <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="47"/>
       <c r="B165" s="15"/>
-      <c r="C165" s="60">
-        <v>162</v>
-      </c>
+      <c r="C165" s="60"/>
       <c r="D165" s="40"/>
       <c r="E165" s="41"/>
       <c r="F165" s="20"/>
@@ -37907,7 +38004,7 @@
     </row>
     <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="47"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="43"/>
       <c r="C168" s="60"/>
       <c r="D168" s="40"/>
       <c r="E168" s="41"/>
@@ -38156,7 +38253,7 @@
     </row>
     <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="47"/>
-      <c r="B169" s="43"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="60"/>
       <c r="D169" s="40"/>
       <c r="E169" s="41"/>
@@ -38405,285 +38502,285 @@
     </row>
     <row r="170" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="47"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="60"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="41"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="21"/>
-      <c r="I170" s="21"/>
-      <c r="J170" s="22"/>
-      <c r="K170" s="4"/>
+      <c r="B170" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" s="62"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="33">
+        <f>SUM(F3:F169)</f>
+        <v>0</v>
+      </c>
+      <c r="G170" s="34">
+        <f>SUM(G3:G169)</f>
+        <v>-301.49</v>
+      </c>
+      <c r="H170" s="34">
+        <f>SUM(H3:H169)</f>
+        <v>0</v>
+      </c>
+      <c r="I170" s="34">
+        <f>SUM(I3:I169)</f>
+        <v>-163.41</v>
+      </c>
+      <c r="J170" s="51">
+        <f>SUM(J3:J169)</f>
+        <v>0</v>
+      </c>
+      <c r="K170" s="50"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
-      <c r="N170" s="39"/>
-      <c r="O170" s="39"/>
-      <c r="P170" s="39"/>
-      <c r="Q170" s="39"/>
-      <c r="R170" s="39"/>
-      <c r="S170" s="39"/>
-      <c r="T170" s="39"/>
-      <c r="U170" s="39"/>
-      <c r="V170" s="39"/>
-      <c r="W170" s="39"/>
-      <c r="X170" s="39"/>
-      <c r="Y170" s="39"/>
-      <c r="Z170" s="39"/>
-      <c r="AA170" s="39"/>
-      <c r="AB170" s="39"/>
-      <c r="AC170" s="39"/>
-      <c r="AD170" s="39"/>
-      <c r="AE170" s="39"/>
-      <c r="AF170" s="39"/>
-      <c r="AG170" s="39"/>
-      <c r="AH170" s="39"/>
-      <c r="AI170" s="39"/>
-      <c r="AJ170" s="39"/>
-      <c r="AK170" s="39"/>
-      <c r="AL170" s="39"/>
-      <c r="AM170" s="39"/>
-      <c r="AN170" s="39"/>
-      <c r="AO170" s="39"/>
-      <c r="AP170" s="39"/>
-      <c r="AQ170" s="39"/>
-      <c r="AR170" s="39"/>
-      <c r="AS170" s="39"/>
-      <c r="AT170" s="39"/>
-      <c r="AU170" s="39"/>
-      <c r="AV170" s="39"/>
-      <c r="AW170" s="39"/>
-      <c r="AX170" s="39"/>
-      <c r="AY170" s="39"/>
-      <c r="AZ170" s="39"/>
-      <c r="BA170" s="39"/>
-      <c r="BB170" s="39"/>
-      <c r="BC170" s="39"/>
-      <c r="BD170" s="39"/>
-      <c r="BE170" s="39"/>
-      <c r="BF170" s="39"/>
-      <c r="BG170" s="39"/>
-      <c r="BH170" s="39"/>
-      <c r="BI170" s="39"/>
-      <c r="BJ170" s="39"/>
-      <c r="BK170" s="39"/>
-      <c r="BL170" s="39"/>
-      <c r="BM170" s="39"/>
-      <c r="BN170" s="39"/>
-      <c r="BO170" s="39"/>
-      <c r="BP170" s="39"/>
-      <c r="BQ170" s="39"/>
-      <c r="BR170" s="39"/>
-      <c r="BS170" s="39"/>
-      <c r="BT170" s="39"/>
-      <c r="BU170" s="39"/>
-      <c r="BV170" s="39"/>
-      <c r="BW170" s="39"/>
-      <c r="BX170" s="39"/>
-      <c r="BY170" s="39"/>
-      <c r="BZ170" s="39"/>
-      <c r="CA170" s="39"/>
-      <c r="CB170" s="39"/>
-      <c r="CC170" s="39"/>
-      <c r="CD170" s="39"/>
-      <c r="CE170" s="39"/>
-      <c r="CF170" s="39"/>
-      <c r="CG170" s="39"/>
-      <c r="CH170" s="39"/>
-      <c r="CI170" s="39"/>
-      <c r="CJ170" s="39"/>
-      <c r="CK170" s="39"/>
-      <c r="CL170" s="39"/>
-      <c r="CM170" s="39"/>
-      <c r="CN170" s="39"/>
-      <c r="CO170" s="39"/>
-      <c r="CP170" s="39"/>
-      <c r="CQ170" s="39"/>
-      <c r="CR170" s="39"/>
-      <c r="CS170" s="39"/>
-      <c r="CT170" s="39"/>
-      <c r="CU170" s="39"/>
-      <c r="CV170" s="39"/>
-      <c r="CW170" s="39"/>
-      <c r="CX170" s="39"/>
-      <c r="CY170" s="39"/>
-      <c r="CZ170" s="39"/>
-      <c r="DA170" s="39"/>
-      <c r="DB170" s="39"/>
-      <c r="DC170" s="39"/>
-      <c r="DD170" s="39"/>
-      <c r="DE170" s="39"/>
-      <c r="DF170" s="39"/>
-      <c r="DG170" s="39"/>
-      <c r="DH170" s="39"/>
-      <c r="DI170" s="39"/>
-      <c r="DJ170" s="39"/>
-      <c r="DK170" s="39"/>
-      <c r="DL170" s="39"/>
-      <c r="DM170" s="39"/>
-      <c r="DN170" s="39"/>
-      <c r="DO170" s="39"/>
-      <c r="DP170" s="39"/>
-      <c r="DQ170" s="39"/>
-      <c r="DR170" s="39"/>
-      <c r="DS170" s="39"/>
-      <c r="DT170" s="39"/>
-      <c r="DU170" s="39"/>
-      <c r="DV170" s="39"/>
-      <c r="DW170" s="39"/>
-      <c r="DX170" s="39"/>
-      <c r="DY170" s="39"/>
-      <c r="DZ170" s="39"/>
-      <c r="EA170" s="39"/>
-      <c r="EB170" s="39"/>
-      <c r="EC170" s="39"/>
-      <c r="ED170" s="39"/>
-      <c r="EE170" s="39"/>
-      <c r="EF170" s="39"/>
-      <c r="EG170" s="39"/>
-      <c r="EH170" s="39"/>
-      <c r="EI170" s="39"/>
-      <c r="EJ170" s="39"/>
-      <c r="EK170" s="39"/>
-      <c r="EL170" s="39"/>
-      <c r="EM170" s="39"/>
-      <c r="EN170" s="39"/>
-      <c r="EO170" s="39"/>
-      <c r="EP170" s="39"/>
-      <c r="EQ170" s="39"/>
-      <c r="ER170" s="39"/>
-      <c r="ES170" s="39"/>
-      <c r="ET170" s="39"/>
-      <c r="EU170" s="39"/>
-      <c r="EV170" s="39"/>
-      <c r="EW170" s="39"/>
-      <c r="EX170" s="39"/>
-      <c r="EY170" s="39"/>
-      <c r="EZ170" s="39"/>
-      <c r="FA170" s="39"/>
-      <c r="FB170" s="39"/>
-      <c r="FC170" s="39"/>
-      <c r="FD170" s="39"/>
-      <c r="FE170" s="39"/>
-      <c r="FF170" s="39"/>
-      <c r="FG170" s="39"/>
-      <c r="FH170" s="39"/>
-      <c r="FI170" s="39"/>
-      <c r="FJ170" s="39"/>
-      <c r="FK170" s="39"/>
-      <c r="FL170" s="39"/>
-      <c r="FM170" s="39"/>
-      <c r="FN170" s="39"/>
-      <c r="FO170" s="39"/>
-      <c r="FP170" s="39"/>
-      <c r="FQ170" s="39"/>
-      <c r="FR170" s="39"/>
-      <c r="FS170" s="39"/>
-      <c r="FT170" s="39"/>
-      <c r="FU170" s="39"/>
-      <c r="FV170" s="39"/>
-      <c r="FW170" s="39"/>
-      <c r="FX170" s="39"/>
-      <c r="FY170" s="39"/>
-      <c r="FZ170" s="39"/>
-      <c r="GA170" s="39"/>
-      <c r="GB170" s="39"/>
-      <c r="GC170" s="39"/>
-      <c r="GD170" s="39"/>
-      <c r="GE170" s="39"/>
-      <c r="GF170" s="39"/>
-      <c r="GG170" s="39"/>
-      <c r="GH170" s="39"/>
-      <c r="GI170" s="39"/>
-      <c r="GJ170" s="39"/>
-      <c r="GK170" s="39"/>
-      <c r="GL170" s="39"/>
-      <c r="GM170" s="39"/>
-      <c r="GN170" s="39"/>
-      <c r="GO170" s="39"/>
-      <c r="GP170" s="39"/>
-      <c r="GQ170" s="39"/>
-      <c r="GR170" s="39"/>
-      <c r="GS170" s="39"/>
-      <c r="GT170" s="39"/>
-      <c r="GU170" s="39"/>
-      <c r="GV170" s="39"/>
-      <c r="GW170" s="39"/>
-      <c r="GX170" s="39"/>
-      <c r="GY170" s="39"/>
-      <c r="GZ170" s="39"/>
-      <c r="HA170" s="39"/>
-      <c r="HB170" s="39"/>
-      <c r="HC170" s="39"/>
-      <c r="HD170" s="39"/>
-      <c r="HE170" s="39"/>
-      <c r="HF170" s="39"/>
-      <c r="HG170" s="39"/>
-      <c r="HH170" s="39"/>
-      <c r="HI170" s="39"/>
-      <c r="HJ170" s="39"/>
-      <c r="HK170" s="39"/>
-      <c r="HL170" s="39"/>
-      <c r="HM170" s="39"/>
-      <c r="HN170" s="39"/>
-      <c r="HO170" s="39"/>
-      <c r="HP170" s="39"/>
-      <c r="HQ170" s="39"/>
-      <c r="HR170" s="39"/>
-      <c r="HS170" s="39"/>
-      <c r="HT170" s="39"/>
-      <c r="HU170" s="39"/>
-      <c r="HV170" s="39"/>
-      <c r="HW170" s="39"/>
-      <c r="HX170" s="39"/>
-      <c r="HY170" s="39"/>
-      <c r="HZ170" s="39"/>
-      <c r="IA170" s="39"/>
-      <c r="IB170" s="39"/>
-      <c r="IC170" s="39"/>
-      <c r="ID170" s="39"/>
-      <c r="IE170" s="39"/>
-      <c r="IF170" s="39"/>
-      <c r="IG170" s="39"/>
-      <c r="IH170" s="39"/>
-      <c r="II170" s="39"/>
-      <c r="IJ170" s="39"/>
-      <c r="IK170" s="39"/>
-      <c r="IL170" s="39"/>
-      <c r="IM170" s="39"/>
+      <c r="IM170"/>
     </row>
     <row r="171" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="47"/>
-      <c r="B171" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="62"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="33">
-        <f>SUM(F3:F170)</f>
-        <v>0</v>
-      </c>
-      <c r="G171" s="34">
-        <f>SUM(G3:G170)</f>
-        <v>0</v>
-      </c>
-      <c r="H171" s="34">
-        <f>SUM(H3:H170)</f>
-        <v>0</v>
-      </c>
-      <c r="I171" s="34">
-        <f>SUM(I3:I170)</f>
-        <v>0</v>
-      </c>
-      <c r="J171" s="51">
-        <f>SUM(J3:J170)</f>
-        <v>0</v>
-      </c>
-      <c r="K171" s="50"/>
+      <c r="A171" s="48"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
-      <c r="IM171"/>
+      <c r="N171" s="39"/>
+      <c r="O171" s="39"/>
+      <c r="P171" s="39"/>
+      <c r="Q171" s="39"/>
+      <c r="R171" s="39"/>
+      <c r="S171" s="39"/>
+      <c r="T171" s="39"/>
+      <c r="U171" s="39"/>
+      <c r="V171" s="39"/>
+      <c r="W171" s="39"/>
+      <c r="X171" s="39"/>
+      <c r="Y171" s="39"/>
+      <c r="Z171" s="39"/>
+      <c r="AA171" s="39"/>
+      <c r="AB171" s="39"/>
+      <c r="AC171" s="39"/>
+      <c r="AD171" s="39"/>
+      <c r="AE171" s="39"/>
+      <c r="AF171" s="39"/>
+      <c r="AG171" s="39"/>
+      <c r="AH171" s="39"/>
+      <c r="AI171" s="39"/>
+      <c r="AJ171" s="39"/>
+      <c r="AK171" s="39"/>
+      <c r="AL171" s="39"/>
+      <c r="AM171" s="39"/>
+      <c r="AN171" s="39"/>
+      <c r="AO171" s="39"/>
+      <c r="AP171" s="39"/>
+      <c r="AQ171" s="39"/>
+      <c r="AR171" s="39"/>
+      <c r="AS171" s="39"/>
+      <c r="AT171" s="39"/>
+      <c r="AU171" s="39"/>
+      <c r="AV171" s="39"/>
+      <c r="AW171" s="39"/>
+      <c r="AX171" s="39"/>
+      <c r="AY171" s="39"/>
+      <c r="AZ171" s="39"/>
+      <c r="BA171" s="39"/>
+      <c r="BB171" s="39"/>
+      <c r="BC171" s="39"/>
+      <c r="BD171" s="39"/>
+      <c r="BE171" s="39"/>
+      <c r="BF171" s="39"/>
+      <c r="BG171" s="39"/>
+      <c r="BH171" s="39"/>
+      <c r="BI171" s="39"/>
+      <c r="BJ171" s="39"/>
+      <c r="BK171" s="39"/>
+      <c r="BL171" s="39"/>
+      <c r="BM171" s="39"/>
+      <c r="BN171" s="39"/>
+      <c r="BO171" s="39"/>
+      <c r="BP171" s="39"/>
+      <c r="BQ171" s="39"/>
+      <c r="BR171" s="39"/>
+      <c r="BS171" s="39"/>
+      <c r="BT171" s="39"/>
+      <c r="BU171" s="39"/>
+      <c r="BV171" s="39"/>
+      <c r="BW171" s="39"/>
+      <c r="BX171" s="39"/>
+      <c r="BY171" s="39"/>
+      <c r="BZ171" s="39"/>
+      <c r="CA171" s="39"/>
+      <c r="CB171" s="39"/>
+      <c r="CC171" s="39"/>
+      <c r="CD171" s="39"/>
+      <c r="CE171" s="39"/>
+      <c r="CF171" s="39"/>
+      <c r="CG171" s="39"/>
+      <c r="CH171" s="39"/>
+      <c r="CI171" s="39"/>
+      <c r="CJ171" s="39"/>
+      <c r="CK171" s="39"/>
+      <c r="CL171" s="39"/>
+      <c r="CM171" s="39"/>
+      <c r="CN171" s="39"/>
+      <c r="CO171" s="39"/>
+      <c r="CP171" s="39"/>
+      <c r="CQ171" s="39"/>
+      <c r="CR171" s="39"/>
+      <c r="CS171" s="39"/>
+      <c r="CT171" s="39"/>
+      <c r="CU171" s="39"/>
+      <c r="CV171" s="39"/>
+      <c r="CW171" s="39"/>
+      <c r="CX171" s="39"/>
+      <c r="CY171" s="39"/>
+      <c r="CZ171" s="39"/>
+      <c r="DA171" s="39"/>
+      <c r="DB171" s="39"/>
+      <c r="DC171" s="39"/>
+      <c r="DD171" s="39"/>
+      <c r="DE171" s="39"/>
+      <c r="DF171" s="39"/>
+      <c r="DG171" s="39"/>
+      <c r="DH171" s="39"/>
+      <c r="DI171" s="39"/>
+      <c r="DJ171" s="39"/>
+      <c r="DK171" s="39"/>
+      <c r="DL171" s="39"/>
+      <c r="DM171" s="39"/>
+      <c r="DN171" s="39"/>
+      <c r="DO171" s="39"/>
+      <c r="DP171" s="39"/>
+      <c r="DQ171" s="39"/>
+      <c r="DR171" s="39"/>
+      <c r="DS171" s="39"/>
+      <c r="DT171" s="39"/>
+      <c r="DU171" s="39"/>
+      <c r="DV171" s="39"/>
+      <c r="DW171" s="39"/>
+      <c r="DX171" s="39"/>
+      <c r="DY171" s="39"/>
+      <c r="DZ171" s="39"/>
+      <c r="EA171" s="39"/>
+      <c r="EB171" s="39"/>
+      <c r="EC171" s="39"/>
+      <c r="ED171" s="39"/>
+      <c r="EE171" s="39"/>
+      <c r="EF171" s="39"/>
+      <c r="EG171" s="39"/>
+      <c r="EH171" s="39"/>
+      <c r="EI171" s="39"/>
+      <c r="EJ171" s="39"/>
+      <c r="EK171" s="39"/>
+      <c r="EL171" s="39"/>
+      <c r="EM171" s="39"/>
+      <c r="EN171" s="39"/>
+      <c r="EO171" s="39"/>
+      <c r="EP171" s="39"/>
+      <c r="EQ171" s="39"/>
+      <c r="ER171" s="39"/>
+      <c r="ES171" s="39"/>
+      <c r="ET171" s="39"/>
+      <c r="EU171" s="39"/>
+      <c r="EV171" s="39"/>
+      <c r="EW171" s="39"/>
+      <c r="EX171" s="39"/>
+      <c r="EY171" s="39"/>
+      <c r="EZ171" s="39"/>
+      <c r="FA171" s="39"/>
+      <c r="FB171" s="39"/>
+      <c r="FC171" s="39"/>
+      <c r="FD171" s="39"/>
+      <c r="FE171" s="39"/>
+      <c r="FF171" s="39"/>
+      <c r="FG171" s="39"/>
+      <c r="FH171" s="39"/>
+      <c r="FI171" s="39"/>
+      <c r="FJ171" s="39"/>
+      <c r="FK171" s="39"/>
+      <c r="FL171" s="39"/>
+      <c r="FM171" s="39"/>
+      <c r="FN171" s="39"/>
+      <c r="FO171" s="39"/>
+      <c r="FP171" s="39"/>
+      <c r="FQ171" s="39"/>
+      <c r="FR171" s="39"/>
+      <c r="FS171" s="39"/>
+      <c r="FT171" s="39"/>
+      <c r="FU171" s="39"/>
+      <c r="FV171" s="39"/>
+      <c r="FW171" s="39"/>
+      <c r="FX171" s="39"/>
+      <c r="FY171" s="39"/>
+      <c r="FZ171" s="39"/>
+      <c r="GA171" s="39"/>
+      <c r="GB171" s="39"/>
+      <c r="GC171" s="39"/>
+      <c r="GD171" s="39"/>
+      <c r="GE171" s="39"/>
+      <c r="GF171" s="39"/>
+      <c r="GG171" s="39"/>
+      <c r="GH171" s="39"/>
+      <c r="GI171" s="39"/>
+      <c r="GJ171" s="39"/>
+      <c r="GK171" s="39"/>
+      <c r="GL171" s="39"/>
+      <c r="GM171" s="39"/>
+      <c r="GN171" s="39"/>
+      <c r="GO171" s="39"/>
+      <c r="GP171" s="39"/>
+      <c r="GQ171" s="39"/>
+      <c r="GR171" s="39"/>
+      <c r="GS171" s="39"/>
+      <c r="GT171" s="39"/>
+      <c r="GU171" s="39"/>
+      <c r="GV171" s="39"/>
+      <c r="GW171" s="39"/>
+      <c r="GX171" s="39"/>
+      <c r="GY171" s="39"/>
+      <c r="GZ171" s="39"/>
+      <c r="HA171" s="39"/>
+      <c r="HB171" s="39"/>
+      <c r="HC171" s="39"/>
+      <c r="HD171" s="39"/>
+      <c r="HE171" s="39"/>
+      <c r="HF171" s="39"/>
+      <c r="HG171" s="39"/>
+      <c r="HH171" s="39"/>
+      <c r="HI171" s="39"/>
+      <c r="HJ171" s="39"/>
+      <c r="HK171" s="39"/>
+      <c r="HL171" s="39"/>
+      <c r="HM171" s="39"/>
+      <c r="HN171" s="39"/>
+      <c r="HO171" s="39"/>
+      <c r="HP171" s="39"/>
+      <c r="HQ171" s="39"/>
+      <c r="HR171" s="39"/>
+      <c r="HS171" s="39"/>
+      <c r="HT171" s="39"/>
+      <c r="HU171" s="39"/>
+      <c r="HV171" s="39"/>
+      <c r="HW171" s="39"/>
+      <c r="HX171" s="39"/>
+      <c r="HY171" s="39"/>
+      <c r="HZ171" s="39"/>
+      <c r="IA171" s="39"/>
+      <c r="IB171" s="39"/>
+      <c r="IC171" s="39"/>
+      <c r="ID171" s="39"/>
+      <c r="IE171" s="39"/>
+      <c r="IF171" s="39"/>
+      <c r="IG171" s="39"/>
+      <c r="IH171" s="39"/>
+      <c r="II171" s="39"/>
+      <c r="IJ171" s="39"/>
+      <c r="IK171" s="39"/>
+      <c r="IL171" s="39"/>
+      <c r="IM171" s="39"/>
     </row>
     <row r="172" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="48"/>
@@ -39197,240 +39294,6 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
-      <c r="N174" s="39"/>
-      <c r="O174" s="39"/>
-      <c r="P174" s="39"/>
-      <c r="Q174" s="39"/>
-      <c r="R174" s="39"/>
-      <c r="S174" s="39"/>
-      <c r="T174" s="39"/>
-      <c r="U174" s="39"/>
-      <c r="V174" s="39"/>
-      <c r="W174" s="39"/>
-      <c r="X174" s="39"/>
-      <c r="Y174" s="39"/>
-      <c r="Z174" s="39"/>
-      <c r="AA174" s="39"/>
-      <c r="AB174" s="39"/>
-      <c r="AC174" s="39"/>
-      <c r="AD174" s="39"/>
-      <c r="AE174" s="39"/>
-      <c r="AF174" s="39"/>
-      <c r="AG174" s="39"/>
-      <c r="AH174" s="39"/>
-      <c r="AI174" s="39"/>
-      <c r="AJ174" s="39"/>
-      <c r="AK174" s="39"/>
-      <c r="AL174" s="39"/>
-      <c r="AM174" s="39"/>
-      <c r="AN174" s="39"/>
-      <c r="AO174" s="39"/>
-      <c r="AP174" s="39"/>
-      <c r="AQ174" s="39"/>
-      <c r="AR174" s="39"/>
-      <c r="AS174" s="39"/>
-      <c r="AT174" s="39"/>
-      <c r="AU174" s="39"/>
-      <c r="AV174" s="39"/>
-      <c r="AW174" s="39"/>
-      <c r="AX174" s="39"/>
-      <c r="AY174" s="39"/>
-      <c r="AZ174" s="39"/>
-      <c r="BA174" s="39"/>
-      <c r="BB174" s="39"/>
-      <c r="BC174" s="39"/>
-      <c r="BD174" s="39"/>
-      <c r="BE174" s="39"/>
-      <c r="BF174" s="39"/>
-      <c r="BG174" s="39"/>
-      <c r="BH174" s="39"/>
-      <c r="BI174" s="39"/>
-      <c r="BJ174" s="39"/>
-      <c r="BK174" s="39"/>
-      <c r="BL174" s="39"/>
-      <c r="BM174" s="39"/>
-      <c r="BN174" s="39"/>
-      <c r="BO174" s="39"/>
-      <c r="BP174" s="39"/>
-      <c r="BQ174" s="39"/>
-      <c r="BR174" s="39"/>
-      <c r="BS174" s="39"/>
-      <c r="BT174" s="39"/>
-      <c r="BU174" s="39"/>
-      <c r="BV174" s="39"/>
-      <c r="BW174" s="39"/>
-      <c r="BX174" s="39"/>
-      <c r="BY174" s="39"/>
-      <c r="BZ174" s="39"/>
-      <c r="CA174" s="39"/>
-      <c r="CB174" s="39"/>
-      <c r="CC174" s="39"/>
-      <c r="CD174" s="39"/>
-      <c r="CE174" s="39"/>
-      <c r="CF174" s="39"/>
-      <c r="CG174" s="39"/>
-      <c r="CH174" s="39"/>
-      <c r="CI174" s="39"/>
-      <c r="CJ174" s="39"/>
-      <c r="CK174" s="39"/>
-      <c r="CL174" s="39"/>
-      <c r="CM174" s="39"/>
-      <c r="CN174" s="39"/>
-      <c r="CO174" s="39"/>
-      <c r="CP174" s="39"/>
-      <c r="CQ174" s="39"/>
-      <c r="CR174" s="39"/>
-      <c r="CS174" s="39"/>
-      <c r="CT174" s="39"/>
-      <c r="CU174" s="39"/>
-      <c r="CV174" s="39"/>
-      <c r="CW174" s="39"/>
-      <c r="CX174" s="39"/>
-      <c r="CY174" s="39"/>
-      <c r="CZ174" s="39"/>
-      <c r="DA174" s="39"/>
-      <c r="DB174" s="39"/>
-      <c r="DC174" s="39"/>
-      <c r="DD174" s="39"/>
-      <c r="DE174" s="39"/>
-      <c r="DF174" s="39"/>
-      <c r="DG174" s="39"/>
-      <c r="DH174" s="39"/>
-      <c r="DI174" s="39"/>
-      <c r="DJ174" s="39"/>
-      <c r="DK174" s="39"/>
-      <c r="DL174" s="39"/>
-      <c r="DM174" s="39"/>
-      <c r="DN174" s="39"/>
-      <c r="DO174" s="39"/>
-      <c r="DP174" s="39"/>
-      <c r="DQ174" s="39"/>
-      <c r="DR174" s="39"/>
-      <c r="DS174" s="39"/>
-      <c r="DT174" s="39"/>
-      <c r="DU174" s="39"/>
-      <c r="DV174" s="39"/>
-      <c r="DW174" s="39"/>
-      <c r="DX174" s="39"/>
-      <c r="DY174" s="39"/>
-      <c r="DZ174" s="39"/>
-      <c r="EA174" s="39"/>
-      <c r="EB174" s="39"/>
-      <c r="EC174" s="39"/>
-      <c r="ED174" s="39"/>
-      <c r="EE174" s="39"/>
-      <c r="EF174" s="39"/>
-      <c r="EG174" s="39"/>
-      <c r="EH174" s="39"/>
-      <c r="EI174" s="39"/>
-      <c r="EJ174" s="39"/>
-      <c r="EK174" s="39"/>
-      <c r="EL174" s="39"/>
-      <c r="EM174" s="39"/>
-      <c r="EN174" s="39"/>
-      <c r="EO174" s="39"/>
-      <c r="EP174" s="39"/>
-      <c r="EQ174" s="39"/>
-      <c r="ER174" s="39"/>
-      <c r="ES174" s="39"/>
-      <c r="ET174" s="39"/>
-      <c r="EU174" s="39"/>
-      <c r="EV174" s="39"/>
-      <c r="EW174" s="39"/>
-      <c r="EX174" s="39"/>
-      <c r="EY174" s="39"/>
-      <c r="EZ174" s="39"/>
-      <c r="FA174" s="39"/>
-      <c r="FB174" s="39"/>
-      <c r="FC174" s="39"/>
-      <c r="FD174" s="39"/>
-      <c r="FE174" s="39"/>
-      <c r="FF174" s="39"/>
-      <c r="FG174" s="39"/>
-      <c r="FH174" s="39"/>
-      <c r="FI174" s="39"/>
-      <c r="FJ174" s="39"/>
-      <c r="FK174" s="39"/>
-      <c r="FL174" s="39"/>
-      <c r="FM174" s="39"/>
-      <c r="FN174" s="39"/>
-      <c r="FO174" s="39"/>
-      <c r="FP174" s="39"/>
-      <c r="FQ174" s="39"/>
-      <c r="FR174" s="39"/>
-      <c r="FS174" s="39"/>
-      <c r="FT174" s="39"/>
-      <c r="FU174" s="39"/>
-      <c r="FV174" s="39"/>
-      <c r="FW174" s="39"/>
-      <c r="FX174" s="39"/>
-      <c r="FY174" s="39"/>
-      <c r="FZ174" s="39"/>
-      <c r="GA174" s="39"/>
-      <c r="GB174" s="39"/>
-      <c r="GC174" s="39"/>
-      <c r="GD174" s="39"/>
-      <c r="GE174" s="39"/>
-      <c r="GF174" s="39"/>
-      <c r="GG174" s="39"/>
-      <c r="GH174" s="39"/>
-      <c r="GI174" s="39"/>
-      <c r="GJ174" s="39"/>
-      <c r="GK174" s="39"/>
-      <c r="GL174" s="39"/>
-      <c r="GM174" s="39"/>
-      <c r="GN174" s="39"/>
-      <c r="GO174" s="39"/>
-      <c r="GP174" s="39"/>
-      <c r="GQ174" s="39"/>
-      <c r="GR174" s="39"/>
-      <c r="GS174" s="39"/>
-      <c r="GT174" s="39"/>
-      <c r="GU174" s="39"/>
-      <c r="GV174" s="39"/>
-      <c r="GW174" s="39"/>
-      <c r="GX174" s="39"/>
-      <c r="GY174" s="39"/>
-      <c r="GZ174" s="39"/>
-      <c r="HA174" s="39"/>
-      <c r="HB174" s="39"/>
-      <c r="HC174" s="39"/>
-      <c r="HD174" s="39"/>
-      <c r="HE174" s="39"/>
-      <c r="HF174" s="39"/>
-      <c r="HG174" s="39"/>
-      <c r="HH174" s="39"/>
-      <c r="HI174" s="39"/>
-      <c r="HJ174" s="39"/>
-      <c r="HK174" s="39"/>
-      <c r="HL174" s="39"/>
-      <c r="HM174" s="39"/>
-      <c r="HN174" s="39"/>
-      <c r="HO174" s="39"/>
-      <c r="HP174" s="39"/>
-      <c r="HQ174" s="39"/>
-      <c r="HR174" s="39"/>
-      <c r="HS174" s="39"/>
-      <c r="HT174" s="39"/>
-      <c r="HU174" s="39"/>
-      <c r="HV174" s="39"/>
-      <c r="HW174" s="39"/>
-      <c r="HX174" s="39"/>
-      <c r="HY174" s="39"/>
-      <c r="HZ174" s="39"/>
-      <c r="IA174" s="39"/>
-      <c r="IB174" s="39"/>
-      <c r="IC174" s="39"/>
-      <c r="ID174" s="39"/>
-      <c r="IE174" s="39"/>
-      <c r="IF174" s="39"/>
-      <c r="IG174" s="39"/>
-      <c r="IH174" s="39"/>
-      <c r="II174" s="39"/>
-      <c r="IJ174" s="39"/>
-      <c r="IK174" s="39"/>
-      <c r="IL174" s="39"/>
-      <c r="IM174" s="39"/>
     </row>
     <row r="175" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="48"/>
@@ -39446,6 +39309,240 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
+      <c r="N175" s="39"/>
+      <c r="O175" s="39"/>
+      <c r="P175" s="39"/>
+      <c r="Q175" s="39"/>
+      <c r="R175" s="39"/>
+      <c r="S175" s="39"/>
+      <c r="T175" s="39"/>
+      <c r="U175" s="39"/>
+      <c r="V175" s="39"/>
+      <c r="W175" s="39"/>
+      <c r="X175" s="39"/>
+      <c r="Y175" s="39"/>
+      <c r="Z175" s="39"/>
+      <c r="AA175" s="39"/>
+      <c r="AB175" s="39"/>
+      <c r="AC175" s="39"/>
+      <c r="AD175" s="39"/>
+      <c r="AE175" s="39"/>
+      <c r="AF175" s="39"/>
+      <c r="AG175" s="39"/>
+      <c r="AH175" s="39"/>
+      <c r="AI175" s="39"/>
+      <c r="AJ175" s="39"/>
+      <c r="AK175" s="39"/>
+      <c r="AL175" s="39"/>
+      <c r="AM175" s="39"/>
+      <c r="AN175" s="39"/>
+      <c r="AO175" s="39"/>
+      <c r="AP175" s="39"/>
+      <c r="AQ175" s="39"/>
+      <c r="AR175" s="39"/>
+      <c r="AS175" s="39"/>
+      <c r="AT175" s="39"/>
+      <c r="AU175" s="39"/>
+      <c r="AV175" s="39"/>
+      <c r="AW175" s="39"/>
+      <c r="AX175" s="39"/>
+      <c r="AY175" s="39"/>
+      <c r="AZ175" s="39"/>
+      <c r="BA175" s="39"/>
+      <c r="BB175" s="39"/>
+      <c r="BC175" s="39"/>
+      <c r="BD175" s="39"/>
+      <c r="BE175" s="39"/>
+      <c r="BF175" s="39"/>
+      <c r="BG175" s="39"/>
+      <c r="BH175" s="39"/>
+      <c r="BI175" s="39"/>
+      <c r="BJ175" s="39"/>
+      <c r="BK175" s="39"/>
+      <c r="BL175" s="39"/>
+      <c r="BM175" s="39"/>
+      <c r="BN175" s="39"/>
+      <c r="BO175" s="39"/>
+      <c r="BP175" s="39"/>
+      <c r="BQ175" s="39"/>
+      <c r="BR175" s="39"/>
+      <c r="BS175" s="39"/>
+      <c r="BT175" s="39"/>
+      <c r="BU175" s="39"/>
+      <c r="BV175" s="39"/>
+      <c r="BW175" s="39"/>
+      <c r="BX175" s="39"/>
+      <c r="BY175" s="39"/>
+      <c r="BZ175" s="39"/>
+      <c r="CA175" s="39"/>
+      <c r="CB175" s="39"/>
+      <c r="CC175" s="39"/>
+      <c r="CD175" s="39"/>
+      <c r="CE175" s="39"/>
+      <c r="CF175" s="39"/>
+      <c r="CG175" s="39"/>
+      <c r="CH175" s="39"/>
+      <c r="CI175" s="39"/>
+      <c r="CJ175" s="39"/>
+      <c r="CK175" s="39"/>
+      <c r="CL175" s="39"/>
+      <c r="CM175" s="39"/>
+      <c r="CN175" s="39"/>
+      <c r="CO175" s="39"/>
+      <c r="CP175" s="39"/>
+      <c r="CQ175" s="39"/>
+      <c r="CR175" s="39"/>
+      <c r="CS175" s="39"/>
+      <c r="CT175" s="39"/>
+      <c r="CU175" s="39"/>
+      <c r="CV175" s="39"/>
+      <c r="CW175" s="39"/>
+      <c r="CX175" s="39"/>
+      <c r="CY175" s="39"/>
+      <c r="CZ175" s="39"/>
+      <c r="DA175" s="39"/>
+      <c r="DB175" s="39"/>
+      <c r="DC175" s="39"/>
+      <c r="DD175" s="39"/>
+      <c r="DE175" s="39"/>
+      <c r="DF175" s="39"/>
+      <c r="DG175" s="39"/>
+      <c r="DH175" s="39"/>
+      <c r="DI175" s="39"/>
+      <c r="DJ175" s="39"/>
+      <c r="DK175" s="39"/>
+      <c r="DL175" s="39"/>
+      <c r="DM175" s="39"/>
+      <c r="DN175" s="39"/>
+      <c r="DO175" s="39"/>
+      <c r="DP175" s="39"/>
+      <c r="DQ175" s="39"/>
+      <c r="DR175" s="39"/>
+      <c r="DS175" s="39"/>
+      <c r="DT175" s="39"/>
+      <c r="DU175" s="39"/>
+      <c r="DV175" s="39"/>
+      <c r="DW175" s="39"/>
+      <c r="DX175" s="39"/>
+      <c r="DY175" s="39"/>
+      <c r="DZ175" s="39"/>
+      <c r="EA175" s="39"/>
+      <c r="EB175" s="39"/>
+      <c r="EC175" s="39"/>
+      <c r="ED175" s="39"/>
+      <c r="EE175" s="39"/>
+      <c r="EF175" s="39"/>
+      <c r="EG175" s="39"/>
+      <c r="EH175" s="39"/>
+      <c r="EI175" s="39"/>
+      <c r="EJ175" s="39"/>
+      <c r="EK175" s="39"/>
+      <c r="EL175" s="39"/>
+      <c r="EM175" s="39"/>
+      <c r="EN175" s="39"/>
+      <c r="EO175" s="39"/>
+      <c r="EP175" s="39"/>
+      <c r="EQ175" s="39"/>
+      <c r="ER175" s="39"/>
+      <c r="ES175" s="39"/>
+      <c r="ET175" s="39"/>
+      <c r="EU175" s="39"/>
+      <c r="EV175" s="39"/>
+      <c r="EW175" s="39"/>
+      <c r="EX175" s="39"/>
+      <c r="EY175" s="39"/>
+      <c r="EZ175" s="39"/>
+      <c r="FA175" s="39"/>
+      <c r="FB175" s="39"/>
+      <c r="FC175" s="39"/>
+      <c r="FD175" s="39"/>
+      <c r="FE175" s="39"/>
+      <c r="FF175" s="39"/>
+      <c r="FG175" s="39"/>
+      <c r="FH175" s="39"/>
+      <c r="FI175" s="39"/>
+      <c r="FJ175" s="39"/>
+      <c r="FK175" s="39"/>
+      <c r="FL175" s="39"/>
+      <c r="FM175" s="39"/>
+      <c r="FN175" s="39"/>
+      <c r="FO175" s="39"/>
+      <c r="FP175" s="39"/>
+      <c r="FQ175" s="39"/>
+      <c r="FR175" s="39"/>
+      <c r="FS175" s="39"/>
+      <c r="FT175" s="39"/>
+      <c r="FU175" s="39"/>
+      <c r="FV175" s="39"/>
+      <c r="FW175" s="39"/>
+      <c r="FX175" s="39"/>
+      <c r="FY175" s="39"/>
+      <c r="FZ175" s="39"/>
+      <c r="GA175" s="39"/>
+      <c r="GB175" s="39"/>
+      <c r="GC175" s="39"/>
+      <c r="GD175" s="39"/>
+      <c r="GE175" s="39"/>
+      <c r="GF175" s="39"/>
+      <c r="GG175" s="39"/>
+      <c r="GH175" s="39"/>
+      <c r="GI175" s="39"/>
+      <c r="GJ175" s="39"/>
+      <c r="GK175" s="39"/>
+      <c r="GL175" s="39"/>
+      <c r="GM175" s="39"/>
+      <c r="GN175" s="39"/>
+      <c r="GO175" s="39"/>
+      <c r="GP175" s="39"/>
+      <c r="GQ175" s="39"/>
+      <c r="GR175" s="39"/>
+      <c r="GS175" s="39"/>
+      <c r="GT175" s="39"/>
+      <c r="GU175" s="39"/>
+      <c r="GV175" s="39"/>
+      <c r="GW175" s="39"/>
+      <c r="GX175" s="39"/>
+      <c r="GY175" s="39"/>
+      <c r="GZ175" s="39"/>
+      <c r="HA175" s="39"/>
+      <c r="HB175" s="39"/>
+      <c r="HC175" s="39"/>
+      <c r="HD175" s="39"/>
+      <c r="HE175" s="39"/>
+      <c r="HF175" s="39"/>
+      <c r="HG175" s="39"/>
+      <c r="HH175" s="39"/>
+      <c r="HI175" s="39"/>
+      <c r="HJ175" s="39"/>
+      <c r="HK175" s="39"/>
+      <c r="HL175" s="39"/>
+      <c r="HM175" s="39"/>
+      <c r="HN175" s="39"/>
+      <c r="HO175" s="39"/>
+      <c r="HP175" s="39"/>
+      <c r="HQ175" s="39"/>
+      <c r="HR175" s="39"/>
+      <c r="HS175" s="39"/>
+      <c r="HT175" s="39"/>
+      <c r="HU175" s="39"/>
+      <c r="HV175" s="39"/>
+      <c r="HW175" s="39"/>
+      <c r="HX175" s="39"/>
+      <c r="HY175" s="39"/>
+      <c r="HZ175" s="39"/>
+      <c r="IA175" s="39"/>
+      <c r="IB175" s="39"/>
+      <c r="IC175" s="39"/>
+      <c r="ID175" s="39"/>
+      <c r="IE175" s="39"/>
+      <c r="IF175" s="39"/>
+      <c r="IG175" s="39"/>
+      <c r="IH175" s="39"/>
+      <c r="II175" s="39"/>
+      <c r="IJ175" s="39"/>
+      <c r="IK175" s="39"/>
+      <c r="IL175" s="39"/>
+      <c r="IM175" s="39"/>
     </row>
     <row r="176" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="48"/>
@@ -39461,240 +39558,6 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
-      <c r="N176" s="39"/>
-      <c r="O176" s="39"/>
-      <c r="P176" s="39"/>
-      <c r="Q176" s="39"/>
-      <c r="R176" s="39"/>
-      <c r="S176" s="39"/>
-      <c r="T176" s="39"/>
-      <c r="U176" s="39"/>
-      <c r="V176" s="39"/>
-      <c r="W176" s="39"/>
-      <c r="X176" s="39"/>
-      <c r="Y176" s="39"/>
-      <c r="Z176" s="39"/>
-      <c r="AA176" s="39"/>
-      <c r="AB176" s="39"/>
-      <c r="AC176" s="39"/>
-      <c r="AD176" s="39"/>
-      <c r="AE176" s="39"/>
-      <c r="AF176" s="39"/>
-      <c r="AG176" s="39"/>
-      <c r="AH176" s="39"/>
-      <c r="AI176" s="39"/>
-      <c r="AJ176" s="39"/>
-      <c r="AK176" s="39"/>
-      <c r="AL176" s="39"/>
-      <c r="AM176" s="39"/>
-      <c r="AN176" s="39"/>
-      <c r="AO176" s="39"/>
-      <c r="AP176" s="39"/>
-      <c r="AQ176" s="39"/>
-      <c r="AR176" s="39"/>
-      <c r="AS176" s="39"/>
-      <c r="AT176" s="39"/>
-      <c r="AU176" s="39"/>
-      <c r="AV176" s="39"/>
-      <c r="AW176" s="39"/>
-      <c r="AX176" s="39"/>
-      <c r="AY176" s="39"/>
-      <c r="AZ176" s="39"/>
-      <c r="BA176" s="39"/>
-      <c r="BB176" s="39"/>
-      <c r="BC176" s="39"/>
-      <c r="BD176" s="39"/>
-      <c r="BE176" s="39"/>
-      <c r="BF176" s="39"/>
-      <c r="BG176" s="39"/>
-      <c r="BH176" s="39"/>
-      <c r="BI176" s="39"/>
-      <c r="BJ176" s="39"/>
-      <c r="BK176" s="39"/>
-      <c r="BL176" s="39"/>
-      <c r="BM176" s="39"/>
-      <c r="BN176" s="39"/>
-      <c r="BO176" s="39"/>
-      <c r="BP176" s="39"/>
-      <c r="BQ176" s="39"/>
-      <c r="BR176" s="39"/>
-      <c r="BS176" s="39"/>
-      <c r="BT176" s="39"/>
-      <c r="BU176" s="39"/>
-      <c r="BV176" s="39"/>
-      <c r="BW176" s="39"/>
-      <c r="BX176" s="39"/>
-      <c r="BY176" s="39"/>
-      <c r="BZ176" s="39"/>
-      <c r="CA176" s="39"/>
-      <c r="CB176" s="39"/>
-      <c r="CC176" s="39"/>
-      <c r="CD176" s="39"/>
-      <c r="CE176" s="39"/>
-      <c r="CF176" s="39"/>
-      <c r="CG176" s="39"/>
-      <c r="CH176" s="39"/>
-      <c r="CI176" s="39"/>
-      <c r="CJ176" s="39"/>
-      <c r="CK176" s="39"/>
-      <c r="CL176" s="39"/>
-      <c r="CM176" s="39"/>
-      <c r="CN176" s="39"/>
-      <c r="CO176" s="39"/>
-      <c r="CP176" s="39"/>
-      <c r="CQ176" s="39"/>
-      <c r="CR176" s="39"/>
-      <c r="CS176" s="39"/>
-      <c r="CT176" s="39"/>
-      <c r="CU176" s="39"/>
-      <c r="CV176" s="39"/>
-      <c r="CW176" s="39"/>
-      <c r="CX176" s="39"/>
-      <c r="CY176" s="39"/>
-      <c r="CZ176" s="39"/>
-      <c r="DA176" s="39"/>
-      <c r="DB176" s="39"/>
-      <c r="DC176" s="39"/>
-      <c r="DD176" s="39"/>
-      <c r="DE176" s="39"/>
-      <c r="DF176" s="39"/>
-      <c r="DG176" s="39"/>
-      <c r="DH176" s="39"/>
-      <c r="DI176" s="39"/>
-      <c r="DJ176" s="39"/>
-      <c r="DK176" s="39"/>
-      <c r="DL176" s="39"/>
-      <c r="DM176" s="39"/>
-      <c r="DN176" s="39"/>
-      <c r="DO176" s="39"/>
-      <c r="DP176" s="39"/>
-      <c r="DQ176" s="39"/>
-      <c r="DR176" s="39"/>
-      <c r="DS176" s="39"/>
-      <c r="DT176" s="39"/>
-      <c r="DU176" s="39"/>
-      <c r="DV176" s="39"/>
-      <c r="DW176" s="39"/>
-      <c r="DX176" s="39"/>
-      <c r="DY176" s="39"/>
-      <c r="DZ176" s="39"/>
-      <c r="EA176" s="39"/>
-      <c r="EB176" s="39"/>
-      <c r="EC176" s="39"/>
-      <c r="ED176" s="39"/>
-      <c r="EE176" s="39"/>
-      <c r="EF176" s="39"/>
-      <c r="EG176" s="39"/>
-      <c r="EH176" s="39"/>
-      <c r="EI176" s="39"/>
-      <c r="EJ176" s="39"/>
-      <c r="EK176" s="39"/>
-      <c r="EL176" s="39"/>
-      <c r="EM176" s="39"/>
-      <c r="EN176" s="39"/>
-      <c r="EO176" s="39"/>
-      <c r="EP176" s="39"/>
-      <c r="EQ176" s="39"/>
-      <c r="ER176" s="39"/>
-      <c r="ES176" s="39"/>
-      <c r="ET176" s="39"/>
-      <c r="EU176" s="39"/>
-      <c r="EV176" s="39"/>
-      <c r="EW176" s="39"/>
-      <c r="EX176" s="39"/>
-      <c r="EY176" s="39"/>
-      <c r="EZ176" s="39"/>
-      <c r="FA176" s="39"/>
-      <c r="FB176" s="39"/>
-      <c r="FC176" s="39"/>
-      <c r="FD176" s="39"/>
-      <c r="FE176" s="39"/>
-      <c r="FF176" s="39"/>
-      <c r="FG176" s="39"/>
-      <c r="FH176" s="39"/>
-      <c r="FI176" s="39"/>
-      <c r="FJ176" s="39"/>
-      <c r="FK176" s="39"/>
-      <c r="FL176" s="39"/>
-      <c r="FM176" s="39"/>
-      <c r="FN176" s="39"/>
-      <c r="FO176" s="39"/>
-      <c r="FP176" s="39"/>
-      <c r="FQ176" s="39"/>
-      <c r="FR176" s="39"/>
-      <c r="FS176" s="39"/>
-      <c r="FT176" s="39"/>
-      <c r="FU176" s="39"/>
-      <c r="FV176" s="39"/>
-      <c r="FW176" s="39"/>
-      <c r="FX176" s="39"/>
-      <c r="FY176" s="39"/>
-      <c r="FZ176" s="39"/>
-      <c r="GA176" s="39"/>
-      <c r="GB176" s="39"/>
-      <c r="GC176" s="39"/>
-      <c r="GD176" s="39"/>
-      <c r="GE176" s="39"/>
-      <c r="GF176" s="39"/>
-      <c r="GG176" s="39"/>
-      <c r="GH176" s="39"/>
-      <c r="GI176" s="39"/>
-      <c r="GJ176" s="39"/>
-      <c r="GK176" s="39"/>
-      <c r="GL176" s="39"/>
-      <c r="GM176" s="39"/>
-      <c r="GN176" s="39"/>
-      <c r="GO176" s="39"/>
-      <c r="GP176" s="39"/>
-      <c r="GQ176" s="39"/>
-      <c r="GR176" s="39"/>
-      <c r="GS176" s="39"/>
-      <c r="GT176" s="39"/>
-      <c r="GU176" s="39"/>
-      <c r="GV176" s="39"/>
-      <c r="GW176" s="39"/>
-      <c r="GX176" s="39"/>
-      <c r="GY176" s="39"/>
-      <c r="GZ176" s="39"/>
-      <c r="HA176" s="39"/>
-      <c r="HB176" s="39"/>
-      <c r="HC176" s="39"/>
-      <c r="HD176" s="39"/>
-      <c r="HE176" s="39"/>
-      <c r="HF176" s="39"/>
-      <c r="HG176" s="39"/>
-      <c r="HH176" s="39"/>
-      <c r="HI176" s="39"/>
-      <c r="HJ176" s="39"/>
-      <c r="HK176" s="39"/>
-      <c r="HL176" s="39"/>
-      <c r="HM176" s="39"/>
-      <c r="HN176" s="39"/>
-      <c r="HO176" s="39"/>
-      <c r="HP176" s="39"/>
-      <c r="HQ176" s="39"/>
-      <c r="HR176" s="39"/>
-      <c r="HS176" s="39"/>
-      <c r="HT176" s="39"/>
-      <c r="HU176" s="39"/>
-      <c r="HV176" s="39"/>
-      <c r="HW176" s="39"/>
-      <c r="HX176" s="39"/>
-      <c r="HY176" s="39"/>
-      <c r="HZ176" s="39"/>
-      <c r="IA176" s="39"/>
-      <c r="IB176" s="39"/>
-      <c r="IC176" s="39"/>
-      <c r="ID176" s="39"/>
-      <c r="IE176" s="39"/>
-      <c r="IF176" s="39"/>
-      <c r="IG176" s="39"/>
-      <c r="IH176" s="39"/>
-      <c r="II176" s="39"/>
-      <c r="IJ176" s="39"/>
-      <c r="IK176" s="39"/>
-      <c r="IL176" s="39"/>
-      <c r="IM176" s="39"/>
     </row>
     <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="48"/>
@@ -40570,1038 +40433,1029 @@
       <c r="A235" s="48"/>
       <c r="B235" s="18"/>
       <c r="C235" s="18"/>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18"/>
-      <c r="F235" s="18"/>
-      <c r="G235" s="18"/>
-      <c r="H235" s="18"/>
       <c r="I235" s="18"/>
-      <c r="J235" s="18"/>
       <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
       <c r="M235" s="2"/>
     </row>
     <row r="236" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="48"/>
       <c r="B236" s="18"/>
-      <c r="C236" s="18"/>
       <c r="I236" s="18"/>
-      <c r="K236" s="2"/>
-      <c r="M236" s="2"/>
-    </row>
-    <row r="237" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="18"/>
-      <c r="I237" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K165"/>
+  <autoFilter ref="B2:K164"/>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
-    <cfRule type="cellIs" dxfId="198" priority="380" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 E11 E17 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
+    <cfRule type="cellIs" dxfId="208" priority="384" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="197" priority="370" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="207" priority="374" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="196" priority="332" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="206" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="195" priority="291" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="205" priority="295" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="194" priority="288" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C121">
+    <cfRule type="cellIs" dxfId="204" priority="292" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="201" priority="285" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="200" priority="284" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="199" priority="283" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="198" priority="282" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="197" priority="281" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="196" priority="280" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="195" priority="279" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="194" priority="276" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="193" priority="275" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="192" priority="274" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="191" priority="270" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="190" priority="268" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="189" priority="267" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="188" priority="266" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="187" priority="265" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="186" priority="252" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="185" priority="260" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="184" priority="250" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="183" priority="248" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="182" priority="247" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="181" priority="221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="180" priority="220" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="179" priority="219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="178" priority="218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="177" priority="195" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="176" priority="192" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="175" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="174" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="173" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="172" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="171" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="170" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="169" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="168" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="167" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="166" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="165" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="164" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="163" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="162" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="161" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="160" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="159" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="158" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="157" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="156" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="155" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="154" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="153" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="152" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="151" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="150" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="149" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="148" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="147" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="146" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="145" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="144" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="143" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="142" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="141" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="140" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="139" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="138" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="137" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="136" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="135" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="134" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="133" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="132" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="131" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="130" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="129" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="128" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="127" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="126" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="125" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="124" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="123" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="122" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="121" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="120" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="119" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="118" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="117" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="116" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="115" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="114" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="113" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="112" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="111" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="110" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="109" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="108" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="107" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="106" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="105" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="104" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="103" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="102" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="101" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="100" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="90" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="83" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="43" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="193" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="192" priority="282" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="191" priority="281" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="190" priority="280" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="189" priority="279" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="188" priority="278" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="187" priority="277" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="186" priority="276" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="185" priority="275" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="184" priority="272" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="183" priority="271" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="182" priority="270" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="181" priority="266" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="180" priority="264" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="179" priority="263" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="178" priority="262" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="177" priority="261" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="176" priority="248" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="175" priority="256" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="174" priority="246" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="173" priority="244" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="172" priority="243" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="171" priority="217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="170" priority="216" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="169" priority="215" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="168" priority="214" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="167" priority="191" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="166" priority="188" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="165" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="164" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="163" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="162" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="161" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="160" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112">
-    <cfRule type="cellIs" dxfId="159" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="158" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="157" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="156" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="155" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="154" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="153" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="152" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="151" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:D120">
-    <cfRule type="cellIs" dxfId="150" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="149" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="148" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="147" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="146" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="145" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="144" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="143" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="142" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="141" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="140" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="cellIs" dxfId="139" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="138" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:D129">
-    <cfRule type="cellIs" dxfId="137" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="136" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="135" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="134" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="133" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="132" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="131" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="130" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:C135">
-    <cfRule type="cellIs" dxfId="129" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="128" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="127" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="126" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="125" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="124" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="123" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="122" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="121" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="120" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="119" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="118" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="117" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="116" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="115" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="114" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="113" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:E147">
-    <cfRule type="cellIs" dxfId="112" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:E149">
-    <cfRule type="cellIs" dxfId="111" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="110" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="109" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="108" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="107" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="106" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="105" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="104" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="103" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="102" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="101" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="100" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="99" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="98" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="97" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="96" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="95" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="94" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="92" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="90" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="88" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="86" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="85" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="84" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="82" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="81" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="79" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="78" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="77" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="76" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="75" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="74" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="73" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="72" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="69" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="67" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="66" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="65" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="60" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="58" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="56" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="54" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="52" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="50" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="46" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E91:E93 E85:E87 E6:E8 E34:E45 E48:E50 E53:E55 E58:E69 E72:E76 E79:E82 E96:E101 E104:E112">
-      <formula1>$M$1:$M$20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E90 E140:E144 E113:E114">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E33:E44 E3 E84:E86 E90:E92 E122:E130 E132:E138 E9:E18 E21:E30 E144:E169 E7">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57 E70:E71 E77:E78 E83:E84 E88:E89 E94:E95 E102:E103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143">
+      <formula1>$M$1:$M$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56 E50:E51 E45:E46 E31:E32 E19:E20">
+      <formula1>$K$1:$K$19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5">
       <formula1>$K$1:$K$20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+      <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -181,6 +181,45 @@
   </si>
   <si>
     <t>Spende Fr.Heidenreich</t>
+  </si>
+  <si>
+    <t>Telekom Jan</t>
+  </si>
+  <si>
+    <t>Bürgerbus Mitgliedsbeitrag</t>
+  </si>
+  <si>
+    <t>Miete Jan/Feb.</t>
+  </si>
+  <si>
+    <t>Spende H.Kempf</t>
+  </si>
+  <si>
+    <t>Trauerk H.Straub</t>
+  </si>
+  <si>
+    <t>Ritter</t>
+  </si>
+  <si>
+    <t>Beitrag Vereinsring</t>
+  </si>
+  <si>
+    <t>Telekom Feb</t>
+  </si>
+  <si>
+    <t>Spende Fr.Seyfried</t>
+  </si>
+  <si>
+    <t>Spende Bihl</t>
+  </si>
+  <si>
+    <t>Spende Fr.Kappeler</t>
+  </si>
+  <si>
+    <t>Spende Fam. Ried</t>
+  </si>
+  <si>
+    <t>Spende Fr.Staudenraus</t>
   </si>
 </sst>
 </file>
@@ -884,11 +923,252 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="345">
+  <dxfs count="365">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2535,147 +2815,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -5094,17 +5233,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="341">
+    <format dxfId="32">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="340">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="339">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5202,17 +5341,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="344">
+    <format dxfId="35">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="343">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="342">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6336,8 +6475,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6459,14 +6598,22 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15">
+        <v>44235</v>
+      </c>
       <c r="B5" s="60">
         <v>2</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="41"/>
+      <c r="C5" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="21">
+        <v>50</v>
+      </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -6476,14 +6623,22 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="15">
+        <v>44239</v>
+      </c>
       <c r="B6" s="60">
         <v>3</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="41"/>
+      <c r="C6" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>800</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -6493,14 +6648,22 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="15">
+        <v>44243</v>
+      </c>
       <c r="B7" s="60">
         <v>4</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21">
+        <v>100</v>
+      </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
@@ -6510,14 +6673,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="15">
+        <v>44244</v>
+      </c>
       <c r="B8" s="60">
         <v>5</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21">
+        <v>10</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
@@ -6527,14 +6698,22 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="15">
+        <v>44249</v>
+      </c>
       <c r="B9" s="60">
         <v>6</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21">
+        <v>100</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
@@ -6544,14 +6723,22 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15">
+        <v>44252</v>
+      </c>
       <c r="B10" s="60">
         <v>7</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21">
+        <v>20</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
@@ -6561,13 +6748,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="15">
+        <v>44233</v>
+      </c>
       <c r="B11" s="60">
         <v>8</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="17">
+        <v>20</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -7989,11 +8184,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>75.53</v>
+        <v>95.53</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>6262.45</v>
+        <v>7342.45</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8032,11 +8227,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>75.53</v>
+        <v>95.53</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>5960.96</v>
+        <v>6601.84</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8074,7 +8269,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9264.6699999999983</v>
+        <v>9925.5499999999993</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8874,652 +9069,652 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G16 G20 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7 F18:G19 G17 H4:I104 G27:G29">
-    <cfRule type="cellIs" dxfId="338" priority="201" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F12:G16 G20 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 H4:I104 G27:G29 G4:G10">
+    <cfRule type="cellIs" dxfId="364" priority="207" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="337" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="363" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="336" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="362" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="335" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="361" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="334" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="360" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="333" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="332" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="331" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="330" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="359" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="329" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="355" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="328" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="354" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="327" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="353" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="326" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="352" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="325" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="351" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="324" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="350" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="323" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="349" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="322" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="348" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="321" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="347" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="320" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="346" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="319" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="345" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="318" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="344" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="317" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="316" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="315" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="314" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="313" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="312" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="311" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="310" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="309" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="308" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="307" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="306" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="305" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="304" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="303" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="302" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="301" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="300" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="299" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="298" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="297" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="296" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="295" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="294" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="293" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="292" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="291" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="290" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="289" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="288" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="287" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="286" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="285" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="284" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="283" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="282" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="281" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="280" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="279" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="278" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="277" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="276" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="275" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="274" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="273" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="272" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="271" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="270" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="269" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="268" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="267" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="266" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="265" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="264" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="263" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="262" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="261" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="260" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="259" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="258" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="257" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="256" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="255" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="254" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="253" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="252" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="251" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="250" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="249" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="248" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="247" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="246" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="245" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="244" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="243" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="242" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="241" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="240" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="239" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="238" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="237" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="236" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="235" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="234" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="233" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="232" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="254" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="253" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="252" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="251" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="250" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="249" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="248" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="247" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="246" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="245" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="244" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="243" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="cellIs" dxfId="242" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="241" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="240" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="239" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="238" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="237" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="236" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="235" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="230" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="229" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="228" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="227" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="226" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="225" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="224" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="223" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="222" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="221" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="220" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="219" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="218" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="217" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="216" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="215" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="214" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="213" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="212" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="211" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="210" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="209" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9528,7 +9723,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D57:D61 D53 D55">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3:D14 D16:D25 D27:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D27:D31 D16:D25 D3:D14">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56 D26">
@@ -9559,7 +9754,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9743,14 +9938,22 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="43">
+        <v>44215</v>
+      </c>
       <c r="C7" s="60">
         <v>5</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>-18.059999999999999</v>
+      </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
@@ -9762,14 +9965,22 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="43">
+        <v>44228</v>
+      </c>
       <c r="C8" s="60">
         <v>6</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="21">
+        <v>-50</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
@@ -9781,14 +9992,22 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="43">
+        <v>44229</v>
+      </c>
       <c r="C9" s="60">
         <v>7</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="D9" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21">
+        <v>-45</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
@@ -9800,14 +10019,22 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="43">
+        <v>44229</v>
+      </c>
       <c r="C10" s="60">
         <v>8</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="21">
+        <v>-239</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="22"/>
@@ -9819,14 +10046,22 @@
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="43">
+        <v>44230</v>
+      </c>
       <c r="C11" s="60">
         <v>9</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="21">
+        <v>-24</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="22"/>
@@ -9838,14 +10073,22 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="43">
+        <v>44238</v>
+      </c>
       <c r="C12" s="60">
         <v>10</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="D12" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>-25</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
@@ -9857,14 +10100,22 @@
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="43">
+        <v>44242</v>
+      </c>
       <c r="C13" s="60">
         <v>11</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
+      <c r="D13" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="21">
+        <v>-20</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
@@ -9876,14 +10127,22 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
-      <c r="B14" s="43"/>
+      <c r="B14" s="43">
+        <v>44243</v>
+      </c>
       <c r="C14" s="60">
         <v>12</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="21"/>
+      <c r="D14" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21">
+        <v>-18.059999999999999</v>
+      </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
@@ -38514,7 +38773,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-301.49</v>
+        <v>-740.6099999999999</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40446,1003 +40705,1008 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 E11 E17 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="208" priority="384" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 E17 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
+    <cfRule type="cellIs" dxfId="234" priority="393" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="207" priority="374" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="206" priority="336" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="345" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="205" priority="295" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="304" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="204" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="301" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="222" priority="285" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="221" priority="284" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="220" priority="283" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="219" priority="279" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="218" priority="277" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="217" priority="276" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="216" priority="275" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="215" priority="274" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="214" priority="261" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="213" priority="269" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="212" priority="259" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="211" priority="257" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="210" priority="256" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="209" priority="230" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="208" priority="229" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="207" priority="228" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="206" priority="227" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="205" priority="204" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="204" priority="201" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="203" priority="191" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="202" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="201" priority="188" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="200" priority="187" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="199" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="198" priority="185" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="197" priority="184" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="196" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="195" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="194" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="193" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="192" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="191" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="190" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="189" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="188" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="187" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="186" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="185" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="184" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="183" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="182" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="181" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="180" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="179" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="178" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="177" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="176" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="175" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="174" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="173" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="172" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="171" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="170" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="169" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="168" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="167" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="166" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="165" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="164" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="163" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="162" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="161" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="160" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="159" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="158" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="157" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="156" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="155" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="154" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="153" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="152" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="151" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="150" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="149" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="148" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="147" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="146" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="145" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="144" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="143" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="142" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="141" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="140" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="139" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="138" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="137" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="136" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="135" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="134" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="133" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="132" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="131" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="130" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="129" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="128" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="127" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="126" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="125" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="124" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="123" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="122" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="121" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="120" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="119" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="118" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="117" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="116" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="115" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="114" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="113" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="112" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="111" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="110" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="109" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="108" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="107" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="106" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="105" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="104" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="103" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="102" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="101" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="100" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="99" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="98" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="97" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="96" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="95" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="94" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="93" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="92" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="91" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="90" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="89" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="88" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="87" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="86" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="85" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="84" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="83" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="82" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="81" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="80" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="79" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="78" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="77" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="76" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="75" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="74" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="73" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="72" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="71" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="70" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="69" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="68" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="67" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="66" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="65" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="64" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="63" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="62" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="61" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="60" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="59" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="58" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="57" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="56" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="55" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="54" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="53" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="51" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="50" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="49" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="48" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="47" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="46" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="45" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="43" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="42" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="41" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="40" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="39" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="38" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="37" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="36" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="201" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="200" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="199" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="198" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="197" priority="281" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="196" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="195" priority="279" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="194" priority="276" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="193" priority="275" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="192" priority="274" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="191" priority="270" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="190" priority="268" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="189" priority="267" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="188" priority="266" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="187" priority="265" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="186" priority="252" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="185" priority="260" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="184" priority="250" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="183" priority="248" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="182" priority="247" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="181" priority="221" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="180" priority="220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="179" priority="219" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="178" priority="218" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="177" priority="195" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="176" priority="192" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="175" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="174" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="173" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="172" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="171" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="170" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="169" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="168" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="167" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="166" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="165" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="164" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="163" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="162" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="161" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="160" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="159" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="158" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="157" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="156" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="155" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="154" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="153" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="152" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="151" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="150" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="149" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="148" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="147" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="146" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="145" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="144" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="143" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="142" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="141" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="140" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="139" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="138" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="137" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="136" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="135" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="134" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="133" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="132" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="131" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="130" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="129" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="128" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="127" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="126" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="125" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="124" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="123" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="122" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="121" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="120" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="119" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="118" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="117" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="116" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="115" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="114" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="113" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="112" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="111" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="110" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="109" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="108" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="107" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="106" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="105" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="104" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="103" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="102" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="101" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="100" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="90" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="83" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="43" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E33:E44 E3 E84:E86 E90:E92 E122:E130 E132:E138 E9:E18 E21:E30 E144:E169 E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E33:E44 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E21:E30 E15:E18">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143">
@@ -41451,10 +41715,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56 E50:E51 E45:E46 E31:E32 E19:E20">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5744055-2ABA-4041-B948-47A7D7C50F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$170</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$109</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
     <pivotCache cacheId="1" r:id="rId5"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -221,11 +227,32 @@
   <si>
     <t>Spende Fr.Staudenraus</t>
   </si>
+  <si>
+    <t>EnBW Gutschrift</t>
+  </si>
+  <si>
+    <t>Spende Fam. Imig</t>
+  </si>
+  <si>
+    <t>Spende Fam. Hannemann</t>
+  </si>
+  <si>
+    <t>Wabu Vereinsförderung</t>
+  </si>
+  <si>
+    <t>Miete März</t>
+  </si>
+  <si>
+    <t>Porto  Roland</t>
+  </si>
+  <si>
+    <t>Individualhilfe Fr.Heinz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-2];&quot;-&quot;#,##0.00&quot; &quot;[$€-2]"/>
@@ -923,117 +950,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="365">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="344">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2815,6 +2732,11 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -2889,12 +2811,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wildner" refreshedDate="43833.744825231479" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="167">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wildner" refreshedDate="43833.744825231479" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="167" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="E2:J169" sheet="Ausgaben"/>
   </cacheSource>
@@ -2939,7 +2864,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wildner" refreshedDate="43834.621834722224" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="102">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wildner" refreshedDate="43834.621834722224" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="102" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="D2:I104" sheet="Einnahmen"/>
   </cacheSource>
@@ -5145,7 +5070,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B19:G29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5233,17 +5158,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="32">
+    <format dxfId="10">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5252,12 +5177,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5341,17 +5269,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="35">
+    <format dxfId="13">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5359,6 +5287,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -6468,34 +6399,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="39" customWidth="1"/>
     <col min="2" max="2" width="4" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="39" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="39" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="245" width="10.85546875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="245" width="10.88671875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
@@ -6512,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="39" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="39" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -6545,7 +6476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="54" t="s">
@@ -6572,7 +6503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>44204</v>
       </c>
@@ -6597,7 +6528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>44235</v>
       </c>
@@ -6622,7 +6553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>44239</v>
       </c>
@@ -6647,7 +6578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>44243</v>
       </c>
@@ -6672,7 +6603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>44244</v>
       </c>
@@ -6697,7 +6628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>44249</v>
       </c>
@@ -6722,7 +6653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>44252</v>
       </c>
@@ -6747,7 +6678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>44233</v>
       </c>
@@ -6772,15 +6703,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>44257</v>
+      </c>
       <c r="B12" s="60">
         <v>9</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18">
+        <v>143.41999999999999</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
@@ -6789,15 +6728,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+    <row r="13" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>44258</v>
+      </c>
       <c r="B13" s="60">
         <v>10</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="58"/>
+      <c r="F13" s="58">
+        <v>20</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
@@ -6806,15 +6753,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>44259</v>
+      </c>
       <c r="B14" s="60">
         <v>11</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18">
+        <v>50</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
@@ -6823,15 +6778,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+    <row r="15" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>44259</v>
+      </c>
       <c r="B15" s="60">
         <v>12</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="18">
+        <v>450</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
@@ -6840,15 +6803,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>44270</v>
+      </c>
       <c r="B16" s="60">
         <v>13</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="18">
+        <v>2457.5</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
@@ -6857,7 +6828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="60">
         <v>14</v>
@@ -6874,7 +6845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="60">
         <v>15</v>
@@ -6891,7 +6862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="60">
         <v>16</v>
@@ -6908,7 +6879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="60">
         <v>17</v>
@@ -6923,7 +6894,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="60">
         <v>18</v>
@@ -6938,7 +6909,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="60">
         <v>19</v>
@@ -6953,7 +6924,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="16">
         <v>20</v>
@@ -6968,7 +6939,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="16">
         <v>21</v>
@@ -6983,7 +6954,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="60">
         <v>22</v>
@@ -6998,7 +6969,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="60">
         <v>23</v>
@@ -7013,7 +6984,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="16">
         <v>24</v>
@@ -7028,7 +6999,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="16">
         <v>25</v>
@@ -7043,7 +7014,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="16">
         <v>26</v>
@@ -7058,7 +7029,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="16">
         <v>27</v>
@@ -7073,7 +7044,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="16">
         <v>28</v>
@@ -7088,7 +7059,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="16">
         <v>29</v>
@@ -7103,7 +7074,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="16">
         <v>30</v>
@@ -7118,7 +7089,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="16">
         <v>31</v>
@@ -7133,7 +7104,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="16">
         <v>32</v>
@@ -7148,7 +7119,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="16">
         <v>33</v>
@@ -7163,7 +7134,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="16">
         <v>34</v>
@@ -7178,7 +7149,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="61">
         <v>35</v>
@@ -7193,7 +7164,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="16">
         <v>36</v>
@@ -7208,7 +7179,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="16">
         <v>37</v>
@@ -7223,7 +7194,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="16">
         <v>38</v>
@@ -7238,7 +7209,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="61">
         <v>39</v>
@@ -7253,7 +7224,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="16">
         <v>40</v>
@@ -7268,7 +7239,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="16">
         <v>41</v>
@@ -7283,7 +7254,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="16">
         <v>42</v>
@@ -7298,7 +7269,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="16">
         <v>43</v>
@@ -7313,7 +7284,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="16">
         <v>44</v>
@@ -7328,7 +7299,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="16">
         <v>45</v>
@@ -7343,7 +7314,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="16">
         <v>46</v>
@@ -7358,7 +7329,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="16">
         <v>47</v>
@@ -7373,7 +7344,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="16">
         <v>48</v>
@@ -7388,7 +7359,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="16">
         <v>49</v>
@@ -7403,7 +7374,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="16">
         <v>50</v>
@@ -7418,7 +7389,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="16">
         <v>51</v>
@@ -7433,7 +7404,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="61">
         <v>52</v>
@@ -7448,7 +7419,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="42">
         <v>53</v>
@@ -7463,7 +7434,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="16">
         <v>54</v>
@@ -7478,7 +7449,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="16">
         <v>55</v>
@@ -7493,7 +7464,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="16">
         <v>56</v>
@@ -7508,7 +7479,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="16">
         <v>57</v>
@@ -7523,7 +7494,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="61">
         <v>58</v>
@@ -7537,7 +7508,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="60">
         <v>59</v>
@@ -7552,7 +7523,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="60">
         <v>60</v>
@@ -7567,7 +7538,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="60">
         <v>61</v>
@@ -7582,7 +7553,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="60">
         <v>62</v>
@@ -7597,7 +7568,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="16">
         <v>63</v>
@@ -7612,7 +7583,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="61">
         <v>64</v>
@@ -7627,7 +7598,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="B68" s="16">
         <v>65</v>
@@ -7642,7 +7613,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="16">
         <v>66</v>
@@ -7657,7 +7628,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="16">
         <v>67</v>
@@ -7672,7 +7643,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="16">
         <v>68</v>
@@ -7687,7 +7658,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="16">
         <v>69</v>
@@ -7702,7 +7673,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="16">
         <v>70</v>
@@ -7717,7 +7688,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="16">
         <v>71</v>
@@ -7732,7 +7703,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="16">
         <v>72</v>
@@ -7747,7 +7718,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="16">
         <v>73</v>
@@ -7762,7 +7733,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="16">
         <v>74</v>
@@ -7777,7 +7748,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
       <c r="B78" s="16">
         <v>75</v>
@@ -7792,7 +7763,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="16">
         <v>76</v>
@@ -7807,7 +7778,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
       <c r="B80" s="16">
         <v>77</v>
@@ -7822,7 +7793,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="16">
         <v>78</v>
@@ -7837,7 +7808,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="60">
         <v>79</v>
@@ -7851,7 +7822,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="16">
         <v>80</v>
@@ -7866,7 +7837,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="16">
         <v>81</v>
@@ -7881,7 +7852,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="16">
         <v>82</v>
@@ -7896,7 +7867,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="16">
         <v>83</v>
@@ -7911,7 +7882,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="16">
         <v>84</v>
@@ -7926,7 +7897,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="16">
         <v>85</v>
@@ -7941,7 +7912,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="16">
         <v>86</v>
@@ -7956,7 +7927,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="16">
         <v>87</v>
@@ -7971,7 +7942,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="16">
         <v>88</v>
@@ -7986,7 +7957,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="60">
         <v>89</v>
@@ -8001,7 +7972,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="16">
         <v>90</v>
@@ -8016,7 +7987,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="16">
         <v>91</v>
@@ -8031,7 +8002,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="16">
         <v>92</v>
@@ -8046,7 +8017,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="16">
         <v>93</v>
@@ -8061,7 +8032,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="16">
         <v>94</v>
@@ -8076,7 +8047,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="16">
         <v>95</v>
@@ -8091,7 +8062,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="16">
         <v>96</v>
@@ -8106,7 +8077,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="16">
         <v>97</v>
@@ -8121,7 +8092,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="16"/>
       <c r="C101" s="42"/>
@@ -8134,7 +8105,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="16"/>
       <c r="C102" s="42"/>
@@ -8147,7 +8118,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="16"/>
       <c r="C103" s="42"/>
@@ -8160,7 +8131,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="16"/>
       <c r="C104" s="42"/>
@@ -8175,7 +8146,7 @@
       </c>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
         <v>16</v>
       </c>
@@ -8188,7 +8159,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>7342.45</v>
+        <v>10463.369999999999</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8205,7 +8176,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="35"/>
       <c r="B106" s="35"/>
       <c r="C106" s="35"/>
@@ -8218,7 +8189,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
         <v>17</v>
       </c>
@@ -8231,7 +8202,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6601.84</v>
+        <v>9300.64</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8248,7 +8219,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="37"/>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
@@ -8261,7 +8232,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>18</v>
       </c>
@@ -8269,7 +8240,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9925.5499999999993</v>
+        <v>12624.349999999999</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8279,7 +8250,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="38"/>
       <c r="B110" s="38"/>
       <c r="C110" s="38"/>
@@ -8292,7 +8263,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -8307,7 +8278,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -8320,7 +8291,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -8333,7 +8304,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -8346,7 +8317,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -8359,7 +8330,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -8372,7 +8343,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -8385,7 +8356,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -8398,7 +8369,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -8411,7 +8382,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -8424,7 +8395,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -8437,7 +8408,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -8450,7 +8421,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8463,7 +8434,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8476,7 +8447,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8489,7 +8460,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -8502,7 +8473,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -8515,7 +8486,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8528,7 +8499,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8541,7 +8512,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8554,7 +8525,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8567,7 +8538,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8580,7 +8551,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -8593,7 +8564,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -8606,7 +8577,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -8619,7 +8590,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -8632,7 +8603,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -8645,7 +8616,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8658,7 +8629,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8671,7 +8642,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8684,7 +8655,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8697,7 +8668,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8710,7 +8681,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8723,7 +8694,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8736,7 +8707,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8749,7 +8720,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8762,7 +8733,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8775,7 +8746,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8788,7 +8759,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8801,7 +8772,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8814,7 +8785,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8827,7 +8798,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8840,7 +8811,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8853,7 +8824,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8866,7 +8837,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8879,7 +8850,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8892,7 +8863,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8905,7 +8876,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8918,7 +8889,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8931,7 +8902,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8944,7 +8915,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8957,7 +8928,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8970,7 +8941,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -8983,7 +8954,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8996,7 +8967,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9009,7 +8980,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9022,7 +8993,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9035,7 +9006,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9048,7 +9019,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9061,675 +9032,675 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K170" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I100"/>
+  <autoFilter ref="A2:I100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F12:G16 G20 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 H4:I104 G27:G29 G4:G10">
-    <cfRule type="cellIs" dxfId="364" priority="207" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="209" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="363" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="207" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="362" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="361" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="360" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="359" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="355" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="354" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="353" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="352" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="351" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="350" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="349" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="348" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="347" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="346" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="345" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="344" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="343" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="342" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="341" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="340" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="339" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="338" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="337" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="336" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="335" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="334" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="333" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="332" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="331" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="330" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="329" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="328" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="327" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="326" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="325" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="324" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="323" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="322" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="321" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="320" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="319" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="318" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="317" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="316" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="315" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="314" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="313" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="312" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="311" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="310" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="309" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="308" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="307" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="306" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="305" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="304" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="303" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="302" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="301" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="300" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="299" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="298" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="297" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="296" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="295" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="294" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="293" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="292" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="291" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="290" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="289" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="288" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="287" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="286" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="285" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="284" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="283" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="282" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="281" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="280" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="279" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="278" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="277" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="276" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="275" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="274" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="273" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="272" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="271" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="270" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="269" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="268" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="267" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="266" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="265" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="264" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="263" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="262" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="261" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="260" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="259" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="258" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="254" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="253" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="236" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="235" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="234" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="233" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="232" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="231" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="230" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="229" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="228" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="cellIs" dxfId="227" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="226" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="225" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="224" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="223" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="222" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="221" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="220" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="219" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="218" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="217" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="216" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="215" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="214" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="252" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="251" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="250" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="249" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="248" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="247" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="246" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="245" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="244" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="243" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="242" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="241" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="240" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="239" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="238" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="237" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="236" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="235" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D57:D61 D53 D55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D57:D61 D53 D55" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D27:D31 D16:D25 D3:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D27:D31 D3:D25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56 D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56 D26" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98 D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -9746,7 +9717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -9754,27 +9725,27 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="1" customWidth="1"/>
-    <col min="14" max="247" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14" max="247" width="10.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45"/>
       <c r="B1" s="101" t="s">
         <v>2</v>
@@ -9793,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -9828,7 +9799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
       <c r="B3" s="15">
         <v>44200</v>
@@ -9855,7 +9826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="15">
         <v>44201</v>
@@ -9882,7 +9853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="15">
         <v>44201</v>
@@ -9909,7 +9880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="43">
         <v>44211</v>
@@ -9936,7 +9907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="43">
         <v>44215</v>
@@ -9963,7 +9934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="43">
         <v>44228</v>
@@ -9990,7 +9961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="43">
         <v>44229</v>
@@ -10017,7 +9988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="43">
         <v>44229</v>
@@ -10044,7 +10015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="43">
         <v>44230</v>
@@ -10071,7 +10042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="43">
         <v>44238</v>
@@ -10098,7 +10069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="43">
         <v>44242</v>
@@ -10125,7 +10096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="43">
         <v>44243</v>
@@ -10152,16 +10123,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
-      <c r="B15" s="43"/>
+      <c r="B15" s="43">
+        <v>44257</v>
+      </c>
       <c r="C15" s="60">
         <v>13</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21">
+        <v>-45</v>
+      </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
@@ -10171,16 +10150,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="43">
+        <v>44257</v>
+      </c>
       <c r="C16" s="60">
         <v>14</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21">
+        <v>-239</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
@@ -10190,16 +10177,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>44258</v>
+      </c>
       <c r="C17" s="60">
         <v>15</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="21">
+        <v>-12</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="22"/>
@@ -10209,16 +10204,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>44260</v>
+      </c>
       <c r="C18" s="60">
         <v>16</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="41"/>
+      <c r="D18" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>-8</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="22"/>
@@ -10228,16 +10231,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="15">
+        <v>44272</v>
+      </c>
       <c r="C19" s="60">
         <v>17</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="21">
+        <v>-18.12</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="22"/>
@@ -10247,16 +10258,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>44272</v>
+      </c>
       <c r="C20" s="60">
         <v>18</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="21">
+        <v>-100</v>
+      </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
@@ -10264,7 +10283,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
       <c r="B21" s="15"/>
       <c r="C21" s="60">
@@ -10281,7 +10300,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
       <c r="B22" s="15"/>
       <c r="C22" s="60">
@@ -10298,7 +10317,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16">
@@ -10315,7 +10334,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16">
@@ -10332,7 +10351,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
       <c r="B25" s="15"/>
       <c r="C25" s="60">
@@ -10349,7 +10368,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47"/>
       <c r="B26" s="43"/>
       <c r="C26" s="60">
@@ -10366,7 +10385,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47"/>
       <c r="B27" s="43"/>
       <c r="C27" s="60">
@@ -10383,7 +10402,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47"/>
       <c r="B28" s="43"/>
       <c r="C28" s="60">
@@ -10400,7 +10419,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47"/>
       <c r="B29" s="43"/>
       <c r="C29" s="60">
@@ -10417,7 +10436,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47"/>
       <c r="B30" s="15"/>
       <c r="C30" s="60">
@@ -10434,7 +10453,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
       <c r="B31" s="15"/>
       <c r="C31" s="60">
@@ -10451,7 +10470,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
       <c r="B32" s="15"/>
       <c r="C32" s="60">
@@ -10468,7 +10487,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47"/>
       <c r="B33" s="15"/>
       <c r="C33" s="60">
@@ -10485,7 +10504,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="15"/>
       <c r="C34" s="60">
@@ -10502,7 +10521,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47"/>
       <c r="B35" s="15"/>
       <c r="C35" s="60">
@@ -10519,7 +10538,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47"/>
       <c r="B36" s="15"/>
       <c r="C36" s="60">
@@ -10536,7 +10555,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16">
@@ -10553,7 +10572,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
       <c r="B38" s="15"/>
       <c r="C38" s="16">
@@ -10570,7 +10589,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16">
@@ -10587,7 +10606,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47"/>
       <c r="B40" s="15"/>
       <c r="C40" s="60">
@@ -10604,7 +10623,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47"/>
       <c r="B41" s="15"/>
       <c r="C41" s="60">
@@ -10621,7 +10640,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47"/>
       <c r="B42" s="15"/>
       <c r="C42" s="61">
@@ -10638,7 +10657,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
       <c r="B43" s="15"/>
       <c r="C43" s="60">
@@ -10655,7 +10674,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
       <c r="B44" s="15"/>
       <c r="C44" s="60">
@@ -10672,7 +10691,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47"/>
       <c r="B45" s="15"/>
       <c r="C45" s="60">
@@ -10689,7 +10708,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="47"/>
       <c r="B46" s="15"/>
       <c r="C46" s="16">
@@ -10706,7 +10725,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
       <c r="B47" s="15"/>
       <c r="C47" s="60">
@@ -10723,7 +10742,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
       <c r="B48" s="15"/>
       <c r="C48" s="60">
@@ -10740,7 +10759,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47"/>
       <c r="B49" s="15"/>
       <c r="C49" s="61">
@@ -10757,7 +10776,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
       <c r="B50" s="15"/>
       <c r="C50" s="60">
@@ -10774,7 +10793,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="47"/>
       <c r="B51" s="15"/>
       <c r="C51" s="60">
@@ -10791,7 +10810,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="47"/>
       <c r="B52" s="15"/>
       <c r="C52" s="60">
@@ -10808,7 +10827,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47"/>
       <c r="B53" s="15"/>
       <c r="C53" s="60">
@@ -10825,7 +10844,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47"/>
       <c r="B54" s="43"/>
       <c r="C54" s="60">
@@ -11076,7 +11095,7 @@
       <c r="IL54" s="39"/>
       <c r="IM54" s="39"/>
     </row>
-    <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47"/>
       <c r="B55" s="15"/>
       <c r="C55" s="60">
@@ -11093,7 +11112,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47"/>
       <c r="B56" s="15"/>
       <c r="C56" s="60">
@@ -11110,7 +11129,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47"/>
       <c r="B57" s="15"/>
       <c r="C57" s="60">
@@ -11127,7 +11146,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47"/>
       <c r="B58" s="43"/>
       <c r="C58" s="60">
@@ -11144,7 +11163,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47"/>
       <c r="B59" s="43"/>
       <c r="C59" s="60">
@@ -11161,7 +11180,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47"/>
       <c r="B60" s="43"/>
       <c r="C60" s="60">
@@ -11412,7 +11431,7 @@
       <c r="IL60" s="39"/>
       <c r="IM60" s="39"/>
     </row>
-    <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47"/>
       <c r="B61" s="43"/>
       <c r="C61" s="60">
@@ -11663,7 +11682,7 @@
       <c r="IL61" s="39"/>
       <c r="IM61" s="39"/>
     </row>
-    <row r="62" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47"/>
       <c r="B62" s="43"/>
       <c r="C62" s="60">
@@ -11914,7 +11933,7 @@
       <c r="IL62" s="39"/>
       <c r="IM62" s="39"/>
     </row>
-    <row r="63" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
       <c r="B63" s="43"/>
       <c r="C63" s="60">
@@ -12165,7 +12184,7 @@
       <c r="IL63" s="39"/>
       <c r="IM63" s="39"/>
     </row>
-    <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47"/>
       <c r="B64" s="43"/>
       <c r="C64" s="61">
@@ -12416,7 +12435,7 @@
       <c r="IL64" s="39"/>
       <c r="IM64" s="39"/>
     </row>
-    <row r="65" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47"/>
       <c r="B65" s="43"/>
       <c r="C65" s="61">
@@ -12667,7 +12686,7 @@
       <c r="IL65" s="39"/>
       <c r="IM65" s="39"/>
     </row>
-    <row r="66" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47"/>
       <c r="B66" s="15"/>
       <c r="C66" s="61">
@@ -12918,7 +12937,7 @@
       <c r="IL66" s="39"/>
       <c r="IM66" s="39"/>
     </row>
-    <row r="67" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47"/>
       <c r="B67" s="15"/>
       <c r="C67" s="61">
@@ -13169,7 +13188,7 @@
       <c r="IL67" s="39"/>
       <c r="IM67" s="39"/>
     </row>
-    <row r="68" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="47"/>
       <c r="B68" s="15"/>
       <c r="C68" s="61">
@@ -13420,7 +13439,7 @@
       <c r="IL68" s="39"/>
       <c r="IM68" s="39"/>
     </row>
-    <row r="69" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47"/>
       <c r="B69" s="15"/>
       <c r="C69" s="61">
@@ -13671,7 +13690,7 @@
       <c r="IL69" s="39"/>
       <c r="IM69" s="39"/>
     </row>
-    <row r="70" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="47"/>
       <c r="B70" s="15"/>
       <c r="C70" s="61">
@@ -13922,7 +13941,7 @@
       <c r="IL70" s="39"/>
       <c r="IM70" s="39"/>
     </row>
-    <row r="71" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="47"/>
       <c r="B71" s="15"/>
       <c r="C71" s="61">
@@ -14173,7 +14192,7 @@
       <c r="IL71" s="39"/>
       <c r="IM71" s="39"/>
     </row>
-    <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47"/>
       <c r="B72" s="15"/>
       <c r="C72" s="60">
@@ -14424,7 +14443,7 @@
       <c r="IL72" s="39"/>
       <c r="IM72" s="39"/>
     </row>
-    <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="47"/>
       <c r="B73" s="15"/>
       <c r="C73" s="61">
@@ -14675,7 +14694,7 @@
       <c r="IL73" s="39"/>
       <c r="IM73" s="39"/>
     </row>
-    <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="47"/>
       <c r="B74" s="15"/>
       <c r="C74" s="60">
@@ -14926,7 +14945,7 @@
       <c r="IL74" s="39"/>
       <c r="IM74" s="39"/>
     </row>
-    <row r="75" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47"/>
       <c r="B75" s="15"/>
       <c r="C75" s="60">
@@ -15177,7 +15196,7 @@
       <c r="IL75" s="39"/>
       <c r="IM75" s="39"/>
     </row>
-    <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="47"/>
       <c r="B76" s="43"/>
       <c r="C76" s="60">
@@ -15428,7 +15447,7 @@
       <c r="IL76" s="39"/>
       <c r="IM76" s="39"/>
     </row>
-    <row r="77" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="47"/>
       <c r="B77" s="43"/>
       <c r="C77" s="60">
@@ -15679,7 +15698,7 @@
       <c r="IL77" s="39"/>
       <c r="IM77" s="39"/>
     </row>
-    <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="47"/>
       <c r="B78" s="15"/>
       <c r="C78" s="61">
@@ -15930,7 +15949,7 @@
       <c r="IL78" s="39"/>
       <c r="IM78" s="39"/>
     </row>
-    <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="47"/>
       <c r="B79" s="15"/>
       <c r="C79" s="60">
@@ -16181,7 +16200,7 @@
       <c r="IL79" s="39"/>
       <c r="IM79" s="39"/>
     </row>
-    <row r="80" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="47"/>
       <c r="B80" s="15"/>
       <c r="C80" s="60">
@@ -16432,7 +16451,7 @@
       <c r="IL80" s="39"/>
       <c r="IM80" s="39"/>
     </row>
-    <row r="81" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="47"/>
       <c r="B81" s="15"/>
       <c r="C81" s="60">
@@ -16683,7 +16702,7 @@
       <c r="IL81" s="39"/>
       <c r="IM81" s="39"/>
     </row>
-    <row r="82" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="47"/>
       <c r="B82" s="15"/>
       <c r="C82" s="60">
@@ -16934,7 +16953,7 @@
       <c r="IL82" s="39"/>
       <c r="IM82" s="39"/>
     </row>
-    <row r="83" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="47"/>
       <c r="B83" s="15"/>
       <c r="C83" s="60">
@@ -17185,7 +17204,7 @@
       <c r="IL83" s="39"/>
       <c r="IM83" s="39"/>
     </row>
-    <row r="84" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="47"/>
       <c r="B84" s="43"/>
       <c r="C84" s="60">
@@ -17436,7 +17455,7 @@
       <c r="IL84" s="39"/>
       <c r="IM84" s="39"/>
     </row>
-    <row r="85" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="47"/>
       <c r="B85" s="43"/>
       <c r="C85" s="60">
@@ -17687,7 +17706,7 @@
       <c r="IL85" s="39"/>
       <c r="IM85" s="39"/>
     </row>
-    <row r="86" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="47"/>
       <c r="B86" s="43"/>
       <c r="C86" s="60">
@@ -17938,7 +17957,7 @@
       <c r="IL86" s="39"/>
       <c r="IM86" s="39"/>
     </row>
-    <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="47"/>
       <c r="B87" s="15"/>
       <c r="C87" s="16">
@@ -18189,7 +18208,7 @@
       <c r="IL87" s="39"/>
       <c r="IM87" s="39"/>
     </row>
-    <row r="88" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="47"/>
       <c r="B88" s="15"/>
       <c r="C88" s="16">
@@ -18440,7 +18459,7 @@
       <c r="IL88" s="39"/>
       <c r="IM88" s="39"/>
     </row>
-    <row r="89" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="47"/>
       <c r="B89" s="15"/>
       <c r="C89" s="16">
@@ -18691,7 +18710,7 @@
       <c r="IL89" s="39"/>
       <c r="IM89" s="39"/>
     </row>
-    <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="47"/>
       <c r="B90" s="15"/>
       <c r="C90" s="61">
@@ -18942,7 +18961,7 @@
       <c r="IL90" s="39"/>
       <c r="IM90" s="39"/>
     </row>
-    <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="47"/>
       <c r="B91" s="15"/>
       <c r="C91" s="60">
@@ -19193,7 +19212,7 @@
       <c r="IL91" s="39"/>
       <c r="IM91" s="39"/>
     </row>
-    <row r="92" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="47"/>
       <c r="B92" s="15"/>
       <c r="C92" s="60">
@@ -19444,7 +19463,7 @@
       <c r="IL92" s="39"/>
       <c r="IM92" s="39"/>
     </row>
-    <row r="93" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="47"/>
       <c r="B93" s="15"/>
       <c r="C93" s="60">
@@ -19695,7 +19714,7 @@
       <c r="IL93" s="39"/>
       <c r="IM93" s="39"/>
     </row>
-    <row r="94" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="47"/>
       <c r="B94" s="15"/>
       <c r="C94" s="60">
@@ -19946,7 +19965,7 @@
       <c r="IL94" s="39"/>
       <c r="IM94" s="39"/>
     </row>
-    <row r="95" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="47"/>
       <c r="B95" s="15"/>
       <c r="C95" s="60">
@@ -20197,7 +20216,7 @@
       <c r="IL95" s="39"/>
       <c r="IM95" s="39"/>
     </row>
-    <row r="96" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="47"/>
       <c r="B96" s="15"/>
       <c r="C96" s="60">
@@ -20448,7 +20467,7 @@
       <c r="IL96" s="39"/>
       <c r="IM96" s="39"/>
     </row>
-    <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="47"/>
       <c r="B97" s="15"/>
       <c r="C97" s="60">
@@ -20699,7 +20718,7 @@
       <c r="IL97" s="39"/>
       <c r="IM97" s="39"/>
     </row>
-    <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="47"/>
       <c r="B98" s="15"/>
       <c r="C98" s="60">
@@ -20950,7 +20969,7 @@
       <c r="IL98" s="39"/>
       <c r="IM98" s="39"/>
     </row>
-    <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="47"/>
       <c r="B99" s="15"/>
       <c r="C99" s="60">
@@ -21201,7 +21220,7 @@
       <c r="IL99" s="39"/>
       <c r="IM99" s="39"/>
     </row>
-    <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="47"/>
       <c r="B100" s="15"/>
       <c r="C100" s="60">
@@ -21452,7 +21471,7 @@
       <c r="IL100"/>
       <c r="IM100"/>
     </row>
-    <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="47"/>
       <c r="B101" s="15"/>
       <c r="C101" s="60">
@@ -21703,7 +21722,7 @@
       <c r="IL101" s="39"/>
       <c r="IM101" s="39"/>
     </row>
-    <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="47"/>
       <c r="B102" s="15"/>
       <c r="C102" s="60">
@@ -21954,7 +21973,7 @@
       <c r="IL102" s="39"/>
       <c r="IM102" s="39"/>
     </row>
-    <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="47"/>
       <c r="B103" s="15"/>
       <c r="C103" s="60">
@@ -22205,7 +22224,7 @@
       <c r="IL103" s="39"/>
       <c r="IM103" s="39"/>
     </row>
-    <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="47"/>
       <c r="B104" s="15"/>
       <c r="C104" s="60">
@@ -22456,7 +22475,7 @@
       <c r="IL104" s="39"/>
       <c r="IM104" s="39"/>
     </row>
-    <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="47"/>
       <c r="B105" s="15"/>
       <c r="C105" s="60">
@@ -22707,7 +22726,7 @@
       <c r="IL105" s="39"/>
       <c r="IM105" s="39"/>
     </row>
-    <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="47"/>
       <c r="B106" s="15"/>
       <c r="C106" s="61">
@@ -22958,7 +22977,7 @@
       <c r="IL106" s="39"/>
       <c r="IM106" s="39"/>
     </row>
-    <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="47"/>
       <c r="B107" s="43"/>
       <c r="C107" s="60">
@@ -23209,7 +23228,7 @@
       <c r="IL107" s="39"/>
       <c r="IM107" s="39"/>
     </row>
-    <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="47"/>
       <c r="B108" s="43"/>
       <c r="C108" s="60">
@@ -23460,7 +23479,7 @@
       <c r="IL108" s="39"/>
       <c r="IM108" s="39"/>
     </row>
-    <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="47"/>
       <c r="B109" s="43"/>
       <c r="C109" s="60">
@@ -23711,7 +23730,7 @@
       <c r="IL109" s="39"/>
       <c r="IM109" s="39"/>
     </row>
-    <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="47"/>
       <c r="B110" s="15"/>
       <c r="C110" s="60">
@@ -23962,7 +23981,7 @@
       <c r="IL110" s="39"/>
       <c r="IM110" s="39"/>
     </row>
-    <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="47"/>
       <c r="B111" s="15"/>
       <c r="C111" s="60">
@@ -24213,7 +24232,7 @@
       <c r="IL111" s="39"/>
       <c r="IM111" s="39"/>
     </row>
-    <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="47"/>
       <c r="B112" s="15"/>
       <c r="C112" s="16">
@@ -24464,7 +24483,7 @@
       <c r="IL112" s="39"/>
       <c r="IM112" s="39"/>
     </row>
-    <row r="113" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="47"/>
       <c r="B113" s="15"/>
       <c r="C113" s="16">
@@ -24715,7 +24734,7 @@
       <c r="IL113" s="39"/>
       <c r="IM113" s="39"/>
     </row>
-    <row r="114" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="47"/>
       <c r="B114" s="15"/>
       <c r="C114" s="16">
@@ -24966,7 +24985,7 @@
       <c r="IL114" s="39"/>
       <c r="IM114" s="39"/>
     </row>
-    <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="47"/>
       <c r="B115" s="15"/>
       <c r="C115" s="60">
@@ -25217,7 +25236,7 @@
       <c r="IL115" s="39"/>
       <c r="IM115" s="39"/>
     </row>
-    <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="47"/>
       <c r="B116" s="43"/>
       <c r="C116" s="60">
@@ -25468,7 +25487,7 @@
       <c r="IL116" s="39"/>
       <c r="IM116" s="39"/>
     </row>
-    <row r="117" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="47"/>
       <c r="B117" s="43"/>
       <c r="C117" s="60">
@@ -25719,7 +25738,7 @@
       <c r="IL117" s="39"/>
       <c r="IM117" s="39"/>
     </row>
-    <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="47"/>
       <c r="B118" s="15"/>
       <c r="C118" s="60">
@@ -25970,7 +25989,7 @@
       <c r="IL118" s="39"/>
       <c r="IM118" s="39"/>
     </row>
-    <row r="119" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="47"/>
       <c r="B119" s="15"/>
       <c r="C119" s="60">
@@ -26221,7 +26240,7 @@
       <c r="IL119" s="39"/>
       <c r="IM119" s="39"/>
     </row>
-    <row r="120" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="47"/>
       <c r="B120" s="15"/>
       <c r="C120" s="60">
@@ -26472,7 +26491,7 @@
       <c r="IL120" s="39"/>
       <c r="IM120" s="39"/>
     </row>
-    <row r="121" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="47"/>
       <c r="B121" s="15"/>
       <c r="C121" s="60">
@@ -26722,7 +26741,7 @@
       <c r="IL121" s="39"/>
       <c r="IM121" s="39"/>
     </row>
-    <row r="122" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="47"/>
       <c r="B122" s="15"/>
       <c r="C122" s="60">
@@ -26973,7 +26992,7 @@
       <c r="IL122" s="39"/>
       <c r="IM122" s="39"/>
     </row>
-    <row r="123" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="47"/>
       <c r="B123" s="15"/>
       <c r="C123" s="60">
@@ -27223,7 +27242,7 @@
       <c r="IL123" s="39"/>
       <c r="IM123" s="39"/>
     </row>
-    <row r="124" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="47"/>
       <c r="B124" s="15"/>
       <c r="C124" s="60">
@@ -27474,7 +27493,7 @@
       <c r="IL124" s="39"/>
       <c r="IM124" s="39"/>
     </row>
-    <row r="125" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="47"/>
       <c r="B125" s="15"/>
       <c r="C125" s="60">
@@ -27725,7 +27744,7 @@
       <c r="IL125" s="39"/>
       <c r="IM125" s="39"/>
     </row>
-    <row r="126" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="47"/>
       <c r="B126" s="15"/>
       <c r="C126" s="60">
@@ -27976,7 +27995,7 @@
       <c r="IL126" s="39"/>
       <c r="IM126" s="39"/>
     </row>
-    <row r="127" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="47"/>
       <c r="B127" s="15"/>
       <c r="C127" s="60">
@@ -28227,7 +28246,7 @@
       <c r="IL127" s="39"/>
       <c r="IM127" s="39"/>
     </row>
-    <row r="128" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="47"/>
       <c r="B128" s="15"/>
       <c r="C128" s="60">
@@ -28478,7 +28497,7 @@
       <c r="IL128" s="39"/>
       <c r="IM128" s="39"/>
     </row>
-    <row r="129" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="47"/>
       <c r="B129" s="15"/>
       <c r="C129" s="60">
@@ -28729,7 +28748,7 @@
       <c r="IL129" s="39"/>
       <c r="IM129" s="39"/>
     </row>
-    <row r="130" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="47"/>
       <c r="B130" s="15"/>
       <c r="C130" s="60">
@@ -28980,7 +28999,7 @@
       <c r="IL130" s="39"/>
       <c r="IM130" s="39"/>
     </row>
-    <row r="131" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="47"/>
       <c r="B131" s="15"/>
       <c r="C131" s="60">
@@ -29231,7 +29250,7 @@
       <c r="IL131" s="39"/>
       <c r="IM131" s="39"/>
     </row>
-    <row r="132" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="47"/>
       <c r="B132" s="15"/>
       <c r="C132" s="60">
@@ -29482,7 +29501,7 @@
       <c r="IL132" s="39"/>
       <c r="IM132" s="39"/>
     </row>
-    <row r="133" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="47"/>
       <c r="B133" s="15"/>
       <c r="C133" s="60">
@@ -29733,7 +29752,7 @@
       <c r="IL133" s="39"/>
       <c r="IM133" s="39"/>
     </row>
-    <row r="134" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="47"/>
       <c r="B134" s="15"/>
       <c r="C134" s="60">
@@ -29984,7 +30003,7 @@
       <c r="IL134" s="39"/>
       <c r="IM134" s="39"/>
     </row>
-    <row r="135" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="47"/>
       <c r="B135" s="15"/>
       <c r="C135" s="60">
@@ -30235,7 +30254,7 @@
       <c r="IL135" s="39"/>
       <c r="IM135" s="39"/>
     </row>
-    <row r="136" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="47"/>
       <c r="B136" s="15"/>
       <c r="C136" s="60">
@@ -30486,7 +30505,7 @@
       <c r="IL136" s="39"/>
       <c r="IM136" s="39"/>
     </row>
-    <row r="137" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="47"/>
       <c r="B137" s="15"/>
       <c r="C137" s="60">
@@ -30737,7 +30756,7 @@
       <c r="IL137" s="39"/>
       <c r="IM137" s="39"/>
     </row>
-    <row r="138" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="47"/>
       <c r="B138" s="15"/>
       <c r="C138" s="60">
@@ -30988,7 +31007,7 @@
       <c r="IL138" s="39"/>
       <c r="IM138" s="39"/>
     </row>
-    <row r="139" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="47"/>
       <c r="B139" s="15"/>
       <c r="C139" s="16">
@@ -31239,7 +31258,7 @@
       <c r="IL139" s="39"/>
       <c r="IM139" s="39"/>
     </row>
-    <row r="140" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="47"/>
       <c r="B140" s="15"/>
       <c r="C140" s="16">
@@ -31490,7 +31509,7 @@
       <c r="IL140" s="39"/>
       <c r="IM140" s="39"/>
     </row>
-    <row r="141" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="47"/>
       <c r="B141" s="15"/>
       <c r="C141" s="16">
@@ -31741,7 +31760,7 @@
       <c r="IL141" s="39"/>
       <c r="IM141" s="39"/>
     </row>
-    <row r="142" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="47"/>
       <c r="B142" s="15"/>
       <c r="C142" s="16">
@@ -31992,7 +32011,7 @@
       <c r="IL142" s="39"/>
       <c r="IM142" s="39"/>
     </row>
-    <row r="143" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="47"/>
       <c r="B143" s="15"/>
       <c r="C143" s="16">
@@ -32243,7 +32262,7 @@
       <c r="IL143" s="39"/>
       <c r="IM143" s="39"/>
     </row>
-    <row r="144" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="47"/>
       <c r="B144" s="15"/>
       <c r="C144" s="60">
@@ -32494,7 +32513,7 @@
       <c r="IL144" s="39"/>
       <c r="IM144" s="39"/>
     </row>
-    <row r="145" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="47"/>
       <c r="B145" s="15"/>
       <c r="C145" s="60">
@@ -32745,7 +32764,7 @@
       <c r="IL145" s="39"/>
       <c r="IM145" s="39"/>
     </row>
-    <row r="146" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="47"/>
       <c r="B146" s="15"/>
       <c r="C146" s="60">
@@ -32996,7 +33015,7 @@
       <c r="IL146" s="39"/>
       <c r="IM146" s="39"/>
     </row>
-    <row r="147" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="47"/>
       <c r="B147" s="15"/>
       <c r="C147" s="60">
@@ -33247,7 +33266,7 @@
       <c r="IL147" s="39"/>
       <c r="IM147" s="39"/>
     </row>
-    <row r="148" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="47"/>
       <c r="B148" s="15"/>
       <c r="C148" s="60">
@@ -33498,7 +33517,7 @@
       <c r="IL148" s="39"/>
       <c r="IM148" s="39"/>
     </row>
-    <row r="149" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="47"/>
       <c r="B149" s="15"/>
       <c r="C149" s="60">
@@ -33749,7 +33768,7 @@
       <c r="IL149" s="39"/>
       <c r="IM149" s="39"/>
     </row>
-    <row r="150" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="47"/>
       <c r="B150" s="15"/>
       <c r="C150" s="60">
@@ -34000,7 +34019,7 @@
       <c r="IL150" s="39"/>
       <c r="IM150" s="39"/>
     </row>
-    <row r="151" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="47"/>
       <c r="B151" s="15"/>
       <c r="C151" s="60">
@@ -34251,7 +34270,7 @@
       <c r="IL151" s="39"/>
       <c r="IM151" s="39"/>
     </row>
-    <row r="152" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="47"/>
       <c r="B152" s="15"/>
       <c r="C152" s="60">
@@ -34502,7 +34521,7 @@
       <c r="IL152" s="39"/>
       <c r="IM152" s="39"/>
     </row>
-    <row r="153" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="47"/>
       <c r="B153" s="15"/>
       <c r="C153" s="60">
@@ -34753,7 +34772,7 @@
       <c r="IL153" s="39"/>
       <c r="IM153" s="39"/>
     </row>
-    <row r="154" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="47"/>
       <c r="B154" s="15"/>
       <c r="C154" s="60">
@@ -35004,7 +35023,7 @@
       <c r="IL154" s="39"/>
       <c r="IM154" s="39"/>
     </row>
-    <row r="155" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="47"/>
       <c r="B155" s="15"/>
       <c r="C155" s="60">
@@ -35255,7 +35274,7 @@
       <c r="IL155" s="39"/>
       <c r="IM155" s="39"/>
     </row>
-    <row r="156" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="47"/>
       <c r="B156" s="15"/>
       <c r="C156" s="60">
@@ -35506,7 +35525,7 @@
       <c r="IL156" s="39"/>
       <c r="IM156" s="39"/>
     </row>
-    <row r="157" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="47"/>
       <c r="B157" s="15"/>
       <c r="C157" s="60">
@@ -35757,7 +35776,7 @@
       <c r="IL157" s="39"/>
       <c r="IM157" s="39"/>
     </row>
-    <row r="158" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="47"/>
       <c r="B158" s="15"/>
       <c r="C158" s="60">
@@ -36008,7 +36027,7 @@
       <c r="IL158" s="39"/>
       <c r="IM158" s="39"/>
     </row>
-    <row r="159" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="47"/>
       <c r="B159" s="15"/>
       <c r="C159" s="60">
@@ -36259,7 +36278,7 @@
       <c r="IL159" s="39"/>
       <c r="IM159" s="39"/>
     </row>
-    <row r="160" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="47"/>
       <c r="B160" s="15"/>
       <c r="C160" s="60">
@@ -36510,7 +36529,7 @@
       <c r="IL160" s="39"/>
       <c r="IM160" s="39"/>
     </row>
-    <row r="161" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="47"/>
       <c r="B161" s="15"/>
       <c r="C161" s="60">
@@ -36761,7 +36780,7 @@
       <c r="IL161" s="39"/>
       <c r="IM161" s="39"/>
     </row>
-    <row r="162" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="47"/>
       <c r="B162" s="15"/>
       <c r="C162" s="60">
@@ -37012,7 +37031,7 @@
       <c r="IL162" s="39"/>
       <c r="IM162" s="39"/>
     </row>
-    <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="47"/>
       <c r="B163" s="15"/>
       <c r="C163" s="60">
@@ -37263,7 +37282,7 @@
       <c r="IL163" s="39"/>
       <c r="IM163" s="39"/>
     </row>
-    <row r="164" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="47"/>
       <c r="B164" s="15"/>
       <c r="C164" s="60">
@@ -37514,7 +37533,7 @@
       <c r="IL164" s="39"/>
       <c r="IM164" s="39"/>
     </row>
-    <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="47"/>
       <c r="B165" s="15"/>
       <c r="C165" s="60"/>
@@ -37763,7 +37782,7 @@
       <c r="IL165" s="39"/>
       <c r="IM165" s="39"/>
     </row>
-    <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="47"/>
       <c r="B166" s="15"/>
       <c r="C166" s="60"/>
@@ -38012,7 +38031,7 @@
       <c r="IL166" s="39"/>
       <c r="IM166" s="39"/>
     </row>
-    <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="47"/>
       <c r="B167" s="15"/>
       <c r="C167" s="60"/>
@@ -38261,7 +38280,7 @@
       <c r="IL167" s="39"/>
       <c r="IM167" s="39"/>
     </row>
-    <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="47"/>
       <c r="B168" s="43"/>
       <c r="C168" s="60"/>
@@ -38510,7 +38529,7 @@
       <c r="IL168" s="39"/>
       <c r="IM168" s="39"/>
     </row>
-    <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="47"/>
       <c r="B169" s="15"/>
       <c r="C169" s="60"/>
@@ -38759,7 +38778,7 @@
       <c r="IL169" s="39"/>
       <c r="IM169" s="39"/>
     </row>
-    <row r="170" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="47"/>
       <c r="B170" s="30" t="s">
         <v>16</v>
@@ -38773,7 +38792,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-740.6099999999999</v>
+        <v>-1162.7299999999998</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -38792,7 +38811,7 @@
       <c r="M170" s="2"/>
       <c r="IM170"/>
     </row>
-    <row r="171" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="48"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
@@ -39041,7 +39060,7 @@
       <c r="IL171" s="39"/>
       <c r="IM171" s="39"/>
     </row>
-    <row r="172" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="48"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
@@ -39290,7 +39309,7 @@
       <c r="IL172" s="39"/>
       <c r="IM172" s="39"/>
     </row>
-    <row r="173" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="48"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
@@ -39539,7 +39558,7 @@
       <c r="IL173" s="39"/>
       <c r="IM173" s="39"/>
     </row>
-    <row r="174" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="48"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -39554,7 +39573,7 @@
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="48"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
@@ -39803,7 +39822,7 @@
       <c r="IL175" s="39"/>
       <c r="IM175" s="39"/>
     </row>
-    <row r="176" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="48"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
@@ -39818,7 +39837,7 @@
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="48"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
@@ -39833,7 +39852,7 @@
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
     </row>
-    <row r="178" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="48"/>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
@@ -39848,7 +39867,7 @@
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="48"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
@@ -39863,7 +39882,7 @@
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="48"/>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
@@ -39878,7 +39897,7 @@
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="48"/>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
@@ -39893,7 +39912,7 @@
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="48"/>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
@@ -39908,7 +39927,7 @@
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="48"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
@@ -39923,7 +39942,7 @@
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="48"/>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
@@ -39938,7 +39957,7 @@
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="48"/>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
@@ -39953,7 +39972,7 @@
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="48"/>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
@@ -39968,7 +39987,7 @@
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="48"/>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
@@ -39983,7 +40002,7 @@
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="48"/>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
@@ -39998,7 +40017,7 @@
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="48"/>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
@@ -40013,7 +40032,7 @@
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="48"/>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
@@ -40028,7 +40047,7 @@
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="48"/>
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
@@ -40043,7 +40062,7 @@
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="48"/>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
@@ -40058,7 +40077,7 @@
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="48"/>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
@@ -40073,7 +40092,7 @@
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="48"/>
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
@@ -40088,7 +40107,7 @@
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="48"/>
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
@@ -40103,7 +40122,7 @@
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="48"/>
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
@@ -40118,7 +40137,7 @@
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="48"/>
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
@@ -40133,7 +40152,7 @@
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="48"/>
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
@@ -40148,7 +40167,7 @@
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="48"/>
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
@@ -40163,7 +40182,7 @@
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="48"/>
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
@@ -40178,7 +40197,7 @@
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
     </row>
-    <row r="201" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="48"/>
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
@@ -40193,7 +40212,7 @@
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
     </row>
-    <row r="202" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="48"/>
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
@@ -40208,7 +40227,7 @@
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="48"/>
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
@@ -40223,7 +40242,7 @@
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="48"/>
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
@@ -40238,7 +40257,7 @@
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="48"/>
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
@@ -40253,7 +40272,7 @@
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="48"/>
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
@@ -40268,7 +40287,7 @@
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="48"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -40283,7 +40302,7 @@
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="48"/>
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
@@ -40298,7 +40317,7 @@
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="48"/>
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
@@ -40313,7 +40332,7 @@
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
     </row>
-    <row r="210" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="48"/>
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
@@ -40328,7 +40347,7 @@
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="48"/>
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
@@ -40343,7 +40362,7 @@
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
     </row>
-    <row r="212" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="48"/>
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
@@ -40358,7 +40377,7 @@
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
     </row>
-    <row r="213" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="48"/>
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
@@ -40373,7 +40392,7 @@
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
     </row>
-    <row r="214" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="48"/>
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
@@ -40388,7 +40407,7 @@
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="48"/>
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
@@ -40403,7 +40422,7 @@
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
     </row>
-    <row r="216" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="48"/>
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
@@ -40418,7 +40437,7 @@
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
     </row>
-    <row r="217" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="48"/>
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
@@ -40433,7 +40452,7 @@
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
     </row>
-    <row r="218" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="48"/>
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
@@ -40448,7 +40467,7 @@
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
     </row>
-    <row r="219" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="48"/>
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
@@ -40463,7 +40482,7 @@
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="48"/>
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
@@ -40478,7 +40497,7 @@
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
     </row>
-    <row r="221" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="48"/>
       <c r="B221" s="18"/>
       <c r="C221" s="18"/>
@@ -40493,7 +40512,7 @@
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
     </row>
-    <row r="222" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="48"/>
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
@@ -40508,7 +40527,7 @@
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
     </row>
-    <row r="223" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="48"/>
       <c r="B223" s="18"/>
       <c r="C223" s="18"/>
@@ -40523,7 +40542,7 @@
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
     </row>
-    <row r="224" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="48"/>
       <c r="B224" s="18"/>
       <c r="C224" s="18"/>
@@ -40538,7 +40557,7 @@
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
     </row>
-    <row r="225" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="48"/>
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
@@ -40553,7 +40572,7 @@
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
     </row>
-    <row r="226" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="48"/>
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
@@ -40568,7 +40587,7 @@
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
     </row>
-    <row r="227" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="48"/>
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
@@ -40583,7 +40602,7 @@
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
     </row>
-    <row r="228" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="48"/>
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
@@ -40598,7 +40617,7 @@
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
     </row>
-    <row r="229" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="48"/>
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
@@ -40613,7 +40632,7 @@
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
     </row>
-    <row r="230" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="48"/>
       <c r="B230" s="18"/>
       <c r="C230" s="18"/>
@@ -40628,7 +40647,7 @@
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
     </row>
-    <row r="231" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="48"/>
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
@@ -40643,7 +40662,7 @@
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
     </row>
-    <row r="232" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="48"/>
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
@@ -40658,7 +40677,7 @@
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
     </row>
-    <row r="233" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="48"/>
       <c r="B233" s="18"/>
       <c r="C233" s="18"/>
@@ -40673,7 +40692,7 @@
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
     </row>
-    <row r="234" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="48"/>
       <c r="B234" s="18"/>
       <c r="C234" s="18"/>
@@ -40688,7 +40707,7 @@
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
     </row>
-    <row r="235" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="48"/>
       <c r="B235" s="18"/>
       <c r="C235" s="18"/>
@@ -40696,1029 +40715,1024 @@
       <c r="K235" s="2"/>
       <c r="M235" s="2"/>
     </row>
-    <row r="236" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="18"/>
       <c r="I236" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K164"/>
+  <autoFilter ref="B2:K164" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 E17 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="234" priority="393" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
+    <cfRule type="cellIs" dxfId="213" priority="398" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="233" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="388" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="232" priority="345" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="231" priority="304" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="309" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="230" priority="301" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="306" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="222" priority="285" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="206" priority="288" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="205" priority="284" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="204" priority="282" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="203" priority="281" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="202" priority="280" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="201" priority="279" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="200" priority="266" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="199" priority="274" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="198" priority="264" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="197" priority="262" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="196" priority="261" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="195" priority="235" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="194" priority="234" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="193" priority="233" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="192" priority="232" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="191" priority="209" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="190" priority="206" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="189" priority="196" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="188" priority="195" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="187" priority="193" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="186" priority="192" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="185" priority="191" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="184" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="183" priority="189" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="182" priority="188" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="181" priority="187" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="180" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="179" priority="184" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="178" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="177" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="176" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="175" priority="180" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="174" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="173" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="172" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="171" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="170" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="169" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="168" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="167" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="166" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="165" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="164" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="163" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="162" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="161" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="160" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="159" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="158" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="157" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="156" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="155" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="154" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="153" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="152" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="151" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="150" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="149" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="148" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="147" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="146" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="145" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="144" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="143" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="142" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="141" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="140" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="139" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="138" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="137" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="136" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="135" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="134" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="133" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="132" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="131" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="130" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="129" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="128" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="127" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="126" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="125" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="124" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="123" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="122" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="121" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="120" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="119" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="118" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="117" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="116" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="115" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="114" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="113" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="108" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="107" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="106" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="105" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="103" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="97" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="92" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="89" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="88" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="87" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="86" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="85" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="84" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="83" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="82" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="81" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="80" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="79" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="78" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="77" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="76" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="75" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="74" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="73" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="72" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="71" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="70" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="69" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="68" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="67" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="66" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="65" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="64" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="63" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="61" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="54" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="40" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="37" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="33" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="29" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="27" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="23" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="22" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="221" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="220" priority="283" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="219" priority="279" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="218" priority="277" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="217" priority="276" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="216" priority="275" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="215" priority="274" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="214" priority="261" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="213" priority="269" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="212" priority="259" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="211" priority="257" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="210" priority="256" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="209" priority="230" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="208" priority="229" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="207" priority="228" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="206" priority="227" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="205" priority="204" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="204" priority="201" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="203" priority="191" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="202" priority="190" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="201" priority="188" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="200" priority="187" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="199" priority="186" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="198" priority="185" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="197" priority="184" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="196" priority="183" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="195" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="194" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="193" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="192" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="191" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="190" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="189" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="188" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="187" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="186" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="185" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="184" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="183" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="182" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="181" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="180" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="179" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="178" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="177" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="176" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="175" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="174" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="173" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="172" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="171" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="170" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="169" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="168" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="167" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="166" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="165" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="164" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="163" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="162" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="161" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="160" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="159" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="158" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="157" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="156" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="155" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="154" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="153" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="152" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="151" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="150" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="149" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="148" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="147" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="146" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="145" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="144" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="143" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="142" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="141" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="140" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="139" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="138" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="137" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="136" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="135" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="134" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="133" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="132" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="131" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="130" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="129" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="128" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="127" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="126" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="125" priority="104" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="124" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="123" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="122" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="121" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="120" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="119" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="118" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="117" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="116" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="115" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="114" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="113" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="112" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="111" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="110" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="109" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="108" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="107" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="106" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="105" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="104" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="103" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="102" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="101" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="100" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="99" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="98" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="97" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="96" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="95" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="94" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="93" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="92" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="91" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="90" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="89" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="88" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="87" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="86" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="85" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="84" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="83" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="82" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="81" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="80" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="79" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="78" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="77" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="76" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="75" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="74" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="73" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="72" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="71" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="70" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="69" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="68" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="67" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="66" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="65" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="64" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="63" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="62" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="61" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="60" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="59" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="58" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="57" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="56" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="55" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="54" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="53" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="51" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="50" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="49" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="48" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="47" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="46" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="45" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="43" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="42" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="41" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="40" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="39" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="38" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="37" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="36" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="29" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E33:E44 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E21:E30 E15:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E33:E44 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E21:E30 E18" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56 E50:E51 E45:E46 E31:E32 E19:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56 E50:E51 E45:E46 E31:E32" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E20" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>
@@ -41732,7 +41746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -41742,17 +41756,17 @@
       <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="39" customWidth="1"/>
     <col min="3" max="3" width="22" style="39" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="39" customWidth="1"/>
     <col min="6" max="6" width="16" style="39" customWidth="1"/>
     <col min="7" max="7" width="32" style="39" customWidth="1"/>
     <col min="8" max="8" width="11" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="39" customWidth="1"/>
     <col min="11" max="13" width="5" style="39" customWidth="1"/>
     <col min="14" max="14" width="3" style="39" customWidth="1"/>
@@ -41763,35 +41777,35 @@
     <col min="23" max="28" width="7" style="39" customWidth="1"/>
     <col min="29" max="29" width="6" style="39" customWidth="1"/>
     <col min="30" max="38" width="7" style="39" customWidth="1"/>
-    <col min="39" max="39" width="6.28515625" style="39" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" style="39" customWidth="1"/>
+    <col min="39" max="39" width="6.33203125" style="39" customWidth="1"/>
+    <col min="40" max="40" width="15.44140625" style="39" customWidth="1"/>
     <col min="41" max="41" width="4" style="39" customWidth="1"/>
     <col min="42" max="42" width="7" style="39" customWidth="1"/>
     <col min="43" max="44" width="4" style="39" customWidth="1"/>
     <col min="45" max="45" width="5" style="39" customWidth="1"/>
     <col min="46" max="46" width="8" style="39" customWidth="1"/>
-    <col min="47" max="47" width="6.28515625" style="39" customWidth="1"/>
-    <col min="48" max="48" width="30.7109375" style="39" customWidth="1"/>
+    <col min="47" max="47" width="6.33203125" style="39" customWidth="1"/>
+    <col min="48" max="48" width="30.6640625" style="39" customWidth="1"/>
     <col min="49" max="49" width="37" style="39" customWidth="1"/>
-    <col min="50" max="50" width="37.7109375" style="39" customWidth="1"/>
-    <col min="51" max="51" width="8.85546875" style="39" customWidth="1"/>
-    <col min="52" max="52" width="24.85546875" style="39" customWidth="1"/>
-    <col min="53" max="53" width="6.28515625" style="39" customWidth="1"/>
+    <col min="50" max="50" width="37.6640625" style="39" customWidth="1"/>
+    <col min="51" max="51" width="8.88671875" style="39" customWidth="1"/>
+    <col min="52" max="52" width="24.88671875" style="39" customWidth="1"/>
+    <col min="53" max="53" width="6.33203125" style="39" customWidth="1"/>
     <col min="54" max="54" width="12" style="39" customWidth="1"/>
-    <col min="55" max="55" width="6.28515625" style="39" customWidth="1"/>
+    <col min="55" max="55" width="6.33203125" style="39" customWidth="1"/>
     <col min="56" max="56" width="12" style="39" customWidth="1"/>
-    <col min="57" max="57" width="6.85546875" style="39" customWidth="1"/>
+    <col min="57" max="57" width="6.88671875" style="39" customWidth="1"/>
     <col min="58" max="58" width="13" style="39" customWidth="1"/>
-    <col min="59" max="59" width="9.85546875" style="39" customWidth="1"/>
-    <col min="60" max="60" width="15.5703125" style="39" customWidth="1"/>
-    <col min="61" max="61" width="8.140625" style="39" customWidth="1"/>
-    <col min="62" max="62" width="14.28515625" style="39" customWidth="1"/>
-    <col min="63" max="63" width="30.7109375" style="39" customWidth="1"/>
+    <col min="59" max="59" width="9.88671875" style="39" customWidth="1"/>
+    <col min="60" max="60" width="15.5546875" style="39" customWidth="1"/>
+    <col min="61" max="61" width="8.109375" style="39" customWidth="1"/>
+    <col min="62" max="62" width="14.33203125" style="39" customWidth="1"/>
+    <col min="63" max="63" width="30.6640625" style="39" customWidth="1"/>
     <col min="64" max="64" width="37" style="39" customWidth="1"/>
-    <col min="65" max="256" width="10.85546875" style="39" customWidth="1"/>
+    <col min="65" max="256" width="10.88671875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -41799,7 +41813,7 @@
       <c r="E1" s="86"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="86"/>
       <c r="B2" s="67" t="s">
         <v>1</v>
@@ -41810,7 +41824,7 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
       <c r="B3" s="95" t="s">
         <v>35</v>
@@ -41890,7 +41904,7 @@
       <c r="BK3"/>
       <c r="BL3"/>
     </row>
-    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="86"/>
       <c r="B4" s="96" t="s">
         <v>27</v>
@@ -41969,7 +41983,7 @@
       <c r="BK4"/>
       <c r="BL4"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86"/>
       <c r="B5" s="89" t="s">
         <v>22</v>
@@ -42044,7 +42058,7 @@
       <c r="BK5"/>
       <c r="BL5"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86"/>
       <c r="B6" s="89" t="s">
         <v>14</v>
@@ -42121,7 +42135,7 @@
       <c r="BK6"/>
       <c r="BL6"/>
     </row>
-    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86"/>
       <c r="B7" s="89" t="s">
         <v>13</v>
@@ -42200,7 +42214,7 @@
       <c r="BK7"/>
       <c r="BL7"/>
     </row>
-    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86"/>
       <c r="B8" s="89" t="s">
         <v>0</v>
@@ -42275,7 +42289,7 @@
       <c r="BK8"/>
       <c r="BL8"/>
     </row>
-    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="86"/>
       <c r="B9" s="89" t="s">
         <v>19</v>
@@ -42350,7 +42364,7 @@
       <c r="BK9"/>
       <c r="BL9"/>
     </row>
-    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="86"/>
       <c r="B10" s="89" t="s">
         <v>33</v>
@@ -42425,7 +42439,7 @@
       <c r="BK10"/>
       <c r="BL10"/>
     </row>
-    <row r="11" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="49"/>
       <c r="B11" s="97" t="s">
         <v>25</v>
@@ -42500,7 +42514,7 @@
       <c r="BK11"/>
       <c r="BL11"/>
     </row>
-    <row r="12" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
       <c r="B12" s="98" t="s">
         <v>41</v>
@@ -42581,7 +42595,7 @@
       <c r="BK12"/>
       <c r="BL12"/>
     </row>
-    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -42646,7 +42660,7 @@
       <c r="BK13"/>
       <c r="BL13"/>
     </row>
-    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -42711,7 +42725,7 @@
       <c r="BK14"/>
       <c r="BL14"/>
     </row>
-    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -42776,7 +42790,7 @@
       <c r="BK15"/>
       <c r="BL15"/>
     </row>
-    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -42841,7 +42855,7 @@
       <c r="BK16"/>
       <c r="BL16"/>
     </row>
-    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -42906,7 +42920,7 @@
       <c r="BK17"/>
       <c r="BL17"/>
     </row>
-    <row r="18" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="49"/>
       <c r="B18" s="67" t="s">
         <v>2</v>
@@ -42916,7 +42930,7 @@
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49"/>
       <c r="B19" s="87" t="s">
         <v>35</v>
@@ -42941,7 +42955,7 @@
       </c>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49"/>
       <c r="B20" s="88" t="s">
         <v>15</v>
@@ -42961,7 +42975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="49"/>
       <c r="B21" s="89" t="s">
         <v>23</v>
@@ -42983,7 +42997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="49"/>
       <c r="B22" s="89" t="s">
         <v>21</v>
@@ -43003,7 +43017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49"/>
       <c r="B23" s="89" t="s">
         <v>22</v>
@@ -43027,7 +43041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49"/>
       <c r="B24" s="89" t="s">
         <v>14</v>
@@ -43051,7 +43065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="49"/>
       <c r="B25" s="89" t="s">
         <v>34</v>
@@ -43073,7 +43087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="89" t="s">
         <v>0</v>
@@ -43095,7 +43109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="89" t="s">
         <v>19</v>
@@ -43117,7 +43131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="49"/>
       <c r="B28" s="89" t="s">
         <v>33</v>
@@ -43139,7 +43153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49"/>
       <c r="B29" s="90" t="s">
         <v>41</v>
@@ -43165,7 +43179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -43174,7 +43188,7 @@
       <c r="G30"/>
       <c r="I30" s="82"/>
     </row>
-    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -43183,1032 +43197,1032 @@
       <c r="G31"/>
       <c r="I31" s="82"/>
     </row>
-    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
     </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
     </row>
-    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
     </row>
-    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
     </row>
-    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
     </row>
-    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
     </row>
-    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
     </row>
-    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
     </row>
-    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
     </row>
-    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
     </row>
-    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
     </row>
-    <row r="65" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
     </row>
-    <row r="66" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
     </row>
-    <row r="67" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
     </row>
-    <row r="68" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
     </row>
-    <row r="69" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
     </row>
-    <row r="70" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
     </row>
-    <row r="71" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71"/>
       <c r="C71"/>
     </row>
-    <row r="72" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72"/>
       <c r="C72"/>
     </row>
-    <row r="73" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73"/>
       <c r="C73"/>
     </row>
-    <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74"/>
       <c r="C74"/>
     </row>
-    <row r="75" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75"/>
       <c r="C75"/>
     </row>
-    <row r="76" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77"/>
       <c r="C77"/>
     </row>
-    <row r="78" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79"/>
       <c r="C79"/>
     </row>
-    <row r="80" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80"/>
       <c r="C80"/>
     </row>
-    <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81"/>
       <c r="C81"/>
     </row>
-    <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83"/>
       <c r="C83"/>
     </row>
-    <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85"/>
       <c r="C85"/>
     </row>
-    <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87"/>
       <c r="C87"/>
     </row>
-    <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88"/>
       <c r="C88"/>
     </row>
-    <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89"/>
       <c r="C89"/>
     </row>
-    <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91"/>
       <c r="C91"/>
     </row>
-    <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92"/>
       <c r="C92"/>
     </row>
-    <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93"/>
       <c r="C93"/>
     </row>
-    <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94"/>
       <c r="C94"/>
     </row>
-    <row r="95" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95"/>
       <c r="C95"/>
     </row>
-    <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96"/>
       <c r="C96"/>
     </row>
-    <row r="97" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97"/>
       <c r="C97"/>
     </row>
-    <row r="98" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98"/>
       <c r="C98"/>
     </row>
-    <row r="99" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99"/>
       <c r="C99"/>
     </row>
-    <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100"/>
       <c r="C100"/>
     </row>
-    <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101"/>
       <c r="C101"/>
     </row>
-    <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102"/>
       <c r="C102"/>
     </row>
-    <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103"/>
       <c r="C103"/>
     </row>
-    <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104"/>
       <c r="C104"/>
     </row>
-    <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105"/>
       <c r="C105"/>
     </row>
-    <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106"/>
       <c r="C106"/>
     </row>
-    <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107"/>
       <c r="C107"/>
     </row>
-    <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109"/>
       <c r="C109"/>
     </row>
-    <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111"/>
       <c r="C111"/>
     </row>
-    <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112"/>
       <c r="C112"/>
     </row>
-    <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113"/>
       <c r="C113"/>
     </row>
-    <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114"/>
       <c r="C114"/>
     </row>
-    <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115"/>
       <c r="C115"/>
     </row>
-    <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116"/>
       <c r="C116"/>
     </row>
-    <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117"/>
       <c r="C117"/>
     </row>
-    <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118"/>
       <c r="C118"/>
     </row>
-    <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119"/>
       <c r="C119"/>
     </row>
-    <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120"/>
       <c r="C120"/>
     </row>
-    <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121"/>
       <c r="C121"/>
     </row>
-    <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122"/>
       <c r="C122"/>
     </row>
-    <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123"/>
       <c r="C123"/>
     </row>
-    <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124"/>
       <c r="C124"/>
     </row>
-    <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125"/>
       <c r="C125"/>
     </row>
-    <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126"/>
       <c r="C126"/>
     </row>
-    <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127"/>
       <c r="C127"/>
     </row>
-    <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128"/>
       <c r="C128"/>
     </row>
-    <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129"/>
       <c r="C129"/>
     </row>
-    <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130"/>
       <c r="C130"/>
     </row>
-    <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131"/>
       <c r="C131"/>
     </row>
-    <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132"/>
       <c r="C132"/>
     </row>
-    <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133"/>
       <c r="C133"/>
     </row>
-    <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134"/>
       <c r="C134"/>
     </row>
-    <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135"/>
       <c r="C135"/>
     </row>
-    <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136"/>
       <c r="C136"/>
     </row>
-    <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137"/>
       <c r="C137"/>
     </row>
-    <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138"/>
       <c r="C138"/>
     </row>
-    <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139"/>
       <c r="C139"/>
     </row>
-    <row r="140" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140"/>
       <c r="C140"/>
     </row>
-    <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141"/>
       <c r="C141"/>
     </row>
-    <row r="142" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142"/>
       <c r="C142"/>
     </row>
-    <row r="143" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144"/>
       <c r="C144"/>
     </row>
-    <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145"/>
       <c r="C145"/>
     </row>
-    <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146"/>
       <c r="C146"/>
     </row>
-    <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147"/>
       <c r="C147"/>
     </row>
-    <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148"/>
       <c r="C148"/>
     </row>
-    <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149"/>
       <c r="C149"/>
     </row>
-    <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150"/>
       <c r="C150"/>
     </row>
-    <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151"/>
       <c r="C151"/>
     </row>
-    <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152"/>
       <c r="C152"/>
     </row>
-    <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153"/>
       <c r="C153"/>
     </row>
-    <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154"/>
       <c r="C154"/>
     </row>
-    <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155"/>
       <c r="C155"/>
     </row>
-    <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156"/>
       <c r="C156"/>
     </row>
-    <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157"/>
       <c r="C157"/>
     </row>
-    <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158"/>
       <c r="C158"/>
     </row>
-    <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159"/>
       <c r="C159"/>
     </row>
-    <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160"/>
       <c r="C160"/>
     </row>
-    <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161"/>
       <c r="C161"/>
     </row>
-    <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162"/>
       <c r="C162"/>
     </row>
-    <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163"/>
       <c r="C163"/>
     </row>
-    <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164"/>
       <c r="C164"/>
     </row>
-    <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165"/>
       <c r="C165"/>
     </row>
-    <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166"/>
       <c r="C166"/>
     </row>
-    <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167"/>
       <c r="C167"/>
     </row>
-    <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168"/>
       <c r="C168"/>
     </row>
-    <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169"/>
       <c r="C169"/>
     </row>
-    <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170"/>
       <c r="C170"/>
     </row>
-    <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171"/>
       <c r="C171"/>
     </row>
-    <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172"/>
       <c r="C172"/>
     </row>
-    <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173"/>
       <c r="C173"/>
     </row>
-    <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174"/>
       <c r="C174"/>
     </row>
-    <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175"/>
       <c r="C175"/>
     </row>
-    <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176"/>
       <c r="C176"/>
     </row>
-    <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177"/>
       <c r="C177"/>
     </row>
-    <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178"/>
       <c r="C178"/>
     </row>
-    <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179"/>
       <c r="C179"/>
     </row>
-    <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180"/>
       <c r="C180"/>
     </row>
-    <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181"/>
       <c r="C181"/>
     </row>
-    <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182"/>
       <c r="C182"/>
     </row>
-    <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183"/>
       <c r="C183"/>
     </row>
-    <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184"/>
       <c r="C184"/>
     </row>
-    <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185"/>
       <c r="C185"/>
     </row>
-    <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186"/>
       <c r="C186"/>
     </row>
-    <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187"/>
       <c r="C187"/>
     </row>
-    <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188"/>
       <c r="C188"/>
     </row>
-    <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189"/>
       <c r="C189"/>
     </row>
-    <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190"/>
       <c r="C190"/>
     </row>
-    <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191"/>
       <c r="C191"/>
     </row>
-    <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192"/>
       <c r="C192"/>
     </row>
-    <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193"/>
       <c r="C193"/>
     </row>
-    <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194"/>
       <c r="C194"/>
     </row>
-    <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195"/>
       <c r="C195"/>
     </row>
-    <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196"/>
       <c r="C196"/>
     </row>
-    <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197"/>
       <c r="C197"/>
     </row>
-    <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198"/>
       <c r="C198"/>
     </row>
-    <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199"/>
       <c r="C199"/>
     </row>
-    <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200"/>
       <c r="C200"/>
     </row>
-    <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201"/>
       <c r="C201"/>
     </row>
-    <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202"/>
       <c r="C202"/>
     </row>
-    <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203"/>
       <c r="C203"/>
     </row>
-    <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204"/>
       <c r="C204"/>
     </row>
-    <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205"/>
       <c r="C205"/>
     </row>
-    <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206"/>
       <c r="C206"/>
     </row>
-    <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207"/>
       <c r="C207"/>
     </row>
-    <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208"/>
       <c r="C208"/>
     </row>
-    <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209"/>
       <c r="C209"/>
     </row>
-    <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210"/>
       <c r="C210"/>
     </row>
-    <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211"/>
       <c r="C211"/>
     </row>
-    <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212"/>
       <c r="C212"/>
     </row>
-    <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213"/>
       <c r="C213"/>
     </row>
-    <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214"/>
       <c r="C214"/>
     </row>
-    <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215"/>
       <c r="C215"/>
     </row>
-    <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216"/>
       <c r="C216"/>
     </row>
-    <row r="217" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217"/>
       <c r="C217"/>
     </row>
-    <row r="218" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218"/>
       <c r="C218"/>
     </row>
-    <row r="219" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219"/>
       <c r="C219"/>
     </row>
-    <row r="220" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220"/>
       <c r="C220"/>
     </row>
-    <row r="221" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221"/>
       <c r="C221"/>
     </row>
-    <row r="222" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222"/>
       <c r="C222"/>
     </row>
-    <row r="223" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223"/>
       <c r="C223"/>
     </row>
-    <row r="224" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224"/>
       <c r="C224"/>
     </row>
-    <row r="225" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225"/>
       <c r="C225"/>
     </row>
-    <row r="226" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226"/>
     </row>
-    <row r="227" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227"/>
     </row>
-    <row r="228" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228"/>
     </row>
-    <row r="229" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229"/>
     </row>
-    <row r="230" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230"/>
     </row>
-    <row r="231" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231"/>
     </row>
-    <row r="232" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232"/>
     </row>
-    <row r="233" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233"/>
     </row>
-    <row r="234" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234"/>
     </row>
-    <row r="235" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235"/>
     </row>
-    <row r="236" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236"/>
     </row>
-    <row r="237" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237"/>
     </row>
-    <row r="238" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238"/>
     </row>
-    <row r="239" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239"/>
     </row>
-    <row r="240" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240"/>
     </row>
-    <row r="241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241"/>
     </row>
-    <row r="242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242"/>
     </row>
-    <row r="243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243"/>
     </row>
-    <row r="244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244"/>
     </row>
-    <row r="245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245"/>
     </row>
-    <row r="246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246"/>
     </row>
-    <row r="247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247"/>
     </row>
-    <row r="248" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248"/>
     </row>
-    <row r="249" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249"/>
     </row>
-    <row r="250" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250"/>
     </row>
-    <row r="251" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251"/>
     </row>
-    <row r="252" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252"/>
     </row>
-    <row r="253" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253"/>
     </row>
-    <row r="254" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254"/>
     </row>
-    <row r="255" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255"/>
     </row>
-    <row r="256" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256"/>
     </row>
-    <row r="257" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257"/>
     </row>
-    <row r="258" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258"/>
     </row>
-    <row r="259" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259"/>
     </row>
-    <row r="260" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260"/>
     </row>
-    <row r="261" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261"/>
     </row>
-    <row r="262" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262"/>
     </row>
-    <row r="263" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263"/>
     </row>
-    <row r="264" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264"/>
     </row>
-    <row r="265" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265"/>
     </row>
-    <row r="266" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266"/>
     </row>
-    <row r="267" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267"/>
     </row>
-    <row r="268" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268"/>
     </row>
-    <row r="269" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269"/>
     </row>
-    <row r="270" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270"/>
     </row>
-    <row r="271" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271"/>
     </row>
-    <row r="272" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272"/>
     </row>
-    <row r="273" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273"/>
     </row>
-    <row r="274" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274"/>
     </row>
-    <row r="275" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275"/>
     </row>
-    <row r="276" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276"/>
     </row>
-    <row r="277" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277"/>
     </row>
-    <row r="278" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278"/>
     </row>
-    <row r="279" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279"/>
     </row>
-    <row r="280" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280"/>
     </row>
-    <row r="281" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281"/>
     </row>
-    <row r="282" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282"/>
     </row>
-    <row r="283" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283"/>
     </row>
-    <row r="284" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284"/>
     </row>
-    <row r="285" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285"/>
     </row>
   </sheetData>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5744055-2ABA-4041-B948-47A7D7C50F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF0DBB4-254F-45D4-B059-A687D8F0CA15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>Individualhilfe Fr.Heinz</t>
+  </si>
+  <si>
+    <t>Spende Fam. Riedel</t>
+  </si>
+  <si>
+    <t>Radservice Ausgaben Roland</t>
+  </si>
+  <si>
+    <t>Radservice Spenden</t>
   </si>
 </sst>
 </file>
@@ -950,32 +959,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="344">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="338">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1086,11 +1070,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5158,17 +5137,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5269,17 +5248,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="13">
+    <format dxfId="8">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6406,8 +6385,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6829,14 +6808,22 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="15">
+        <v>44280</v>
+      </c>
       <c r="B17" s="60">
         <v>14</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="18">
+        <v>50</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
@@ -6846,14 +6833,22 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="15">
+        <v>44284</v>
+      </c>
       <c r="B18" s="60">
         <v>15</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="18">
+        <v>50</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
@@ -8159,7 +8154,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>10463.369999999999</v>
+        <v>10563.369999999999</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8202,7 +8197,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>9300.64</v>
+        <v>9368.81</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8240,7 +8235,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>12624.349999999999</v>
+        <v>12692.52</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9041,652 +9036,647 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F12:G16 G20 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 H4:I104 G27:G29 G4:G10">
-    <cfRule type="cellIs" dxfId="343" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="211" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="342" priority="207" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="209" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="341" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="340" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="339" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="338" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="337" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="336" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="335" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="334" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="333" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="332" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="331" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="330" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="329" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="328" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="327" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="326" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="325" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="324" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="323" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="322" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="321" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="320" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="319" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="318" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="317" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="316" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="315" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="314" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="313" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="312" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="311" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="310" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="309" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="308" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="307" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="306" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="305" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="304" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="303" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="302" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="301" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="300" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="299" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="298" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="297" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="296" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="295" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="294" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="293" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="292" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="291" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="290" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="289" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="288" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="287" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="286" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="285" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="284" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="283" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="282" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="281" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="280" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="279" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="278" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="277" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="276" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="275" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="274" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="273" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="272" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="271" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="270" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="269" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="268" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="267" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="266" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="265" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="264" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="263" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="262" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="261" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="260" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="259" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="258" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="257" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="256" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="255" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="254" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="253" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="252" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="251" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="250" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="249" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="248" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="247" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="246" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="245" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="244" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="243" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="242" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="241" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="240" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="239" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="238" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="236" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="227" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="226" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="225" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="224" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="223" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="cellIs" dxfId="222" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="221" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="220" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="219" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="218" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="217" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="216" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="215" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="214" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="213" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="212" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="211" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="210" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="209" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="208" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="235" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="234" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="233" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="232" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="231" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="230" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="229" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="228" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="227" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="226" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="225" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="224" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="223" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="222" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="221" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="220" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="219" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="218" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="217" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="216" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="215" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="214" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D17:E17">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9725,7 +9715,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10285,14 +10275,22 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15">
+        <v>44284</v>
+      </c>
       <c r="C21" s="60">
         <v>19</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21">
+        <v>-31.83</v>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="22"/>
@@ -38792,7 +38790,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1162.7299999999998</v>
+        <v>-1194.5599999999997</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40725,1002 +40723,1002 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="213" priority="398" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="399" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="212" priority="388" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="389" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="211" priority="350" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="210" priority="309" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="310" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="209" priority="306" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="307" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="206" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="289" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="200" priority="283" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="199" priority="282" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="198" priority="281" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="197" priority="280" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="196" priority="267" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="195" priority="275" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="194" priority="265" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="193" priority="263" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="192" priority="262" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="191" priority="236" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="190" priority="235" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="189" priority="234" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="188" priority="233" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="187" priority="210" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="186" priority="207" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="185" priority="197" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="184" priority="196" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="183" priority="194" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="182" priority="193" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="181" priority="192" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="180" priority="191" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="179" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="178" priority="189" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="177" priority="188" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="176" priority="187" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="175" priority="185" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="174" priority="184" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="173" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="172" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="171" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="170" priority="180" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="169" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="168" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="167" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="166" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="165" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="164" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="163" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="162" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="161" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="160" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="159" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="158" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="157" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="156" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="155" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="154" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="153" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="152" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="151" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="150" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="149" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="148" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="147" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="146" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="145" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="144" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="143" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="142" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="141" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="140" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="139" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="138" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="137" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="136" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="135" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="134" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="133" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="132" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="131" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="130" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="129" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="128" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="127" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="126" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="125" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="124" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="123" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="122" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="121" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="120" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="119" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="118" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="117" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="116" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="115" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="114" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="113" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="112" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="111" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="110" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="109" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="108" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="107" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="106" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="105" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="104" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="103" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="102" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="101" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="100" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="99" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="98" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="77" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="60" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="57" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="56" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="55" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="52" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="51" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="50" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="47" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="46" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="45" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="205" priority="284" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="204" priority="282" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="203" priority="281" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="202" priority="280" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="201" priority="279" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="200" priority="266" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="199" priority="274" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="198" priority="264" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="197" priority="262" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="196" priority="261" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="195" priority="235" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="194" priority="234" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="193" priority="233" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="192" priority="232" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="191" priority="209" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="190" priority="206" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="189" priority="196" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="188" priority="195" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="187" priority="193" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="186" priority="192" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="185" priority="191" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="184" priority="190" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="183" priority="189" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="182" priority="188" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="181" priority="187" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="180" priority="186" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="179" priority="184" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="178" priority="183" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="177" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="176" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="175" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="174" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="173" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="172" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="171" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="170" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="169" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="168" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="167" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="166" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="165" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="164" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="163" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="162" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="161" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="160" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="159" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="158" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="157" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="156" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="155" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="154" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="153" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="152" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="151" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="150" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="149" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="148" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="147" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="146" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="145" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="144" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="143" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="142" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="141" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="140" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="139" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="138" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="137" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="136" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="135" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="134" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="133" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="132" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="131" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="130" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="129" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="128" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="127" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="126" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="125" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="124" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="123" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="122" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="121" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="120" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="119" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="118" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="117" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="116" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="115" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="114" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="113" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="108" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="107" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="106" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="105" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="103" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="97" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="92" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="89" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="88" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="87" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="86" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="85" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="84" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="83" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="82" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="81" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="80" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="79" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="78" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="77" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="76" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="75" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="74" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="73" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="72" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="71" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="70" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="69" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="68" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="67" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="66" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="65" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="64" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="63" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="61" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="54" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="40" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="37" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="33" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="29" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="27" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="23" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="22" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E33:E44 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E21:E30 E18" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E33:E44 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E22:E30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -41732,7 +41730,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E20" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E21" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF0DBB4-254F-45D4-B059-A687D8F0CA15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CF3A78-2C45-48C6-A13B-5122BCFD751A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="82">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -256,6 +256,30 @@
   </si>
   <si>
     <t>Radservice Spenden</t>
+  </si>
+  <si>
+    <t>Spende Witschetzky</t>
+  </si>
+  <si>
+    <t>Telekom Mrz</t>
+  </si>
+  <si>
+    <t>Trauerk Fr.Seider</t>
+  </si>
+  <si>
+    <t>Roland Büroausgaben</t>
+  </si>
+  <si>
+    <t>Wasser/Abwasser</t>
+  </si>
+  <si>
+    <t>90er L.Wildner</t>
+  </si>
+  <si>
+    <t>Miete April</t>
+  </si>
+  <si>
+    <t>Telekom April</t>
   </si>
 </sst>
 </file>
@@ -959,7 +983,37 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="338">
+  <dxfs count="343">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1070,11 +1124,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5137,17 +5186,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5248,17 +5297,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="8">
+    <format dxfId="14">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6384,9 +6433,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6858,13 +6907,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="15">
+        <v>44287</v>
+      </c>
       <c r="B19" s="60">
         <v>16</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="17">
+        <v>100</v>
+      </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -8150,7 +8207,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>95.53</v>
+        <v>195.53</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -8193,11 +8250,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>95.53</v>
+        <v>195.53</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>9368.81</v>
+        <v>9012.119999999999</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8235,7 +8292,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>12692.52</v>
+        <v>12435.829999999998</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9036,647 +9093,652 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F12:G16 G20 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 H4:I104 G27:G29 G4:G10">
-    <cfRule type="cellIs" dxfId="337" priority="211" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="336" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="335" priority="203" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="334" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="333" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="332" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="331" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="330" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="329" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="328" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="327" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="326" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="325" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="324" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="323" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="322" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="321" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="320" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="319" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="318" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="317" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="316" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="315" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="314" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="313" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="312" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="311" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="310" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="309" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="308" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="307" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="306" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="305" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="304" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="303" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="302" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="301" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="300" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="299" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="298" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="297" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="296" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="295" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="294" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="293" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="292" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="291" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="290" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="289" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="288" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="287" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="286" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="285" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="284" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="283" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="282" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="281" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="280" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="279" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="278" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="277" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="276" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="275" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="274" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="273" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="272" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="271" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="270" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="269" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="268" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="267" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="266" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="265" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="264" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="263" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="262" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="261" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="260" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="259" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="258" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="257" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="256" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="255" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="254" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="253" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="252" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="251" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="250" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="249" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="248" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="247" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="246" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="245" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="244" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="243" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="242" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="241" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="240" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="239" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="238" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="237" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="236" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="235" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="234" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="233" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="232" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="231" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="227" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="226" priority="23" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="234" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="225" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="224" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="223" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="222" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="221" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="220" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="219" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="218" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="217" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="216" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="215" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="214" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="213" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="212" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="211" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="210" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="209" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="208" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9713,9 +9775,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10230,7 +10292,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E19" s="56" t="s">
         <v>22</v>
@@ -10300,14 +10362,22 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15">
+        <v>44286</v>
+      </c>
       <c r="C22" s="60">
         <v>20</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="41"/>
+      <c r="D22" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21">
+        <v>-25</v>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
@@ -10317,14 +10387,22 @@
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="15">
+        <v>44286</v>
+      </c>
       <c r="C23" s="16">
         <v>21</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="17"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="21">
+        <v>-41.61</v>
+      </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
@@ -10334,14 +10412,22 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15">
+        <v>44286</v>
+      </c>
       <c r="C24" s="16">
         <v>22</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="41"/>
+      <c r="D24" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F24" s="17"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21">
+        <v>-33.53</v>
+      </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="22"/>
@@ -10351,14 +10437,22 @@
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15">
+        <v>44287</v>
+      </c>
       <c r="C25" s="60">
         <v>23</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="41"/>
+      <c r="D25" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <v>-34</v>
+      </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
@@ -10368,14 +10462,22 @@
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="15">
+        <v>44287</v>
+      </c>
       <c r="C26" s="60">
         <v>24</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="41"/>
+      <c r="D26" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21">
+        <v>-150</v>
+      </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
@@ -10385,14 +10487,22 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47"/>
-      <c r="B27" s="43"/>
+      <c r="B27" s="43">
+        <v>44292</v>
+      </c>
       <c r="C27" s="60">
         <v>25</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
+      <c r="D27" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="21">
+        <v>-25</v>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
@@ -10402,14 +10512,22 @@
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="43">
+        <v>44298</v>
+      </c>
       <c r="C28" s="60">
         <v>26</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21">
+        <v>-12</v>
+      </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="22"/>
@@ -10419,14 +10537,22 @@
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47"/>
-      <c r="B29" s="43"/>
+      <c r="B29" s="43">
+        <v>44301</v>
+      </c>
       <c r="C29" s="60">
         <v>27</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="41"/>
+      <c r="D29" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="21">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="22"/>
@@ -10436,14 +10562,22 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>44306</v>
+      </c>
       <c r="C30" s="60">
         <v>28</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>-18.059999999999999</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="22"/>
@@ -38790,7 +38924,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1194.5599999999997</v>
+        <v>-1551.2499999999995</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40723,1002 +40857,1002 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="207" priority="399" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="206" priority="389" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="397" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="205" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="204" priority="310" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="318" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="203" priority="307" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="315" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="202" priority="289" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="297" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="200" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="291" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="205" priority="289" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="204" priority="288" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="203" priority="275" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="201" priority="273" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="200" priority="271" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="199" priority="270" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="198" priority="244" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="197" priority="243" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="196" priority="242" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="195" priority="241" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="194" priority="218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="193" priority="215" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="192" priority="205" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="191" priority="204" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="190" priority="202" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="189" priority="201" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="188" priority="200" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="187" priority="199" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="186" priority="198" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="185" priority="197" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="184" priority="196" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="183" priority="195" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="182" priority="193" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="181" priority="192" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="180" priority="191" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="179" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="178" priority="189" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="177" priority="188" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="176" priority="187" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="175" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="174" priority="185" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="173" priority="184" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="172" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="171" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="170" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="169" priority="180" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="168" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="167" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="166" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="165" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="164" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="163" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="162" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="161" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="160" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="159" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="158" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="157" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="156" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="155" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="154" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="153" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="152" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="151" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="150" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="149" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="148" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="147" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="146" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="145" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="144" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="143" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="142" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="141" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="140" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="139" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="138" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="137" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="136" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="135" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="134" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="133" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="132" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="131" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="130" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="129" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="128" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="127" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="126" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="125" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="124" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="123" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="122" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="121" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="120" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="119" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="118" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="117" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="116" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="113" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="110" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="107" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="106" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="105" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="103" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="92" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="89" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="88" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="87" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="86" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="85" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="84" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="82" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="81" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="77" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="76" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="60" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="58" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="57" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="56" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="53" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="199" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="198" priority="281" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="197" priority="280" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="196" priority="267" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="195" priority="275" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="194" priority="265" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="193" priority="263" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="192" priority="262" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="191" priority="236" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="190" priority="235" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="189" priority="234" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="188" priority="233" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="187" priority="210" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="186" priority="207" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="185" priority="197" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="184" priority="196" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="183" priority="194" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="182" priority="193" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="181" priority="192" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="180" priority="191" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="179" priority="190" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="178" priority="189" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="177" priority="188" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="176" priority="187" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="175" priority="185" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="174" priority="184" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="173" priority="183" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="172" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="171" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="170" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="169" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="168" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="167" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="166" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="165" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="164" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="163" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="162" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="161" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="160" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="159" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="158" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="157" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="156" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="155" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="154" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="153" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="152" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="151" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="150" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="149" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="148" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="147" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="146" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="145" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="144" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="143" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="142" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="141" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="140" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="139" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="138" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="137" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="136" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="135" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="134" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="133" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="132" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="131" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="130" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="129" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="128" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="127" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="126" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="125" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="124" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="123" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="122" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="121" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="120" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="119" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="118" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="117" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="116" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="115" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="114" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="113" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="112" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="111" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="110" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="109" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="108" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="107" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="106" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="105" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="104" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="103" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="102" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="101" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="100" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="99" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="98" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="77" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="60" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="57" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="56" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="55" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="52" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="51" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="50" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="47" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="46" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="45" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E33:E44 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E22:E30" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E33:E44 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E23:E24" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -41727,10 +41861,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56 E50:E51 E45:E46 E31:E32" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E21" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E30" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CF3A78-2C45-48C6-A13B-5122BCFD751A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093D0B9-EB23-4381-904A-5F84CE9C74DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$164</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$103</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$170</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="90">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -280,6 +280,30 @@
   </si>
   <si>
     <t>Telekom April</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>Spende Fam Weeber</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>Spende Fam. Binder</t>
+  </si>
+  <si>
+    <t>12a</t>
+  </si>
+  <si>
+    <t>Spende P.Haas (Fehler Überw. 300-270)</t>
+  </si>
+  <si>
+    <t>Spende G.Kliegl</t>
+  </si>
+  <si>
+    <t>Trauerkarte H.Weinholzner</t>
   </si>
 </sst>
 </file>
@@ -983,147 +1007,11 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="343">
+  <dxfs count="336">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2765,6 +2653,107 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -2894,7 +2883,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wildner" refreshedDate="43834.621834722224" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="102" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:I104" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:I107" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -5186,17 +5175,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="11">
+    <format dxfId="332">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="331">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="330">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5297,17 +5286,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="14">
+    <format dxfId="335">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="334">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="333">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6431,11 +6420,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IK170"/>
+  <dimension ref="A1:IK173"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6708,293 +6697,325 @@
     </row>
     <row r="11" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
-        <v>44233</v>
-      </c>
-      <c r="B11" s="60">
-        <v>8</v>
+        <v>44253</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17">
-        <v>20</v>
-      </c>
-      <c r="F11" s="18"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="18">
+        <v>50</v>
+      </c>
       <c r="I11" s="19"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
-        <v>44257</v>
+        <v>44233</v>
       </c>
       <c r="B12" s="60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18">
-        <v>143.41999999999999</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="17">
+        <v>20</v>
+      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
       <c r="J12" s="2"/>
       <c r="K12" s="53" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B13" s="60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="58">
-        <v>20</v>
+      <c r="F13" s="18">
+        <v>143.41999999999999</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>26</v>
+      <c r="K13" s="53" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
-        <v>44259</v>
-      </c>
-      <c r="B14" s="60">
-        <v>11</v>
+        <v>44257</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>84</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="18">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
         <v>50</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
       <c r="I14" s="19"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="K14" s="53"/>
     </row>
     <row r="15" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B15" s="60">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="18">
-        <v>450</v>
+      <c r="F15" s="58">
+        <v>20</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
-        <v>44270</v>
+        <v>44259</v>
       </c>
       <c r="B16" s="60">
+        <v>11</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="57" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>22</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="18">
-        <v>2457.5</v>
+        <v>50</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
-        <v>44280</v>
+        <v>44259</v>
       </c>
       <c r="B17" s="60">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D17" s="57" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
-        <v>44284</v>
-      </c>
-      <c r="B18" s="60">
-        <v>15</v>
+        <v>44260</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>86</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="18">
-        <v>50</v>
-      </c>
+      <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="18">
+        <v>30</v>
+      </c>
       <c r="I18" s="19"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
-        <v>44287</v>
+        <v>44270</v>
       </c>
       <c r="B19" s="60">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="17">
-        <v>100</v>
-      </c>
-      <c r="F19" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18">
+        <v>2457.5</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="15">
+        <v>44280</v>
+      </c>
       <c r="B20" s="60">
-        <v>17</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="57"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18">
+        <v>50</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="15">
+        <v>44284</v>
+      </c>
       <c r="B21" s="60">
-        <v>18</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="57"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18">
+        <v>50</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="15">
+        <v>44287</v>
+      </c>
       <c r="B22" s="60">
-        <v>19</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="17">
+        <v>100</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16">
-        <v>20</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="57"/>
+      <c r="A23" s="15">
+        <v>44301</v>
+      </c>
+      <c r="B23" s="60">
+        <v>17</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="H23" s="18">
+        <v>100</v>
+      </c>
       <c r="I23" s="19"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
-      <c r="B24" s="16">
-        <v>21</v>
+      <c r="B24" s="60">
+        <v>18</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="57"/>
@@ -7009,7 +7030,7 @@
     <row r="25" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="60">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="55"/>
       <c r="D25" s="57"/>
@@ -7023,11 +7044,11 @@
     </row>
     <row r="26" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="60">
-        <v>23</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="63"/>
+      <c r="B26" s="16">
+        <v>20</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -7039,7 +7060,7 @@
     <row r="27" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="16">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="57"/>
@@ -7053,11 +7074,11 @@
     </row>
     <row r="28" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
-      <c r="B28" s="16">
-        <v>25</v>
+      <c r="B28" s="60">
+        <v>22</v>
       </c>
       <c r="C28" s="55"/>
-      <c r="D28" s="41"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="17"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -7067,12 +7088,12 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="16">
-        <v>26</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="57"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="60">
+        <v>23</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -7082,12 +7103,12 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="16">
-        <v>27</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -7097,12 +7118,12 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="16">
-        <v>28</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -7114,10 +7135,10 @@
     <row r="32" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C32" s="55"/>
-      <c r="D32" s="41"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -7127,12 +7148,12 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -7142,12 +7163,12 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="16">
-        <v>31</v>
-      </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="41"/>
+        <v>28</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -7157,9 +7178,9 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="16">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35" s="55"/>
       <c r="D35" s="41"/>
@@ -7174,9 +7195,9 @@
     <row r="36" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="16">
-        <v>33</v>
-      </c>
-      <c r="C36" s="55"/>
+        <v>30</v>
+      </c>
+      <c r="C36" s="42"/>
       <c r="D36" s="41"/>
       <c r="E36" s="17"/>
       <c r="F36" s="18"/>
@@ -7189,7 +7210,7 @@
     <row r="37" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="16">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="41"/>
@@ -7203,12 +7224,12 @@
     </row>
     <row r="38" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
-      <c r="B38" s="61">
-        <v>35</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
+      <c r="B38" s="16">
+        <v>32</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -7219,7 +7240,7 @@
     <row r="39" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="16">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39" s="55"/>
       <c r="D39" s="41"/>
@@ -7234,7 +7255,7 @@
     <row r="40" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="16">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="41"/>
@@ -7248,12 +7269,12 @@
     </row>
     <row r="41" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
-      <c r="B41" s="16">
-        <v>38</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="17"/>
+      <c r="B41" s="61">
+        <v>35</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -7263,12 +7284,12 @@
     </row>
     <row r="42" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
-      <c r="B42" s="61">
-        <v>39</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
+      <c r="B42" s="16">
+        <v>36</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -7279,11 +7300,11 @@
     <row r="43" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="16">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C43" s="55"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -7294,11 +7315,11 @@
     <row r="44" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="16">
-        <v>41</v>
-      </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -7308,12 +7329,12 @@
     </row>
     <row r="45" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
-      <c r="B45" s="16">
-        <v>42</v>
-      </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="17"/>
+      <c r="B45" s="61">
+        <v>39</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -7324,11 +7345,11 @@
     <row r="46" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="16">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" s="55"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="17"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -7339,11 +7360,11 @@
     <row r="47" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="16">
-        <v>44</v>
-      </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -7354,10 +7375,10 @@
     <row r="48" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="16">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C48" s="55"/>
-      <c r="D48" s="41"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="17"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -7369,7 +7390,7 @@
     <row r="49" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="16">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="41"/>
@@ -7384,11 +7405,11 @@
     <row r="50" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C50" s="55"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="20"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -7399,11 +7420,11 @@
     <row r="51" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="16">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C51" s="55"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="20"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -7414,11 +7435,11 @@
     <row r="52" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="16">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52" s="55"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="20"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
@@ -7429,11 +7450,11 @@
     <row r="53" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="16">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C53" s="55"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="17"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
@@ -7444,7 +7465,7 @@
     <row r="54" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="16">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="2"/>
@@ -7458,11 +7479,11 @@
     </row>
     <row r="55" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
-      <c r="B55" s="61">
-        <v>52</v>
-      </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="19"/>
+      <c r="B55" s="16">
+        <v>49</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="20"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -7473,12 +7494,12 @@
     </row>
     <row r="56" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
-      <c r="B56" s="42">
-        <v>53</v>
-      </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="20"/>
+      <c r="B56" s="16">
+        <v>50</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="17"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
@@ -7489,13 +7510,13 @@
     <row r="57" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="16">
-        <v>54</v>
-      </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="20"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="58"/>
+      <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="19"/>
       <c r="J57" s="2"/>
@@ -7503,12 +7524,12 @@
     </row>
     <row r="58" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
-      <c r="B58" s="16">
-        <v>55</v>
-      </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="17"/>
+      <c r="B58" s="61">
+        <v>52</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
@@ -7518,12 +7539,12 @@
     </row>
     <row r="59" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
-      <c r="B59" s="16">
-        <v>56</v>
-      </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="17"/>
+      <c r="B59" s="42">
+        <v>53</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="20"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -7534,13 +7555,13 @@
     <row r="60" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="16">
-        <v>57</v>
-      </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="C60" s="42"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="G60" s="58"/>
       <c r="H60" s="18"/>
       <c r="I60" s="19"/>
       <c r="J60" s="2"/>
@@ -7548,12 +7569,13 @@
     </row>
     <row r="61" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
-      <c r="B61" s="61">
-        <v>58</v>
-      </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="19"/>
-      <c r="F61" s="17"/>
+      <c r="B61" s="16">
+        <v>55</v>
+      </c>
+      <c r="C61" s="55"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="19"/>
@@ -7562,13 +7584,13 @@
     </row>
     <row r="62" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
-      <c r="B62" s="60">
-        <v>59</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
+      <c r="B62" s="16">
+        <v>56</v>
+      </c>
+      <c r="C62" s="55"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -7577,12 +7599,12 @@
     </row>
     <row r="63" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
-      <c r="B63" s="60">
-        <v>60</v>
-      </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
+      <c r="B63" s="16">
+        <v>57</v>
+      </c>
+      <c r="C63" s="55"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="17"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -7592,13 +7614,12 @@
     </row>
     <row r="64" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
-      <c r="B64" s="60">
-        <v>61</v>
+      <c r="B64" s="61">
+        <v>58</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="18"/>
+      <c r="F64" s="17"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19"/>
@@ -7608,12 +7629,12 @@
     <row r="65" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="60">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C65" s="40"/>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="58"/>
+      <c r="F65" s="21"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="19"/>
@@ -7622,12 +7643,12 @@
     </row>
     <row r="66" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
-      <c r="B66" s="16">
-        <v>63</v>
-      </c>
-      <c r="C66" s="42"/>
+      <c r="B66" s="60">
+        <v>60</v>
+      </c>
+      <c r="C66" s="40"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="17"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -7637,8 +7658,8 @@
     </row>
     <row r="67" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
-      <c r="B67" s="61">
-        <v>64</v>
+      <c r="B67" s="60">
+        <v>61</v>
       </c>
       <c r="C67" s="40"/>
       <c r="D67" s="19"/>
@@ -7652,13 +7673,13 @@
     </row>
     <row r="68" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
-      <c r="B68" s="16">
-        <v>65</v>
-      </c>
-      <c r="C68" s="42"/>
+      <c r="B68" s="60">
+        <v>62</v>
+      </c>
+      <c r="C68" s="40"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="18"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="19"/>
@@ -7668,7 +7689,7 @@
     <row r="69" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="16">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C69" s="42"/>
       <c r="D69" s="19"/>
@@ -7682,12 +7703,12 @@
     </row>
     <row r="70" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
-      <c r="B70" s="16">
-        <v>67</v>
-      </c>
-      <c r="C70" s="42"/>
+      <c r="B70" s="61">
+        <v>64</v>
+      </c>
+      <c r="C70" s="40"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="17"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -7698,10 +7719,10 @@
     <row r="71" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="16">
-        <v>68</v>
-      </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="41"/>
+        <v>65</v>
+      </c>
+      <c r="C71" s="42"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="17"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -7713,10 +7734,10 @@
     <row r="72" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="16">
-        <v>69</v>
-      </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="41"/>
+        <v>66</v>
+      </c>
+      <c r="C72" s="42"/>
+      <c r="D72" s="19"/>
       <c r="E72" s="17"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
@@ -7728,9 +7749,9 @@
     <row r="73" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="16">
-        <v>70</v>
-      </c>
-      <c r="C73" s="55"/>
+        <v>67</v>
+      </c>
+      <c r="C73" s="42"/>
       <c r="D73" s="19"/>
       <c r="E73" s="17"/>
       <c r="F73" s="18"/>
@@ -7743,10 +7764,10 @@
     <row r="74" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="16">
-        <v>71</v>
-      </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="C74" s="55"/>
+      <c r="D74" s="41"/>
       <c r="E74" s="17"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
@@ -7758,10 +7779,10 @@
     <row r="75" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="16">
-        <v>72</v>
-      </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="C75" s="55"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="17"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
@@ -7773,9 +7794,9 @@
     <row r="76" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="16">
-        <v>73</v>
-      </c>
-      <c r="C76" s="42"/>
+        <v>70</v>
+      </c>
+      <c r="C76" s="55"/>
       <c r="D76" s="19"/>
       <c r="E76" s="17"/>
       <c r="F76" s="18"/>
@@ -7788,7 +7809,7 @@
     <row r="77" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="16">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="19"/>
@@ -7801,9 +7822,9 @@
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="16">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C78" s="42"/>
       <c r="D78" s="19"/>
@@ -7818,9 +7839,9 @@
     <row r="79" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="16">
-        <v>76</v>
-      </c>
-      <c r="C79" s="40"/>
+        <v>73</v>
+      </c>
+      <c r="C79" s="42"/>
       <c r="D79" s="19"/>
       <c r="E79" s="17"/>
       <c r="F79" s="18"/>
@@ -7831,9 +7852,9 @@
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="43"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="16">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C80" s="42"/>
       <c r="D80" s="19"/>
@@ -7848,7 +7869,7 @@
     <row r="81" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="16">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C81" s="42"/>
       <c r="D81" s="19"/>
@@ -7862,12 +7883,13 @@
     </row>
     <row r="82" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
-      <c r="B82" s="60">
-        <v>79</v>
-      </c>
-      <c r="C82" s="64"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="21"/>
+      <c r="B82" s="16">
+        <v>76</v>
+      </c>
+      <c r="C82" s="40"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="19"/>
@@ -7875,12 +7897,12 @@
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="16">
-        <v>80</v>
-      </c>
-      <c r="C83" s="55"/>
-      <c r="D83" s="41"/>
+        <v>77</v>
+      </c>
+      <c r="C83" s="42"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="17"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
@@ -7890,12 +7912,12 @@
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="15"/>
+      <c r="A84" s="43"/>
       <c r="B84" s="16">
-        <v>81</v>
-      </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="41"/>
+        <v>78</v>
+      </c>
+      <c r="C84" s="42"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="17"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
@@ -7906,13 +7928,12 @@
     </row>
     <row r="85" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
-      <c r="B85" s="16">
-        <v>82</v>
-      </c>
-      <c r="C85" s="55"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="18"/>
+      <c r="B85" s="60">
+        <v>79</v>
+      </c>
+      <c r="C85" s="64"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="21"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
       <c r="I85" s="19"/>
@@ -7922,7 +7943,7 @@
     <row r="86" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="16">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="41"/>
@@ -7937,7 +7958,7 @@
     <row r="87" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="16">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C87" s="55"/>
       <c r="D87" s="41"/>
@@ -7952,7 +7973,7 @@
     <row r="88" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="16">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C88" s="55"/>
       <c r="D88" s="41"/>
@@ -7967,10 +7988,10 @@
     <row r="89" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="16">
-        <v>86</v>
-      </c>
-      <c r="C89" s="42"/>
-      <c r="D89" s="19"/>
+        <v>83</v>
+      </c>
+      <c r="C89" s="55"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="17"/>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
@@ -7982,10 +8003,10 @@
     <row r="90" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="16">
-        <v>87</v>
-      </c>
-      <c r="C90" s="42"/>
-      <c r="D90" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="C90" s="55"/>
+      <c r="D90" s="41"/>
       <c r="E90" s="17"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
@@ -7997,10 +8018,10 @@
     <row r="91" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="16">
-        <v>88</v>
-      </c>
-      <c r="C91" s="42"/>
-      <c r="D91" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="C91" s="55"/>
+      <c r="D91" s="41"/>
       <c r="E91" s="17"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
@@ -8011,13 +8032,13 @@
     </row>
     <row r="92" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
-      <c r="B92" s="60">
-        <v>89</v>
-      </c>
-      <c r="C92" s="40"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
+      <c r="B92" s="16">
+        <v>86</v>
+      </c>
+      <c r="C92" s="42"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="18"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="19"/>
@@ -8027,7 +8048,7 @@
     <row r="93" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="16">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C93" s="42"/>
       <c r="D93" s="19"/>
@@ -8042,7 +8063,7 @@
     <row r="94" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="16">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C94" s="42"/>
       <c r="D94" s="19"/>
@@ -8056,13 +8077,13 @@
     </row>
     <row r="95" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
-      <c r="B95" s="16">
-        <v>92</v>
-      </c>
-      <c r="C95" s="42"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="18"/>
+      <c r="B95" s="60">
+        <v>89</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
       <c r="I95" s="19"/>
@@ -8072,7 +8093,7 @@
     <row r="96" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="16">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C96" s="42"/>
       <c r="D96" s="19"/>
@@ -8087,7 +8108,7 @@
     <row r="97" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="16">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C97" s="42"/>
       <c r="D97" s="19"/>
@@ -8102,12 +8123,12 @@
     <row r="98" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="16">
-        <v>95</v>
-      </c>
-      <c r="C98" s="40"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="C98" s="42"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="18"/>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
       <c r="I98" s="19"/>
@@ -8117,7 +8138,7 @@
     <row r="99" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="16">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C99" s="42"/>
       <c r="D99" s="19"/>
@@ -8132,7 +8153,7 @@
     <row r="100" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="16">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C100" s="42"/>
       <c r="D100" s="19"/>
@@ -8146,11 +8167,13 @@
     </row>
     <row r="101" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="18"/>
+      <c r="B101" s="16">
+        <v>95</v>
+      </c>
+      <c r="C101" s="40"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
       <c r="I101" s="19"/>
@@ -8159,7 +8182,9 @@
     </row>
     <row r="102" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
-      <c r="B102" s="16"/>
+      <c r="B102" s="16">
+        <v>96</v>
+      </c>
       <c r="C102" s="42"/>
       <c r="D102" s="19"/>
       <c r="E102" s="17"/>
@@ -8172,7 +8197,9 @@
     </row>
     <row r="103" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
-      <c r="B103" s="16"/>
+      <c r="B103" s="16">
+        <v>97</v>
+      </c>
       <c r="C103" s="42"/>
       <c r="D103" s="19"/>
       <c r="E103" s="17"/>
@@ -8193,149 +8220,147 @@
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
       <c r="I104" s="19"/>
-      <c r="J104" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="27">
-        <f>SUM(E3:E104)</f>
-        <v>195.53</v>
-      </c>
-      <c r="F105" s="28">
-        <f>SUM(F3:F104)</f>
-        <v>10563.369999999999</v>
-      </c>
-      <c r="G105" s="28">
-        <f>SUM(G3:G104)</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H105" s="28">
-        <f>SUM(H3:H104)</f>
-        <v>441.88</v>
-      </c>
-      <c r="I105" s="29">
-        <f>SUM(I3:I104)</f>
-        <v>949.21</v>
-      </c>
+      <c r="A105" s="15"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="19"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="19"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="28">
-        <f>E105+Ausgaben!F170</f>
+      <c r="A107" s="15"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="27">
+        <f>SUM(E3:E107)</f>
         <v>195.53</v>
       </c>
-      <c r="F107" s="28">
-        <f>F105+Ausgaben!G170</f>
-        <v>9012.119999999999</v>
-      </c>
-      <c r="G107" s="28">
-        <f>G105+Ausgaben!H170</f>
+      <c r="F108" s="28">
+        <f>SUM(F3:F107)</f>
+        <v>10563.369999999999</v>
+      </c>
+      <c r="G108" s="28">
+        <f>SUM(G3:G107)</f>
         <v>2000.5</v>
       </c>
-      <c r="H107" s="28">
-        <f>H105+Ausgaben!I170</f>
-        <v>278.47000000000003</v>
-      </c>
-      <c r="I107" s="29">
-        <f>I105+Ausgaben!J170</f>
+      <c r="H108" s="28">
+        <f>SUM(H3:H107)</f>
+        <v>671.88</v>
+      </c>
+      <c r="I108" s="29">
+        <f>SUM(I3:I107)</f>
         <v>949.21</v>
       </c>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="29">
-        <f>SUM(E107:I107)</f>
-        <v>12435.829999999998</v>
-      </c>
-      <c r="E109" s="17"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
     <row r="110" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
+      <c r="A110" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="28">
+        <f>E108+Ausgaben!F170</f>
+        <v>195.53</v>
+      </c>
+      <c r="F110" s="28">
+        <f>F108+Ausgaben!G170</f>
+        <v>8987.119999999999</v>
+      </c>
+      <c r="G110" s="28">
+        <f>G108+Ausgaben!H170</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H110" s="28">
+        <f>H108+Ausgaben!I170</f>
+        <v>508.47</v>
+      </c>
+      <c r="I110" s="29">
+        <f>I108+Ausgaben!J170</f>
+        <v>949.21</v>
+      </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="18"/>
+      <c r="A112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="29">
+        <f>SUM(E110:I110)</f>
+        <v>12640.829999999998</v>
+      </c>
+      <c r="E112" s="17"/>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
@@ -8344,10 +8369,10 @@
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
       <c r="E113" s="18"/>
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
@@ -8360,7 +8385,9 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E114" s="18"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
@@ -9084,676 +9111,715 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="18"/>
+      <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
+    <row r="171" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+    </row>
+    <row r="172" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="18"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+    </row>
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K173" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F12:G16 G20 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 H4:I104 G27:G29 G4:G10">
-    <cfRule type="cellIs" dxfId="342" priority="212" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 E35:G36 G38 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G29 F33:G34 F37:G37 F39:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I107 G30:G32 G4:G11">
+    <cfRule type="cellIs" dxfId="329" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="341" priority="210" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="328" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="340" priority="204" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="327" priority="204" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="326" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="cellIs" dxfId="325" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="cellIs" dxfId="324" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="cellIs" dxfId="323" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="322" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="cellIs" dxfId="321" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E18">
+    <cfRule type="cellIs" dxfId="320" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="319" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="318" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="317" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="316" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E28">
+    <cfRule type="cellIs" dxfId="315" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="314" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F30">
+    <cfRule type="cellIs" dxfId="313" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:F31">
+    <cfRule type="cellIs" dxfId="312" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="311" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="310" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="309" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="308" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="307" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="306" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="305" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="304" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="303" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="302" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="301" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="300" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="299" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="298" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="297" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="296" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="295" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="294" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:E44">
+    <cfRule type="cellIs" dxfId="293" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="292" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="291" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="290" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="289" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="288" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="287" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:E48">
+    <cfRule type="cellIs" dxfId="286" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="285" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="284" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="283" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="282" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="281" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="280" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="279" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="278" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="277" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="339" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="338" priority="183" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="275" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="337" priority="179" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="274" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="336" priority="155" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="273" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="335" priority="153" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="272" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="334" priority="148" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="271" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="333" priority="147" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="270" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="332" priority="145" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="269" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="331" priority="141" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="268" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="267" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="cellIs" dxfId="266" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="265" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="cellIs" dxfId="264" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="cellIs" dxfId="263" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="262" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72:E72">
+    <cfRule type="cellIs" dxfId="261" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="260" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="259" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="258" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="257" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="256" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="255" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="254" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76">
+    <cfRule type="cellIs" dxfId="253" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="252" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="cellIs" dxfId="251" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="250" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78">
+    <cfRule type="cellIs" dxfId="249" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="cellIs" dxfId="248" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="247" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="246" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="245" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="244" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="243" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="242" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="241" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="cellIs" dxfId="240" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="239" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
+    <cfRule type="cellIs" dxfId="238" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="237" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91">
+    <cfRule type="cellIs" dxfId="236" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93:E93">
+    <cfRule type="cellIs" dxfId="235" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:D95">
+    <cfRule type="cellIs" dxfId="234" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96">
+    <cfRule type="cellIs" dxfId="233" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="232" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="231" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:E99">
+    <cfRule type="cellIs" dxfId="230" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="229" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100">
+    <cfRule type="cellIs" dxfId="228" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101:D101">
+    <cfRule type="cellIs" dxfId="227" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="226" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D14">
+    <cfRule type="cellIs" dxfId="225" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="224" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="223" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="222" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="221" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="cellIs" dxfId="220" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="cellIs" dxfId="219" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="218" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="217" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="216" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="215" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="214" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="213" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="212" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="211" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="210" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="209" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="208" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="207" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="206" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="cellIs" dxfId="205" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="204" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="203" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="330" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="329" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="328" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="327" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="326" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="325" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="324" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="323" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="322" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="321" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="320" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="319" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="318" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="317" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="316" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="315" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="314" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="313" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="312" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="311" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="310" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="309" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="308" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="307" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="306" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="305" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="304" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="303" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="302" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="301" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="300" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="299" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="298" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="297" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="296" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="295" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="294" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="293" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="292" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="291" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="290" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="289" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="288" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="287" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="286" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="285" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="284" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="283" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="282" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="281" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="280" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="279" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="278" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="277" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="276" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="275" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="274" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="273" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="272" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="271" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="270" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="269" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="268" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="267" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="266" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="265" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="264" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="263" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="262" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="261" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="260" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="259" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="258" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="257" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="256" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="255" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="254" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="253" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="252" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="251" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="250" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="249" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="248" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="247" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="246" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="245" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="244" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="243" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="242" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="241" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="240" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="239" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="238" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="237" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="236" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="235" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="234" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="233" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="232" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="231" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="230" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="229" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="228" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="227" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="226" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="225" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="224" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="223" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="222" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="221" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="220" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="219" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="218" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="217" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="216" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="215" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="214" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="200" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D57:D61 D53 D55" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$M$1:$M$18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D52 D58 D56 D60:D64 D70 D74:D75 D86:D91 D35:D43 D45:D47" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$M$1:$M$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D27:D31 D3:D25" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$K$1:$K$19</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48 D3:D28 D30:D34 D102:D107 D96:D100 D92:D94 D76:D84 D71:D73 D69 D44" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$K$1:$K$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56 D26" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$K$1:$K$18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59 D29" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>$K$1:$K$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>$M$1:$M$19</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D68 D101 D95" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>$M$1:$M$22</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -9763,7 +9829,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="117" max="18" man="1"/>
+    <brk id="120" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -9775,9 +9841,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10587,14 +10653,22 @@
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>44319</v>
+      </c>
       <c r="C31" s="60">
         <v>29</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="41"/>
+      <c r="D31" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21">
+        <v>-25</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="22"/>
@@ -38924,7 +38998,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1551.2499999999995</v>
+        <v>-1576.2499999999995</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40857,996 +40931,996 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="213" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="212" priority="397" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="398" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="211" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="360" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="210" priority="318" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="319" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="209" priority="315" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="316" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="208" priority="297" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="298" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="207" priority="291" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="205" priority="289" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="204" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="289" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="203" priority="275" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="201" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="200" priority="271" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="199" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="271" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="198" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="197" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="196" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="195" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="194" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="193" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="192" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="191" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="190" priority="202" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="189" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="188" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="187" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="186" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="185" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="184" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="183" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="182" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="181" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="180" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="179" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="178" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="177" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="176" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="175" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="174" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="173" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="172" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="171" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="170" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="169" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="168" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="167" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="166" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="165" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="164" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="163" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="162" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="161" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="160" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="159" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="158" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="157" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="156" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="155" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="154" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="153" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="152" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="151" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="150" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="149" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="148" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="147" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="146" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="145" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="144" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="143" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="142" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="141" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="140" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="139" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="138" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="137" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="136" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="135" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="134" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="133" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="132" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="131" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="130" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="129" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="128" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="127" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="126" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="125" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="124" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="123" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="122" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="121" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="120" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="119" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="118" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="117" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="116" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="113" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="110" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="100" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="99" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="98" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="97" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="96" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="95" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="94" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="93" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="92" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="91" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="83" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="82" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="81" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="80" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="79" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="78" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="77" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="76" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="75" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="74" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="73" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="72" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="71" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="70" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="69" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="68" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="67" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="66" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="65" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="64" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="63" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="62" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="61" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="60" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="58" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="56" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="54" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="52" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="50" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="46" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="32" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="30" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="107" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="106" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="105" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="103" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="92" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="89" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="88" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="87" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="86" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="85" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="84" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="82" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="81" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="77" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="76" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="60" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="58" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="57" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="56" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="53" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -41858,13 +41932,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56 E50:E51 E45:E46 E31:E32" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56 E50:E51 E45:E46 E32" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E30" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093D0B9-EB23-4381-904A-5F84CE9C74DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF40E72-B838-41D4-B850-E084350F018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="98">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -304,6 +304,30 @@
   </si>
   <si>
     <t>Trauerkarte H.Weinholzner</t>
+  </si>
+  <si>
+    <t>Telekom Mai</t>
+  </si>
+  <si>
+    <t>Zinsen Darlehen</t>
+  </si>
+  <si>
+    <t>80er J.Kauschke</t>
+  </si>
+  <si>
+    <t>Roland Fussabstr</t>
+  </si>
+  <si>
+    <t>Trauerkarte H.Moosmann</t>
+  </si>
+  <si>
+    <t>1.6.</t>
+  </si>
+  <si>
+    <t>Miete Mai</t>
+  </si>
+  <si>
+    <t>Spende anonym</t>
   </si>
 </sst>
 </file>
@@ -1007,11 +1031,102 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="336">
+  <dxfs count="331">
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2638,122 +2753,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -5087,7 +5086,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B19:G29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5175,17 +5174,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="332">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="331">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="330">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5202,7 +5201,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5286,17 +5285,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="335">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="334">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="333">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6423,8 +6422,8 @@
   <dimension ref="A1:IK173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7013,14 +7012,22 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="15">
+        <v>44335</v>
+      </c>
       <c r="B24" s="60">
         <v>18</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>25</v>
+      </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18">
+        <v>187.5</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
@@ -7028,14 +7035,22 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="15">
+        <v>44342</v>
+      </c>
       <c r="B25" s="60">
         <v>19</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>25</v>
+      </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>27.5</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="19"/>
@@ -7043,12 +7058,18 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="15">
+        <v>44377</v>
+      </c>
       <c r="B26" s="16">
         <v>20</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -8277,7 +8298,7 @@
       </c>
       <c r="F108" s="28">
         <f>SUM(F3:F107)</f>
-        <v>10563.369999999999</v>
+        <v>10778.369999999999</v>
       </c>
       <c r="G108" s="28">
         <f>SUM(G3:G107)</f>
@@ -8320,7 +8341,7 @@
       </c>
       <c r="F110" s="28">
         <f>F108+Ausgaben!G170</f>
-        <v>8987.119999999999</v>
+        <v>8732.1099999999988</v>
       </c>
       <c r="G110" s="28">
         <f>G108+Ausgaben!H170</f>
@@ -8358,7 +8379,7 @@
       <c r="C112" s="24"/>
       <c r="D112" s="29">
         <f>SUM(E110:I110)</f>
-        <v>12640.829999999998</v>
+        <v>12385.82</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="18"/>
@@ -9158,652 +9179,657 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 E35:G36 G38 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G29 F33:G34 F37:G37 F39:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I107 G30:G32 G4:G11">
+  <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 E35:G36 G38 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G24 F33:G34 F37:G37 F39:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I107 G30:G32 G4:G11 F26:G29 G25">
+    <cfRule type="cellIs" dxfId="330" priority="214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="cellIs" dxfId="329" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="328" priority="210" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="327" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="326" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="325" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="324" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
+    <cfRule type="cellIs" dxfId="324" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" dxfId="323" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="322" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="321" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
+    <cfRule type="cellIs" dxfId="321" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="320" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="319" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="318" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="317" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="317" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E28">
     <cfRule type="cellIs" dxfId="316" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" dxfId="315" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="314" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="313" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="312" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="311" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="310" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="309" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="308" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="307" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="306" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="305" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="304" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="303" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="302" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="301" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="300" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="299" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="298" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="297" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="296" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="295" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="294" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="293" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="292" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="291" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="290" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="289" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="288" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="287" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:E48">
-    <cfRule type="cellIs" dxfId="286" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="285" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="284" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="283" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="282" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="281" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="280" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="279" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="278" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="277" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="276" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="275" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="274" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="273" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="272" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="271" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="270" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="269" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="268" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="267" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="266" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="265" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="264" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="263" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="262" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72">
-    <cfRule type="cellIs" dxfId="261" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="260" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="259" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="258" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="257" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="256" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="255" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="255" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76">
     <cfRule type="cellIs" dxfId="254" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="253" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="252" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="251" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="250" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="249" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="248" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="247" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="246" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="245" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="244" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="243" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="242" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="241" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="240" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="239" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="238" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="237" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="236" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:E93">
-    <cfRule type="cellIs" dxfId="235" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:D95">
-    <cfRule type="cellIs" dxfId="234" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="233" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="232" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="231" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:E99">
-    <cfRule type="cellIs" dxfId="230" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="229" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="228" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:D101">
-    <cfRule type="cellIs" dxfId="227" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="226" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="225" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="225" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="cellIs" dxfId="224" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="223" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="222" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="221" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="220" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
+    <cfRule type="cellIs" dxfId="220" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
     <cfRule type="cellIs" dxfId="219" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="218" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
+  <conditionalFormatting sqref="D30">
     <cfRule type="cellIs" dxfId="217" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="216" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="215" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="214" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="213" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="212" priority="15" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="212" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="211" priority="14" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="211" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D7">
     <cfRule type="cellIs" dxfId="210" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="D8">
     <cfRule type="cellIs" dxfId="209" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="D9">
     <cfRule type="cellIs" dxfId="208" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="D10:D11">
     <cfRule type="cellIs" dxfId="207" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="206" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="205" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="205" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="204" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="204" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="D20:E20">
     <cfRule type="cellIs" dxfId="203" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="202" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
+  <conditionalFormatting sqref="F25">
     <cfRule type="cellIs" dxfId="201" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D25:E25">
     <cfRule type="cellIs" dxfId="200" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9812,7 +9838,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D52 D58 D56 D60:D64 D70 D74:D75 D86:D91 D35:D43 D45:D47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$M$1:$M$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48 D3:D28 D30:D34 D102:D107 D96:D100 D92:D94 D76:D84 D71:D73 D69 D44" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48 D44 D30:D34 D102:D107 D96:D100 D92:D94 D76:D84 D71:D73 D69 D3:D28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$22</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59 D29" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -9842,8 +9868,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10678,14 +10704,22 @@
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15">
+        <v>44320</v>
+      </c>
       <c r="C32" s="60">
         <v>30</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="21">
+        <v>-150</v>
+      </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="22"/>
@@ -10695,14 +10729,22 @@
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="15">
+        <v>44320</v>
+      </c>
       <c r="C33" s="60">
         <v>31</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="41"/>
+      <c r="D33" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="21">
+        <v>-34</v>
+      </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="22"/>
@@ -10712,14 +10754,22 @@
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="15">
+        <v>44320</v>
+      </c>
       <c r="C34" s="60">
         <v>32</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="21"/>
+      <c r="D34" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21">
+        <v>-12</v>
+      </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="22"/>
@@ -10729,14 +10779,22 @@
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15">
+        <v>44335</v>
+      </c>
       <c r="C35" s="60">
         <v>33</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="23"/>
+      <c r="D35" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="21">
+        <v>-18.059999999999999</v>
+      </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="22"/>
@@ -10746,14 +10804,22 @@
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="15">
+        <v>44341</v>
+      </c>
       <c r="C36" s="60">
         <v>34</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
+      <c r="D36" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="G36" s="21">
+        <v>-25</v>
+      </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="22"/>
@@ -10763,14 +10829,22 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="15">
+        <v>44347</v>
+      </c>
       <c r="C37" s="16">
         <v>35</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="41"/>
+      <c r="D37" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F37" s="17"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="21">
+        <v>-9.9499999999999993</v>
+      </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="22"/>
@@ -10780,14 +10854,22 @@
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="C38" s="16">
         <v>36</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="21"/>
+      <c r="D38" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21">
+        <v>-25</v>
+      </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="22"/>
@@ -10797,14 +10879,22 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="C39" s="16">
         <v>37</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="21"/>
+      <c r="D39" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21">
+        <v>-12</v>
+      </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="22"/>
@@ -10818,10 +10908,16 @@
       <c r="C40" s="60">
         <v>38</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="21"/>
+      <c r="D40" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21">
+        <v>-34</v>
+      </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="22"/>
@@ -10835,10 +10931,16 @@
       <c r="C41" s="60">
         <v>39</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="21"/>
+      <c r="D41" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21">
+        <v>-150</v>
+      </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="22"/>
@@ -38998,7 +39100,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1576.2499999999995</v>
+        <v>-2046.2599999999995</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40931,1014 +41033,989 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="199" priority="408" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="417" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="198" priority="398" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="197" priority="360" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="369" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="196" priority="319" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="328" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="195" priority="316" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="325" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="194" priority="298" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="307" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="193" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="301" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="192" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="299" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="191" priority="289" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="298" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="190" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="189" priority="274" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="189" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="188" priority="272" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="188" priority="253" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="187" priority="252" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="186" priority="251" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="185" priority="228" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="184" priority="225" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="183" priority="215" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="182" priority="214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="181" priority="212" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="180" priority="211" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="179" priority="210" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="178" priority="209" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="177" priority="208" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="176" priority="207" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="175" priority="206" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="174" priority="205" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="173" priority="203" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="172" priority="202" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="171" priority="201" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="170" priority="200" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="169" priority="199" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="168" priority="198" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="167" priority="197" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="166" priority="196" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="165" priority="195" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="164" priority="194" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="163" priority="193" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="162" priority="192" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="161" priority="191" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="160" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="159" priority="189" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="158" priority="188" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="157" priority="187" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="156" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="155" priority="185" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="154" priority="184" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="153" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="152" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="151" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="150" priority="180" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="149" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="148" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="147" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="146" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="145" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="144" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="143" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="142" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="141" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="140" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="139" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="138" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="137" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="136" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="135" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="134" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="133" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="132" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="131" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="130" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="129" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="128" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="127" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="126" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="125" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="124" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="123" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="122" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="121" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="120" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="119" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="118" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="117" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="116" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="115" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="114" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="113" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="112" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="111" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="110" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="109" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="108" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="107" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="106" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="84" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="83" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="82" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="78" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="75" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="43" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="40" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="39" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="37" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="187" priority="271" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="186" priority="245" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="185" priority="244" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="184" priority="243" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="183" priority="242" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="182" priority="219" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="181" priority="216" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="180" priority="206" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="179" priority="205" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="178" priority="203" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="177" priority="202" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="176" priority="201" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="175" priority="200" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="174" priority="199" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="173" priority="198" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="172" priority="197" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="171" priority="196" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="170" priority="194" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="169" priority="193" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="168" priority="192" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="167" priority="191" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="166" priority="190" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="165" priority="189" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="164" priority="188" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="163" priority="187" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="162" priority="186" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="161" priority="185" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="160" priority="184" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="159" priority="183" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="158" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="157" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="156" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="155" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="154" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="153" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="152" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="151" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="150" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="149" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="148" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="147" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="146" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="145" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="144" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="143" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="142" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="141" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="140" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="139" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="138" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="137" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="136" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="135" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="134" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="133" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="132" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="131" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="130" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="129" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="128" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="127" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="126" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="125" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="124" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="123" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="122" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="121" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="120" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="119" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="118" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="117" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="116" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="115" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="114" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="113" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="112" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="111" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="110" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="109" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="108" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="107" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="106" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="105" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="104" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="103" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="102" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="100" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="99" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="98" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="97" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="96" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="95" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="94" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="93" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="92" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="91" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="83" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="82" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="81" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="80" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="79" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="78" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="77" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="76" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="75" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="74" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="73" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="72" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="71" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="70" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="69" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="68" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="67" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="66" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="65" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="64" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="63" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="62" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="61" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="60" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="58" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="56" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="54" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="52" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="50" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="46" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="32" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="30" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E33:E44 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E23:E24" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E23:E24 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E37 E42:E44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56 E50:E51 E45:E46 E32" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56 E50:E51 E45:E46" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26 E32:E33 E40:E41" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E31 E34:E36 E38:E39" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF40E72-B838-41D4-B850-E084350F018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8111A3-3387-4E3C-BD91-F5CBF4040390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="102">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -321,13 +321,25 @@
     <t>Trauerkarte H.Moosmann</t>
   </si>
   <si>
-    <t>1.6.</t>
-  </si>
-  <si>
     <t>Miete Mai</t>
   </si>
   <si>
     <t>Spende anonym</t>
+  </si>
+  <si>
+    <t>Telekom Juni</t>
+  </si>
+  <si>
+    <t>Traueranzeige nussbaum</t>
+  </si>
+  <si>
+    <t>Awo Bundesverband</t>
+  </si>
+  <si>
+    <t>Roland Ceska Irion</t>
+  </si>
+  <si>
+    <t>Roland Auslagen Beerdigung</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1043,62 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="331">
+  <dxfs count="342">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -5086,7 +5153,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B19:G29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5174,17 +5241,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="13">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5201,7 +5268,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5285,17 +5352,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="16">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6422,8 +6489,8 @@
   <dimension ref="A1:IK173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7065,12 +7132,14 @@
         <v>20</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="17">
+        <v>10</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -8294,7 +8363,7 @@
       <c r="D108" s="26"/>
       <c r="E108" s="27">
         <f>SUM(E3:E107)</f>
-        <v>195.53</v>
+        <v>205.53</v>
       </c>
       <c r="F108" s="28">
         <f>SUM(F3:F107)</f>
@@ -8337,11 +8406,11 @@
       <c r="D110" s="52"/>
       <c r="E110" s="28">
         <f>E108+Ausgaben!F170</f>
-        <v>195.53</v>
+        <v>205.53</v>
       </c>
       <c r="F110" s="28">
         <f>F108+Ausgaben!G170</f>
-        <v>8732.1099999999988</v>
+        <v>8059.5199999999986</v>
       </c>
       <c r="G110" s="28">
         <f>G108+Ausgaben!H170</f>
@@ -8379,7 +8448,7 @@
       <c r="C112" s="24"/>
       <c r="D112" s="29">
         <f>SUM(E110:I110)</f>
-        <v>12385.82</v>
+        <v>11723.23</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="18"/>
@@ -9180,657 +9249,657 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 E35:G36 G38 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G24 F33:G34 F37:G37 F39:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I107 G30:G32 G4:G11 F26:G29 G25">
-    <cfRule type="cellIs" dxfId="330" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="329" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="328" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="327" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="326" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="325" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="324" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="323" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="322" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="321" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="320" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="319" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="318" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="317" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" dxfId="316" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="315" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="314" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="313" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="312" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="311" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="310" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="309" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="308" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="307" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="306" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="305" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="304" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="303" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="302" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="301" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="300" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="299" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="298" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="297" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="296" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="295" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="294" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="293" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="292" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="291" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="290" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="289" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="288" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:E48">
-    <cfRule type="cellIs" dxfId="287" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="286" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="285" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="284" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="283" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="282" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="281" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="280" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="279" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="278" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="277" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="276" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="275" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="274" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="273" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="272" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="271" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="270" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="269" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="268" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="267" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="266" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="265" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="264" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="263" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72">
-    <cfRule type="cellIs" dxfId="262" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="261" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="260" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="259" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="258" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="257" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="256" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="255" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="254" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="253" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="252" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="251" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="250" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="249" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="248" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="247" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="246" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="245" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="244" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="243" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="242" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="241" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="240" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="239" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="238" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="237" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:E93">
-    <cfRule type="cellIs" dxfId="236" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:D95">
-    <cfRule type="cellIs" dxfId="235" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="234" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="233" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="232" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:E99">
-    <cfRule type="cellIs" dxfId="231" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="230" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="229" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:D101">
-    <cfRule type="cellIs" dxfId="228" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="227" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="226" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="225" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="224" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="223" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="222" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="221" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="220" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="219" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="218" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="217" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="216" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="215" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="214" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="213" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="212" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="211" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="210" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="209" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="208" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="207" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="206" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="205" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="204" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="203" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="202" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="201" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="200" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9868,8 +9937,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10854,8 +10923,8 @@
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
-      <c r="B38" s="15" t="s">
-        <v>95</v>
+      <c r="B38" s="15">
+        <v>44348</v>
       </c>
       <c r="C38" s="16">
         <v>36</v>
@@ -10879,14 +10948,14 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47"/>
-      <c r="B39" s="15" t="s">
-        <v>95</v>
+      <c r="B39" s="15">
+        <v>44348</v>
       </c>
       <c r="C39" s="16">
         <v>37</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>21</v>
@@ -10904,7 +10973,9 @@
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="15">
+        <v>44349</v>
+      </c>
       <c r="C40" s="60">
         <v>38</v>
       </c>
@@ -10927,7 +10998,9 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="15">
+        <v>44349</v>
+      </c>
       <c r="C41" s="60">
         <v>39</v>
       </c>
@@ -10950,14 +11023,22 @@
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="15">
+        <v>44365</v>
+      </c>
       <c r="C42" s="61">
         <v>40</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="41"/>
+      <c r="D42" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
+      <c r="G42" s="21">
+        <v>-18.059999999999999</v>
+      </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="22"/>
@@ -10967,14 +11048,22 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="15">
+        <v>44372</v>
+      </c>
       <c r="C43" s="60">
         <v>41</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="41"/>
+      <c r="D43" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F43" s="17"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="21">
+        <v>-167.55</v>
+      </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="22"/>
@@ -10984,14 +11073,22 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="15">
+        <v>44377</v>
+      </c>
       <c r="C44" s="60">
         <v>42</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
+      <c r="D44" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F44" s="17"/>
-      <c r="G44" s="21"/>
+      <c r="G44" s="21">
+        <v>-63.9</v>
+      </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="22"/>
@@ -11001,14 +11098,22 @@
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="15">
+        <v>44378</v>
+      </c>
       <c r="C45" s="60">
         <v>43</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="41"/>
+      <c r="D45" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="G45" s="21">
+        <v>-12</v>
+      </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
@@ -11018,14 +11123,22 @@
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="47"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="15">
+        <v>44379</v>
+      </c>
       <c r="C46" s="16">
         <v>44</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="41"/>
+      <c r="D46" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
+      <c r="G46" s="21">
+        <v>-34</v>
+      </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="22"/>
@@ -11035,14 +11148,22 @@
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="15">
+        <v>44379</v>
+      </c>
       <c r="C47" s="60">
         <v>45</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="56"/>
+      <c r="D47" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>-150</v>
+      </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="22"/>
@@ -11052,14 +11173,22 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="15">
+        <v>44379</v>
+      </c>
       <c r="C48" s="60">
         <v>46</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="D48" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="21">
+        <v>-33.53</v>
+      </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="22"/>
@@ -11069,14 +11198,22 @@
     </row>
     <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="15">
+        <v>44383</v>
+      </c>
       <c r="C49" s="61">
         <v>47</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="41"/>
+      <c r="D49" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="G49" s="21">
+        <v>-8</v>
+      </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="22"/>
@@ -11086,14 +11223,22 @@
     </row>
     <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="15">
+        <v>44384</v>
+      </c>
       <c r="C50" s="60">
         <v>48</v>
       </c>
-      <c r="D50" s="55"/>
-      <c r="E50" s="41"/>
+      <c r="D50" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
+      <c r="G50" s="21">
+        <v>-150</v>
+      </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
@@ -11103,14 +11248,22 @@
     </row>
     <row r="51" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="47"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="15">
+        <v>44392</v>
+      </c>
       <c r="C51" s="60">
         <v>49</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="41"/>
+      <c r="D51" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="G51" s="21">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
@@ -11120,14 +11273,22 @@
     </row>
     <row r="52" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="47"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="15">
+        <v>44393</v>
+      </c>
       <c r="C52" s="60">
         <v>50</v>
       </c>
-      <c r="D52" s="55"/>
-      <c r="E52" s="56"/>
+      <c r="D52" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="G52" s="21">
+        <v>-18.059999999999999</v>
+      </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="22"/>
@@ -39100,7 +39261,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-2046.2599999999995</v>
+        <v>-2718.85</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41033,989 +41194,994 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="199" priority="417" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="198" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="197" priority="369" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="196" priority="328" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="339" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="195" priority="325" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="194" priority="307" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="318" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="193" priority="301" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="312" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="192" priority="299" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="310" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="191" priority="298" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="309" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="190" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="296" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="189" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="188" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="187" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="186" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="185" priority="228" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="184" priority="225" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="183" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="182" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="225" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="181" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="180" priority="211" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="179" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="178" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="177" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="176" priority="207" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="175" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="174" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="184" priority="214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="183" priority="213" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="182" priority="212" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="181" priority="211" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="180" priority="210" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="179" priority="209" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="178" priority="208" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="177" priority="207" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="176" priority="206" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="175" priority="205" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="174" priority="204" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
     <cfRule type="cellIs" dxfId="173" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
+  <conditionalFormatting sqref="E124">
     <cfRule type="cellIs" dxfId="172" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
+  <conditionalFormatting sqref="E125">
     <cfRule type="cellIs" dxfId="171" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
+  <conditionalFormatting sqref="B124">
     <cfRule type="cellIs" dxfId="170" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
+  <conditionalFormatting sqref="B125">
     <cfRule type="cellIs" dxfId="169" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
+  <conditionalFormatting sqref="B126">
     <cfRule type="cellIs" dxfId="168" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+  <conditionalFormatting sqref="E127">
     <cfRule type="cellIs" dxfId="167" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
+  <conditionalFormatting sqref="B128:D128">
     <cfRule type="cellIs" dxfId="166" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
+  <conditionalFormatting sqref="E128">
     <cfRule type="cellIs" dxfId="165" priority="195" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
+  <conditionalFormatting sqref="E129">
     <cfRule type="cellIs" dxfId="164" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
+  <conditionalFormatting sqref="E130">
     <cfRule type="cellIs" dxfId="163" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+  <conditionalFormatting sqref="B130">
     <cfRule type="cellIs" dxfId="162" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
+  <conditionalFormatting sqref="C131">
     <cfRule type="cellIs" dxfId="161" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
+  <conditionalFormatting sqref="E133">
     <cfRule type="cellIs" dxfId="160" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
+  <conditionalFormatting sqref="E134">
     <cfRule type="cellIs" dxfId="159" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="B134:C134">
     <cfRule type="cellIs" dxfId="158" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
+  <conditionalFormatting sqref="E135">
     <cfRule type="cellIs" dxfId="157" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
+  <conditionalFormatting sqref="B135">
     <cfRule type="cellIs" dxfId="156" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
+  <conditionalFormatting sqref="E136">
     <cfRule type="cellIs" dxfId="155" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
+  <conditionalFormatting sqref="E137">
     <cfRule type="cellIs" dxfId="154" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
+  <conditionalFormatting sqref="B136">
     <cfRule type="cellIs" dxfId="153" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="152" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="151" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="150" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="149" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="148" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="147" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="146" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="145" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="144" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="143" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="142" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="141" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="140" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="139" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="138" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="137" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="136" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="135" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="134" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="133" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="132" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="131" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="130" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="129" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="128" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="127" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="126" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="125" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="124" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="123" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="122" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="121" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="120" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="119" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="118" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="117" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="116" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="115" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="114" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="113" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="112" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="111" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="110" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="109" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="108" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="107" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="106" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="115" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="113" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="112" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="85" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="84" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="82" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="81" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="77" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="76" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="84" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="83" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="82" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="78" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="75" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="43" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="40" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="39" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="37" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E52:E54 E47:E49 E23:E24 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E37 E42:E44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E48 E44 E23:E24 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E37 E53:E54" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56 E50:E51 E45:E46" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26 E32:E33 E40:E41" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26 E32:E33 E40:E41 E46:E47" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E31 E34:E36 E38:E39" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E31 E34:E36 E38:E39 E42:E43 E45 E49:E52" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8111A3-3387-4E3C-BD91-F5CBF4040390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D87CC1-7362-4589-A7C1-A58467D51972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="109">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -340,6 +340,27 @@
   </si>
   <si>
     <t>Roland Auslagen Beerdigung</t>
+  </si>
+  <si>
+    <t>Spende Kappeler Hochwasser</t>
+  </si>
+  <si>
+    <t>Awo Bund Rueckverteilung</t>
+  </si>
+  <si>
+    <t>Trauerfeier Irion, Anteil Kreis</t>
+  </si>
+  <si>
+    <t>Spende Fr.Irion</t>
+  </si>
+  <si>
+    <t>W.Schwarz Ausgaben Mitglbrief</t>
+  </si>
+  <si>
+    <t>Telekom Juli</t>
+  </si>
+  <si>
+    <t>Telekom Aug</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1064,52 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="342">
+  <dxfs count="352">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1194,6 +1260,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5241,17 +5312,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="13">
+    <format dxfId="22">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5352,17 +5423,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="16">
+    <format dxfId="25">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6488,9 +6559,9 @@
   </sheetPr>
   <dimension ref="A1:IK173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7148,14 +7219,22 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="15">
+        <v>44398</v>
+      </c>
       <c r="B27" s="16">
         <v>21</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>27</v>
+      </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
+      <c r="F27" s="18">
+        <v>1435.5</v>
+      </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
@@ -7163,14 +7242,22 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="15">
+        <v>44398</v>
+      </c>
       <c r="B28" s="60">
         <v>22</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="F28" s="18">
+        <v>158.78</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
@@ -7178,14 +7265,22 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="15">
+        <v>44403</v>
+      </c>
       <c r="B29" s="60">
         <v>23</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="63"/>
+      <c r="C29" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="F29" s="18">
+        <v>150</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="19"/>
@@ -7193,16 +7288,24 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="15">
+        <v>44406</v>
+      </c>
       <c r="B30" s="16">
         <v>24</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>13</v>
+      </c>
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="H30" s="18">
+        <v>100</v>
+      </c>
       <c r="I30" s="19"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -8367,7 +8470,7 @@
       </c>
       <c r="F108" s="28">
         <f>SUM(F3:F107)</f>
-        <v>10778.369999999999</v>
+        <v>12522.65</v>
       </c>
       <c r="G108" s="28">
         <f>SUM(G3:G107)</f>
@@ -8375,7 +8478,7 @@
       </c>
       <c r="H108" s="28">
         <f>SUM(H3:H107)</f>
-        <v>671.88</v>
+        <v>771.88</v>
       </c>
       <c r="I108" s="29">
         <f>SUM(I3:I107)</f>
@@ -8410,7 +8513,7 @@
       </c>
       <c r="F110" s="28">
         <f>F108+Ausgaben!G170</f>
-        <v>8059.5199999999986</v>
+        <v>9556.4</v>
       </c>
       <c r="G110" s="28">
         <f>G108+Ausgaben!H170</f>
@@ -8418,7 +8521,7 @@
       </c>
       <c r="H110" s="28">
         <f>H108+Ausgaben!I170</f>
-        <v>508.47</v>
+        <v>608.47</v>
       </c>
       <c r="I110" s="29">
         <f>I108+Ausgaben!J170</f>
@@ -8448,7 +8551,7 @@
       <c r="C112" s="24"/>
       <c r="D112" s="29">
         <f>SUM(E110:I110)</f>
-        <v>11723.23</v>
+        <v>13320.11</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="18"/>
@@ -9248,658 +9351,668 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 E35:G36 G38 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G24 F33:G34 F37:G37 F39:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I107 G30:G32 G4:G11 F26:G29 G25">
-    <cfRule type="cellIs" dxfId="341" priority="214" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 E35:G36 G38 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G24 F33:G34 F37:G37 F39:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I29 G31:G32 G4:G11 F26:G29 G25 H31:I107 I30">
+    <cfRule type="cellIs" dxfId="351" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="340" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="350" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="339" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="349" priority="211" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="338" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="348" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="337" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="347" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="336" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="346" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="335" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="345" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="334" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="344" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="333" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="332" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="331" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="330" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="329" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="328" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" dxfId="327" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="326" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:F31">
+    <cfRule type="cellIs" dxfId="334" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="333" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="332" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="331" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="330" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="329" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="328" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="327" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="326" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="325" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="324" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="323" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="322" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="321" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="320" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="319" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="318" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="317" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="316" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:E44">
+    <cfRule type="cellIs" dxfId="315" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="314" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="313" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="312" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="311" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="310" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="309" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:E48">
+    <cfRule type="cellIs" dxfId="308" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="307" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="306" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="305" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="304" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="303" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="302" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="301" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="300" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="299" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="298" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="297" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="296" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="295" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="294" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="293" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="292" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="291" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="290" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="289" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="cellIs" dxfId="288" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="287" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="cellIs" dxfId="286" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="cellIs" dxfId="285" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="284" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72:E72">
+    <cfRule type="cellIs" dxfId="283" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="282" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="281" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="280" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="279" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="278" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="277" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="276" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76">
+    <cfRule type="cellIs" dxfId="275" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="274" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="cellIs" dxfId="273" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="272" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78">
+    <cfRule type="cellIs" dxfId="271" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="cellIs" dxfId="270" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="269" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="268" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="267" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="266" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="265" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="264" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="263" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="cellIs" dxfId="262" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="261" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
+    <cfRule type="cellIs" dxfId="260" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="259" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91">
+    <cfRule type="cellIs" dxfId="258" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93:E93">
+    <cfRule type="cellIs" dxfId="257" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:D95">
+    <cfRule type="cellIs" dxfId="256" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96">
+    <cfRule type="cellIs" dxfId="255" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="254" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="253" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:E99">
+    <cfRule type="cellIs" dxfId="252" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="251" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100">
+    <cfRule type="cellIs" dxfId="250" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101:D101">
+    <cfRule type="cellIs" dxfId="249" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="248" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D14">
+    <cfRule type="cellIs" dxfId="247" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="246" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="245" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="244" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="243" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="cellIs" dxfId="242" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="cellIs" dxfId="241" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="240" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="239" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="237" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="236" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="235" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="234" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="233" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="232" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="231" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="230" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="229" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="cellIs" dxfId="228" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="227" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="226" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="225" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="224" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="223" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="222" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="221" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:H30">
+    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="325" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="324" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="323" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="322" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="321" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="320" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="319" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="318" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="317" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="316" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="315" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="314" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="313" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="312" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="311" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="310" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="309" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="308" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="307" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="306" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="305" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="304" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="303" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="302" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="301" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="300" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="299" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:E48">
-    <cfRule type="cellIs" dxfId="298" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="297" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="296" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="295" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="294" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="293" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="292" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="291" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="290" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="289" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="288" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="287" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="286" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="285" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="284" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="283" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="282" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="281" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="280" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="279" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="278" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="277" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="276" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="275" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="274" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72:E72">
-    <cfRule type="cellIs" dxfId="273" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="272" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="271" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="270" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="269" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="268" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="267" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="266" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="265" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="264" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="263" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="262" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="261" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="260" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="259" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="258" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="257" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="256" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="255" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="254" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="253" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="252" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="251" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="250" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="249" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="248" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93:E93">
-    <cfRule type="cellIs" dxfId="247" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:D95">
-    <cfRule type="cellIs" dxfId="246" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="245" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="244" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="243" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:E99">
-    <cfRule type="cellIs" dxfId="242" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="241" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="240" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101:D101">
-    <cfRule type="cellIs" dxfId="239" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="238" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="237" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="236" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="235" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="234" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="233" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="232" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="231" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="230" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="229" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="228" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="227" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="226" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="225" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="224" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="223" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="222" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="221" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="220" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="219" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="218" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="217" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="216" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="215" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="214" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="213" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="212" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="211" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9907,10 +10020,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D52 D58 D56 D60:D64 D70 D74:D75 D86:D91 D35:D43 D45:D47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$M$1:$M$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48 D44 D30:D34 D102:D107 D96:D100 D92:D94 D76:D84 D71:D73 D69 D3:D28" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48 D44 D102:D107 D96:D100 D92:D94 D76:D84 D71:D73 D69 D3:D34" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59 D29" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$K$1:$K$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D68 D101 D95" xr:uid="{00000000-0002-0000-0000-000003000000}">
@@ -9936,9 +10049,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10050,7 +10163,7 @@
       <c r="D4" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="20"/>
@@ -11280,7 +11393,7 @@
         <v>50</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E52" s="56" t="s">
         <v>22</v>
@@ -11298,14 +11411,22 @@
     </row>
     <row r="53" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="15">
+        <v>44410</v>
+      </c>
       <c r="C53" s="60">
         <v>51</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="21">
+        <v>-12</v>
+      </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
@@ -11315,14 +11436,22 @@
     </row>
     <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47"/>
-      <c r="B54" s="43"/>
+      <c r="B54" s="43">
+        <v>44411</v>
+      </c>
       <c r="C54" s="60">
         <v>52</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="41"/>
+      <c r="D54" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
+      <c r="G54" s="21">
+        <v>-34</v>
+      </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="22"/>
@@ -11566,14 +11695,22 @@
     </row>
     <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="43">
+        <v>44411</v>
+      </c>
       <c r="C55" s="60">
         <v>53</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="41"/>
+      <c r="D55" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
+      <c r="G55" s="21">
+        <v>-150</v>
+      </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="22"/>
@@ -11583,14 +11720,22 @@
     </row>
     <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="15">
+        <v>44412</v>
+      </c>
       <c r="C56" s="60">
         <v>54</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="41"/>
+      <c r="D56" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="56" t="s">
+        <v>15</v>
+      </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="21">
+        <v>-33.340000000000003</v>
+      </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="22"/>
@@ -11600,14 +11745,22 @@
     </row>
     <row r="57" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="15">
+        <v>44426</v>
+      </c>
       <c r="C57" s="60">
         <v>55</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="56"/>
+      <c r="D57" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>-18.059999999999999</v>
+      </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="22"/>
@@ -39261,7 +39414,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-2718.85</v>
+        <v>-2966.25</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41194,994 +41347,994 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="210" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="209" priority="418" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="427" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="208" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="389" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="207" priority="339" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="348" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="206" priority="336" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="345" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="205" priority="318" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="327" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="204" priority="312" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="321" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="203" priority="310" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="319" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="202" priority="309" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="318" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="201" priority="296" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="200" priority="265" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="199" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="198" priority="263" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="197" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="271" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="196" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="195" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="194" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="193" priority="225" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="192" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="191" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="231" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="190" priority="221" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="189" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="229" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="188" priority="219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="228" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="187" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="227" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="186" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="185" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="225" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="184" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="183" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="182" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="181" priority="211" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="180" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="179" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="178" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="177" priority="207" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="176" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="175" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="174" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="173" priority="203" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="172" priority="202" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="211" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="171" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="170" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="209" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="169" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="168" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="207" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="167" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="166" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="165" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="164" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="163" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="162" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="161" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="160" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="159" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="158" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="157" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="156" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="195" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="155" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="154" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="153" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="152" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="151" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="150" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="149" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="148" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="147" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="146" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="145" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="144" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="143" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="142" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="141" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="140" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="139" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="138" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="137" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="136" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="135" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="134" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="133" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="132" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="131" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="130" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="129" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="128" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="127" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="126" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="125" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="124" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="123" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="122" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="121" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="120" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="119" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="118" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="117" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="115" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="113" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="112" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="118" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="117" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="116" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="115" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="114" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="113" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="112" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="111" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="110" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="109" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="108" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="107" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="106" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="105" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="104" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="103" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="102" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="101" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="100" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="99" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="98" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="97" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="96" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="95" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="94" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="93" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="92" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="91" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="90" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="89" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="88" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="87" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="86" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="85" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="84" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="83" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="82" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="81" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="80" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="79" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="78" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="77" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="76" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="75" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="74" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="73" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="72" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="70" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="69" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="68" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="67" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="66" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="65" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="64" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="63" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="62" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="61" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="60" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="59" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="58" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="57" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="56" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="55" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="54" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="53" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="52" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="50" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="49" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="48" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="47" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="46" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="45" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="44" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="43" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="42" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="41" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="40" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="39" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="38" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="36" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="35" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="34" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="31" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="85" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="84" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="82" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="81" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="77" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="76" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E57:E68 E48 E44 E23:E24 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E37 E53:E54" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E37 E48 E44 E23:E24 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E58:E68" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70 E55:E56" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26 E32:E33 E40:E41 E46:E47" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26 E32:E33 E40:E41 E46:E47 E54:E55" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E31 E34:E36 E38:E39 E42:E43 E45 E49:E52" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E31 E34:E36 E38:E39 E42:E43 E45 E49:E53 E56:E57" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D87CC1-7362-4589-A7C1-A58467D51972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB80B1EC-ACB7-4E7A-BA03-E4A682011B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -361,6 +361,54 @@
   </si>
   <si>
     <t>Telekom Aug</t>
+  </si>
+  <si>
+    <t>Roland Briefm</t>
+  </si>
+  <si>
+    <t>Roland Schild Hundeklo</t>
+  </si>
+  <si>
+    <t>Roland Unkraut</t>
+  </si>
+  <si>
+    <t>Wartung Spülm</t>
+  </si>
+  <si>
+    <t>Roland Hausnummer</t>
+  </si>
+  <si>
+    <t>Märkle Sommerfest</t>
+  </si>
+  <si>
+    <t>Roland Ausgaben</t>
+  </si>
+  <si>
+    <t>Roland Putzeimer</t>
+  </si>
+  <si>
+    <t>Getr. Kappel</t>
+  </si>
+  <si>
+    <t>Roland Edeka</t>
+  </si>
+  <si>
+    <t>werbematerial</t>
+  </si>
+  <si>
+    <t>80er W.Glasbrenner</t>
+  </si>
+  <si>
+    <t>Roland Wanduhr</t>
+  </si>
+  <si>
+    <t>Roland Bürobedarf</t>
+  </si>
+  <si>
+    <t>Urkunden</t>
+  </si>
+  <si>
+    <t>Porto Wolfgang</t>
   </si>
 </sst>
 </file>
@@ -1064,12 +1112,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="352">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="353">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2891,6 +2934,16 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -5312,17 +5365,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="22">
+    <format dxfId="21">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5423,17 +5476,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="25">
+    <format dxfId="24">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6559,9 +6612,9 @@
   </sheetPr>
   <dimension ref="A1:IK173"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8513,7 +8566,7 @@
       </c>
       <c r="F110" s="28">
         <f>F108+Ausgaben!G170</f>
-        <v>9556.4</v>
+        <v>8832.9599999999991</v>
       </c>
       <c r="G110" s="28">
         <f>G108+Ausgaben!H170</f>
@@ -8551,7 +8604,7 @@
       <c r="C112" s="24"/>
       <c r="D112" s="29">
         <f>SUM(E110:I110)</f>
-        <v>13320.11</v>
+        <v>12596.669999999998</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="18"/>
@@ -9352,667 +9405,667 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 E35:G36 G38 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G24 F33:G34 F37:G37 F39:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I29 G31:G32 G4:G11 F26:G29 G25 H31:I107 I30">
-    <cfRule type="cellIs" dxfId="351" priority="219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="352" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="350" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="351" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="349" priority="211" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="350" priority="211" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="348" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="349" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="347" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="348" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="346" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="347" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="345" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="346" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="344" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="345" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="343" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="344" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="342" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="341" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="340" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="339" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="338" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" dxfId="337" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="336" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="334" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="333" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="332" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="331" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="330" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="329" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="328" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="327" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="326" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="325" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="324" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="323" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="322" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="321" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="320" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="319" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="318" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="317" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="316" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="315" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="314" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="313" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="312" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="311" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="310" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="309" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:E48">
-    <cfRule type="cellIs" dxfId="308" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="307" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="306" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="305" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="304" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="303" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="302" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="301" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="300" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="299" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="298" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="297" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="296" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="295" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="294" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="293" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="292" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="291" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="290" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="289" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="288" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="287" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="286" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="285" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="284" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72">
-    <cfRule type="cellIs" dxfId="283" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="282" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="281" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="280" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="279" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="278" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="277" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="276" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="275" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="274" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="273" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="272" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="271" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="270" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="269" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="268" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="267" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="266" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="265" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="264" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="263" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="262" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="261" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="260" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="259" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="258" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:E93">
-    <cfRule type="cellIs" dxfId="257" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:D95">
-    <cfRule type="cellIs" dxfId="256" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="255" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="254" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="253" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:E99">
-    <cfRule type="cellIs" dxfId="252" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="251" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="250" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:D101">
-    <cfRule type="cellIs" dxfId="249" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="248" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="247" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="246" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="245" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="244" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="243" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="242" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="241" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="240" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="239" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="237" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="236" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="235" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="234" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="233" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="232" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="231" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="230" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="229" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="228" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="227" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="226" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="225" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="224" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="223" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="222" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="221" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10049,9 +10102,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11770,14 +11823,22 @@
     </row>
     <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47"/>
-      <c r="B58" s="43"/>
+      <c r="B58" s="43">
+        <v>44438</v>
+      </c>
       <c r="C58" s="60">
         <v>56</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="56"/>
+      <c r="D58" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="56" t="s">
+        <v>15</v>
+      </c>
       <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="G58" s="21">
+        <v>-23.5</v>
+      </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="22"/>
@@ -11787,14 +11848,22 @@
     </row>
     <row r="59" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47"/>
-      <c r="B59" s="43"/>
+      <c r="B59" s="43">
+        <v>44438</v>
+      </c>
       <c r="C59" s="60">
         <v>57</v>
       </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="41"/>
+      <c r="D59" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
+      <c r="G59" s="21">
+        <v>-5.85</v>
+      </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="22"/>
@@ -11804,14 +11873,22 @@
     </row>
     <row r="60" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="43">
+        <v>44438</v>
+      </c>
       <c r="C60" s="60">
         <v>58</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="41"/>
+      <c r="D60" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F60" s="17"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="21">
+        <v>-113.05</v>
+      </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="22"/>
@@ -12055,14 +12132,22 @@
     </row>
     <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47"/>
-      <c r="B61" s="43"/>
+      <c r="B61" s="43">
+        <v>44438</v>
+      </c>
       <c r="C61" s="60">
         <v>59</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="41"/>
+      <c r="D61" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F61" s="17"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="21">
+        <v>-7.08</v>
+      </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="22"/>
@@ -12306,14 +12391,22 @@
     </row>
     <row r="62" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47"/>
-      <c r="B62" s="43"/>
+      <c r="B62" s="43">
+        <v>44438</v>
+      </c>
       <c r="C62" s="60">
         <v>60</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="E62" s="41"/>
+      <c r="D62" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F62" s="17"/>
-      <c r="G62" s="21"/>
+      <c r="G62" s="21">
+        <v>-23.75</v>
+      </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="22"/>
@@ -12557,14 +12650,22 @@
     </row>
     <row r="63" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
-      <c r="B63" s="43"/>
+      <c r="B63" s="43">
+        <v>44438</v>
+      </c>
       <c r="C63" s="60">
         <v>61</v>
       </c>
-      <c r="D63" s="55"/>
-      <c r="E63" s="19"/>
+      <c r="D63" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F63" s="20"/>
-      <c r="G63" s="21"/>
+      <c r="G63" s="21">
+        <v>-50.28</v>
+      </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="22"/>
@@ -12808,14 +12909,22 @@
     </row>
     <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47"/>
-      <c r="B64" s="43"/>
+      <c r="B64" s="43">
+        <v>44438</v>
+      </c>
       <c r="C64" s="61">
         <v>62</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="19"/>
+      <c r="D64" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F64" s="20"/>
-      <c r="G64" s="21"/>
+      <c r="G64" s="21">
+        <v>-8.15</v>
+      </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="22"/>
@@ -13059,14 +13168,22 @@
     </row>
     <row r="65" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="43">
+        <v>44438</v>
+      </c>
       <c r="C65" s="61">
         <v>63</v>
       </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="41"/>
+      <c r="D65" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
+      <c r="G65" s="21">
+        <v>-29.99</v>
+      </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="22"/>
@@ -13310,14 +13427,22 @@
     </row>
     <row r="66" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="43">
+        <v>44438</v>
+      </c>
       <c r="C66" s="61">
         <v>64</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="41"/>
+      <c r="D66" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
+      <c r="G66" s="21">
+        <v>-22.37</v>
+      </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="22"/>
@@ -13561,14 +13686,22 @@
     </row>
     <row r="67" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="15">
+        <v>44440</v>
+      </c>
       <c r="C67" s="61">
         <v>65</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="21"/>
+      <c r="D67" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21">
+        <v>-12</v>
+      </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="22"/>
@@ -13812,14 +13945,22 @@
     </row>
     <row r="68" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="47"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="15">
+        <v>44441</v>
+      </c>
       <c r="C68" s="61">
         <v>66</v>
       </c>
-      <c r="D68" s="55"/>
-      <c r="E68" s="41"/>
+      <c r="D68" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F68" s="20"/>
-      <c r="G68" s="21"/>
+      <c r="G68" s="21">
+        <v>-150</v>
+      </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="22"/>
@@ -14063,14 +14204,22 @@
     </row>
     <row r="69" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="15">
+        <v>44441</v>
+      </c>
       <c r="C69" s="61">
         <v>67</v>
       </c>
-      <c r="D69" s="55"/>
-      <c r="E69" s="41"/>
+      <c r="D69" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F69" s="20"/>
-      <c r="G69" s="21"/>
+      <c r="G69" s="21">
+        <v>-34</v>
+      </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="22"/>
@@ -14314,14 +14463,22 @@
     </row>
     <row r="70" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="47"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="15">
+        <v>44445</v>
+      </c>
       <c r="C70" s="61">
         <v>68</v>
       </c>
-      <c r="D70" s="55"/>
-      <c r="E70" s="41"/>
+      <c r="D70" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="F70" s="20"/>
-      <c r="G70" s="21"/>
+      <c r="G70" s="21">
+        <v>-8.73</v>
+      </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="22"/>
@@ -14565,14 +14722,22 @@
     </row>
     <row r="71" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="47"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="15">
+        <v>44445</v>
+      </c>
       <c r="C71" s="61">
         <v>69</v>
       </c>
-      <c r="D71" s="55"/>
-      <c r="E71" s="23"/>
+      <c r="D71" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F71" s="20"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="21">
+        <v>-62.99</v>
+      </c>
       <c r="H71" s="20"/>
       <c r="I71" s="21"/>
       <c r="J71" s="22"/>
@@ -14816,14 +14981,22 @@
     </row>
     <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="15">
+        <v>44445</v>
+      </c>
       <c r="C72" s="60">
         <v>70</v>
       </c>
-      <c r="D72" s="55"/>
-      <c r="E72" s="56"/>
+      <c r="D72" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
+      <c r="G72" s="21">
+        <v>-30.1</v>
+      </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="22"/>
@@ -15067,14 +15240,22 @@
     </row>
     <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="47"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="15">
+        <v>44445</v>
+      </c>
       <c r="C73" s="61">
         <v>71</v>
       </c>
-      <c r="D73" s="55"/>
-      <c r="E73" s="41"/>
+      <c r="D73" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F73" s="20"/>
-      <c r="G73" s="21"/>
+      <c r="G73" s="21">
+        <v>-28.9</v>
+      </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="22"/>
@@ -15318,14 +15499,22 @@
     </row>
     <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="47"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="15">
+        <v>44445</v>
+      </c>
       <c r="C74" s="60">
         <v>72</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="19"/>
+      <c r="D74" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="F74" s="20"/>
-      <c r="G74" s="21"/>
+      <c r="G74" s="21">
+        <v>-59.86</v>
+      </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="22"/>
@@ -15569,14 +15758,22 @@
     </row>
     <row r="75" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="15">
+        <v>44445</v>
+      </c>
       <c r="C75" s="60">
         <v>73</v>
       </c>
-      <c r="D75" s="55"/>
-      <c r="E75" s="56"/>
+      <c r="D75" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F75" s="20"/>
-      <c r="G75" s="21"/>
+      <c r="G75" s="21">
+        <v>-34.700000000000003</v>
+      </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
@@ -15820,14 +16017,22 @@
     </row>
     <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="47"/>
-      <c r="B76" s="43"/>
+      <c r="B76" s="15">
+        <v>44445</v>
+      </c>
       <c r="C76" s="60">
         <v>74</v>
       </c>
-      <c r="D76" s="55"/>
-      <c r="E76" s="41"/>
+      <c r="D76" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="F76" s="20"/>
-      <c r="G76" s="21"/>
+      <c r="G76" s="21">
+        <v>-18.14</v>
+      </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
@@ -16071,7 +16276,9 @@
     </row>
     <row r="77" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="47"/>
-      <c r="B77" s="43"/>
+      <c r="B77" s="15">
+        <v>44445</v>
+      </c>
       <c r="C77" s="60">
         <v>75</v>
       </c>
@@ -39414,7 +39621,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-2966.25</v>
+        <v>-3689.6899999999996</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41347,994 +41554,989 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="220" priority="437" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="219" priority="427" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="446" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="218" priority="389" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="217" priority="348" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="216" priority="345" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="364" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="215" priority="327" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="214" priority="321" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="340" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="213" priority="319" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="338" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="212" priority="318" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="337" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="211" priority="305" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="324" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="206" priority="290" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="205" priority="267" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="204" priority="264" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="203" priority="254" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="202" priority="253" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="201" priority="251" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="200" priority="250" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="199" priority="249" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="198" priority="248" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="197" priority="247" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="196" priority="246" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="195" priority="245" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="194" priority="244" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="193" priority="242" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="192" priority="241" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="191" priority="240" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="190" priority="239" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="189" priority="238" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="188" priority="237" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="187" priority="236" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="186" priority="235" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="185" priority="234" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="184" priority="233" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="183" priority="232" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="182" priority="231" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="181" priority="230" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="180" priority="229" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="179" priority="228" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="178" priority="227" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="177" priority="226" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="176" priority="225" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="175" priority="224" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="174" priority="223" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="173" priority="222" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="172" priority="221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="171" priority="220" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="170" priority="219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="169" priority="218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="168" priority="217" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="167" priority="216" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="166" priority="215" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="165" priority="214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="164" priority="213" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="163" priority="212" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="162" priority="211" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="161" priority="209" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="160" priority="208" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="159" priority="207" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="158" priority="206" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="157" priority="205" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="156" priority="204" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="155" priority="203" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="154" priority="202" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="153" priority="201" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="152" priority="200" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="151" priority="197" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="150" priority="196" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="149" priority="195" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="148" priority="194" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="147" priority="193" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="146" priority="192" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="145" priority="191" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="144" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="143" priority="189" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="142" priority="187" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="141" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="140" priority="185" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="139" priority="184" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="138" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="137" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="136" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="135" priority="180" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="134" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="133" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="132" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="131" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="130" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="129" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="128" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="127" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="126" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="125" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="124" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="123" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="121" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="120" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="118" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="116" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="103" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="102" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="101" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="100" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="98" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="97" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="87" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="83" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="81" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="80" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="78" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="77" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="73" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="210" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="209" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="208" priority="272" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="207" priority="271" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="206" priority="248" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="205" priority="245" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="204" priority="235" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="203" priority="234" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="202" priority="232" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="201" priority="231" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="200" priority="230" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="199" priority="229" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="198" priority="228" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="197" priority="227" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="196" priority="226" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="195" priority="225" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="194" priority="223" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="193" priority="222" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="192" priority="221" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="191" priority="220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="190" priority="219" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="189" priority="218" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="188" priority="217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="187" priority="216" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="186" priority="215" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="185" priority="214" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="184" priority="213" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="183" priority="212" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="182" priority="211" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="181" priority="210" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="180" priority="209" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="179" priority="208" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="178" priority="207" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="177" priority="206" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="176" priority="205" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="175" priority="204" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="174" priority="203" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="173" priority="202" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="172" priority="201" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="171" priority="200" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="170" priority="199" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="169" priority="198" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="168" priority="197" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="167" priority="196" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="166" priority="195" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="165" priority="194" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="164" priority="193" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="163" priority="192" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="162" priority="190" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="161" priority="189" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="160" priority="188" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="159" priority="187" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="158" priority="186" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="157" priority="185" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="156" priority="184" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="155" priority="183" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="154" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="153" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="152" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="151" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="150" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="149" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="148" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="147" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="146" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="145" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="144" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="143" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="142" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="141" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="140" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="139" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="138" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="137" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="136" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="135" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="134" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="133" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="132" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="131" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="130" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="129" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="128" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="127" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="126" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="125" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="124" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="118" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="117" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="116" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="115" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="114" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="113" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="112" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="111" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="110" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="109" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="108" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="107" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="106" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="105" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="104" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="103" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="102" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="101" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="100" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="99" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="98" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="97" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="96" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="95" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="94" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="93" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="92" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="91" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="90" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="89" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="88" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="87" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="86" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="85" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="84" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="83" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="82" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="81" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="80" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="79" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="78" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="77" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="76" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="75" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="74" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="73" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="72" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="70" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="69" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="68" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="67" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="66" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="65" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="64" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="63" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="62" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="61" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="60" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="59" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="58" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="57" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="56" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="55" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="54" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="53" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="52" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="50" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="49" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="48" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="47" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="46" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="45" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="44" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="43" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="42" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="41" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="40" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="39" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="38" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="36" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="35" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="34" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="31" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E71:E75 E37 E48 E44 E23:E24 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E58:E68" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E59:E66 E37 E48 E44 E23:E24 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E70:E76" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E76:E77 E69:E70" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E77" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26 E32:E33 E40:E41 E46:E47 E54:E55" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26 E32:E33 E40:E41 E46:E47 E54:E55 E68:E69" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E31 E34:E36 E38:E39 E42:E43 E45 E49:E53 E56:E57" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E11:E14 E17 E19:E22 E27:E31 E34:E36 E38:E39 E42:E43 E45 E49:E53 E56:E58 E67" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB80B1EC-ACB7-4E7A-BA03-E4A682011B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E25E0-B652-4C9E-947F-F87650BA8114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -381,9 +381,6 @@
     <t>Märkle Sommerfest</t>
   </si>
   <si>
-    <t>Roland Ausgaben</t>
-  </si>
-  <si>
     <t>Roland Putzeimer</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>Porto Wolfgang</t>
+  </si>
+  <si>
+    <t>Roland Ausgaben dm</t>
   </si>
 </sst>
 </file>
@@ -6612,7 +6612,7 @@
   </sheetPr>
   <dimension ref="A1:IK173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
     </sheetView>
@@ -10102,9 +10102,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12916,7 +12916,7 @@
         <v>62</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E64" s="41" t="s">
         <v>14</v>
@@ -13175,7 +13175,7 @@
         <v>63</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" s="41" t="s">
         <v>14</v>
@@ -13434,7 +13434,7 @@
         <v>64</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="41" t="s">
         <v>0</v>
@@ -14470,7 +14470,7 @@
         <v>68</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E70" s="41" t="s">
         <v>0</v>
@@ -14729,7 +14729,7 @@
         <v>69</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E71" s="41" t="s">
         <v>14</v>
@@ -14988,7 +14988,7 @@
         <v>70</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E72" s="41" t="s">
         <v>23</v>
@@ -15247,7 +15247,7 @@
         <v>71</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E73" s="41" t="s">
         <v>14</v>
@@ -15506,7 +15506,7 @@
         <v>72</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E74" s="41" t="s">
         <v>15</v>
@@ -15765,7 +15765,7 @@
         <v>73</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E75" s="41" t="s">
         <v>23</v>
@@ -16024,7 +16024,7 @@
         <v>74</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E76" s="41" t="s">
         <v>15</v>

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E25E0-B652-4C9E-947F-F87650BA8114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CF3887-EA17-4454-8155-8400DBEC01BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="136">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -409,6 +409,39 @@
   </si>
   <si>
     <t>Roland Ausgaben dm</t>
+  </si>
+  <si>
+    <t>Anonyme Spende JHV</t>
+  </si>
+  <si>
+    <t>25erJubelaum M.Blümel</t>
+  </si>
+  <si>
+    <t>Sommerfest</t>
+  </si>
+  <si>
+    <t>JHV Kuchen</t>
+  </si>
+  <si>
+    <t>Blumen Jubelaum</t>
+  </si>
+  <si>
+    <t>JHV HdB</t>
+  </si>
+  <si>
+    <t>Jubelaum Kayser Haertel</t>
+  </si>
+  <si>
+    <t>Jubelaum Doris Bluemel</t>
+  </si>
+  <si>
+    <t>Beitrag 2021 Rothweiler</t>
+  </si>
+  <si>
+    <t>TzgL 16.9.21</t>
+  </si>
+  <si>
+    <t>Spende W.Kayser</t>
   </si>
 </sst>
 </file>
@@ -1112,62 +1145,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="353">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="341">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1303,11 +1281,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5365,17 +5338,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="21">
+    <format dxfId="10">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5476,17 +5449,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="24">
+    <format dxfId="13">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6613,8 +6586,8 @@
   <dimension ref="A1:IK173"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7364,14 +7337,22 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="15">
+        <v>44452</v>
+      </c>
       <c r="B31" s="16">
         <v>25</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="41"/>
+      <c r="C31" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="18">
+        <v>49.5</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
@@ -7379,14 +7360,22 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
+      <c r="A32" s="43">
+        <v>44456</v>
+      </c>
       <c r="B32" s="16">
         <v>26</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="57"/>
+      <c r="C32" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18">
+        <v>30</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
@@ -7394,14 +7383,22 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
+      <c r="A33" s="43">
+        <v>44456</v>
+      </c>
       <c r="B33" s="16">
         <v>27</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="18">
+        <v>35</v>
+      </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="19"/>
@@ -7409,13 +7406,21 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="43">
+        <v>44460</v>
+      </c>
       <c r="B34" s="16">
         <v>28</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="17"/>
+      <c r="C34" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="17">
+        <v>200</v>
+      </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -8519,11 +8524,11 @@
       <c r="D108" s="26"/>
       <c r="E108" s="27">
         <f>SUM(E3:E107)</f>
-        <v>205.53</v>
+        <v>405.53</v>
       </c>
       <c r="F108" s="28">
         <f>SUM(F3:F107)</f>
-        <v>12522.65</v>
+        <v>12637.15</v>
       </c>
       <c r="G108" s="28">
         <f>SUM(G3:G107)</f>
@@ -8562,11 +8567,11 @@
       <c r="D110" s="52"/>
       <c r="E110" s="28">
         <f>E108+Ausgaben!F170</f>
-        <v>205.53</v>
+        <v>405.53</v>
       </c>
       <c r="F110" s="28">
         <f>F108+Ausgaben!G170</f>
-        <v>8832.9599999999991</v>
+        <v>8472.49</v>
       </c>
       <c r="G110" s="28">
         <f>G108+Ausgaben!H170</f>
@@ -8604,7 +8609,7 @@
       <c r="C112" s="24"/>
       <c r="D112" s="29">
         <f>SUM(E110:I110)</f>
-        <v>12596.669999999998</v>
+        <v>12436.2</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="18"/>
@@ -9405,667 +9410,667 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 E35:G36 G38 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G24 F33:G34 F37:G37 F39:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I29 G31:G32 G4:G11 F26:G29 G25 H31:I107 I30">
-    <cfRule type="cellIs" dxfId="352" priority="219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="351" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="350" priority="211" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="349" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="348" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="347" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="346" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="345" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="344" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="343" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="342" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="341" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="340" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="339" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" dxfId="338" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="337" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="336" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="335" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="334" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="333" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="332" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="331" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="330" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="329" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="328" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="327" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="326" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="325" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="324" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="323" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="322" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="321" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="320" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="319" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="318" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="317" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="316" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="315" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="314" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="313" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="312" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="311" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:E48">
-    <cfRule type="cellIs" dxfId="310" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="309" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="308" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="307" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="306" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="305" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="304" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="303" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="302" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="301" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="300" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="299" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="298" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="297" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="296" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="295" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="294" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="293" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="292" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="291" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="290" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="289" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="288" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="287" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="286" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72">
-    <cfRule type="cellIs" dxfId="285" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="284" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="283" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="282" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="281" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="280" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="279" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="278" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="277" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="276" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="275" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="274" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="273" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="272" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="271" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="270" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="269" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="268" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="267" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="266" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="265" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="264" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="263" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="262" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="261" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="260" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:E93">
-    <cfRule type="cellIs" dxfId="259" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:D95">
-    <cfRule type="cellIs" dxfId="258" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="257" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="256" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="255" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:E99">
-    <cfRule type="cellIs" dxfId="254" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="253" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="252" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:D101">
-    <cfRule type="cellIs" dxfId="251" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="250" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="249" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="248" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="247" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="246" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="245" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="244" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="243" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="242" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="241" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="240" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="239" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="224" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="223" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="222" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="221" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="220" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="cellIs" dxfId="219" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="218" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="217" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="216" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="215" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="214" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="213" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="212" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="211" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:H30">
+    <cfRule type="cellIs" dxfId="210" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F30">
+    <cfRule type="cellIs" dxfId="209" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="208" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="238" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="237" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="236" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="235" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="234" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="233" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="232" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="231" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="230" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="229" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="228" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="227" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="226" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="225" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="224" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="223" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="cellIs" dxfId="222" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="221" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="220" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10103,8 +10108,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16277,15 +16282,21 @@
     <row r="77" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="47"/>
       <c r="B77" s="15">
-        <v>44445</v>
+        <v>44453</v>
       </c>
       <c r="C77" s="60">
         <v>75</v>
       </c>
-      <c r="D77" s="55"/>
-      <c r="E77" s="41"/>
+      <c r="D77" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F77" s="20"/>
-      <c r="G77" s="21"/>
+      <c r="G77" s="21">
+        <v>-21.41</v>
+      </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="22"/>
@@ -16529,14 +16540,22 @@
     </row>
     <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="47"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="15">
+        <v>44453</v>
+      </c>
       <c r="C78" s="61">
         <v>76</v>
       </c>
-      <c r="D78" s="55"/>
-      <c r="E78" s="41"/>
+      <c r="D78" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="F78" s="20"/>
-      <c r="G78" s="21"/>
+      <c r="G78" s="21">
+        <v>-124.98</v>
+      </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="22"/>
@@ -16780,14 +16799,22 @@
     </row>
     <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="47"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="15">
+        <v>44453</v>
+      </c>
       <c r="C79" s="60">
         <v>77</v>
       </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="56"/>
+      <c r="D79" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="56" t="s">
+        <v>14</v>
+      </c>
       <c r="F79" s="20"/>
-      <c r="G79" s="21"/>
+      <c r="G79" s="21">
+        <v>-75.3</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="22"/>
@@ -17031,14 +17058,22 @@
     </row>
     <row r="80" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="47"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="15">
+        <v>44453</v>
+      </c>
       <c r="C80" s="60">
         <v>78</v>
       </c>
-      <c r="D80" s="55"/>
-      <c r="E80" s="19"/>
+      <c r="D80" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F80" s="20"/>
-      <c r="G80" s="21"/>
+      <c r="G80" s="21">
+        <v>-75</v>
+      </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="22"/>
@@ -17282,14 +17317,22 @@
     </row>
     <row r="81" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="47"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="15">
+        <v>44454</v>
+      </c>
       <c r="C81" s="60">
         <v>79</v>
       </c>
-      <c r="D81" s="55"/>
-      <c r="E81" s="41"/>
+      <c r="D81" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="56" t="s">
+        <v>14</v>
+      </c>
       <c r="F81" s="20"/>
-      <c r="G81" s="21"/>
+      <c r="G81" s="21">
+        <v>-86.6</v>
+      </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
@@ -17533,14 +17576,22 @@
     </row>
     <row r="82" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="47"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="15">
+        <v>44456</v>
+      </c>
       <c r="C82" s="60">
         <v>80</v>
       </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="41"/>
+      <c r="D82" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F82" s="20"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="21">
+        <v>-51.68</v>
+      </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
@@ -17784,14 +17835,22 @@
     </row>
     <row r="83" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="47"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="15">
+        <v>44456</v>
+      </c>
       <c r="C83" s="60">
         <v>81</v>
       </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="41"/>
+      <c r="D83" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F83" s="20"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="21">
+        <v>-40</v>
+      </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
@@ -39621,7 +39680,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-3689.6899999999996</v>
+        <v>-4164.66</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41554,983 +41613,983 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="219" priority="456" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="218" priority="446" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="452" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="217" priority="408" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="216" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="373" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="215" priority="364" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="214" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="352" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="213" priority="340" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="212" priority="338" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="344" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="211" priority="337" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="210" priority="324" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="330" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="206" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="296" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="205" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="204" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="203" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="260" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="202" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="259" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="201" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="200" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="199" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="198" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="197" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="196" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="195" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="194" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="193" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="192" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="191" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="246" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="190" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="189" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="188" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="187" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="186" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="185" priority="234" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="184" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="183" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="182" priority="231" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="181" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="180" priority="229" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="179" priority="228" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="178" priority="227" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="177" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="176" priority="225" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="231" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="175" priority="224" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="174" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="229" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="173" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="228" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="172" priority="221" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="227" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="171" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="170" priority="219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="225" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="169" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="168" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="167" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="166" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="165" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="164" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="163" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="162" priority="211" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="161" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="160" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="159" priority="207" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="158" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="157" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="211" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="156" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="155" priority="203" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="209" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="154" priority="202" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="153" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="207" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="152" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="151" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="150" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="149" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="148" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="147" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="146" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="145" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="144" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="143" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="195" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="142" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="141" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="140" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="139" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="138" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="137" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="136" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="135" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="134" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="133" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="132" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="131" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="130" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="129" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="128" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="127" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="126" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="125" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="124" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="123" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="121" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="120" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="118" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="116" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="107" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="102" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="101" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="100" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="98" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="97" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="87" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="83" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="81" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="80" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="79" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="33" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="103" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="102" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="101" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="100" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="98" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="97" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="87" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="83" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="81" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="80" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="78" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="77" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="73" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E78:E81 E59:E66 E37 E48 E44 E23:E24 E3 E84:E86 E90:E92 E122:E130 E132:E138 E144:E169 E18 E70:E76" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E103:E111 E95:E100 E59:E66 E37 E48 E44 E23:E24 E3 E90:E92 E122:E130 E132:E138 E144:E169 E18 E70:E86" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E112:E113 E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88 E82:E83 E77" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E101:E102 E93:E94 E87:E88" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E9:E10 E15:E16 E25:E26 E32:E33 E40:E41 E46:E47 E54:E55 E68:E69" xr:uid="{00000000-0002-0000-0100-000003000000}">

--- a/AWO_Einnahmen_Ausgaben_2021.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CF3887-EA17-4454-8155-8400DBEC01BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02292B7E-EF4C-438C-8772-1783E839BAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -28,11 +28,20 @@
     <pivotCache cacheId="0" r:id="rId4"/>
     <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="142">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -442,6 +451,24 @@
   </si>
   <si>
     <t>Spende W.Kayser</t>
+  </si>
+  <si>
+    <t>Ausgaben Radcheck S.Lindheimer</t>
+  </si>
+  <si>
+    <t>Ausgaben 80er Fr.Zahn</t>
+  </si>
+  <si>
+    <t>Elektro Raisch Kabel Spülm</t>
+  </si>
+  <si>
+    <t>Rollup Werbematerial</t>
+  </si>
+  <si>
+    <t>Absschlag Wasser</t>
+  </si>
+  <si>
+    <t>Hochwasser Hilfe Spende Weiterleitung</t>
   </si>
 </sst>
 </file>
@@ -1145,17 +1172,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="341">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="339">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -5250,6 +5267,117 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item h="1" x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="8">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B19:G29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -5338,128 +5466,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item h="1" x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="13">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6585,8 +6602,8 @@
   </sheetPr>
   <dimension ref="A1:IK173"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -8567,11 +8584,11 @@
       <c r="D110" s="52"/>
       <c r="E110" s="28">
         <f>E108+Ausgaben!F170</f>
-        <v>405.53</v>
+        <v>322.39999999999998</v>
       </c>
       <c r="F110" s="28">
         <f>F108+Ausgaben!G170</f>
-        <v>8472.49</v>
+        <v>7688.16</v>
       </c>
       <c r="G110" s="28">
         <f>G108+Ausgaben!H170</f>
@@ -8609,7 +8626,7 @@
       <c r="C112" s="24"/>
       <c r="D112" s="29">
         <f>SUM(E110:I110)</f>
-        <v>12436.2</v>
+        <v>11568.739999999998</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="18"/>
@@ -9410,572 +9427,572 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 E35:G36 G38 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G24 F33:G34 F37:G37 F39:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I29 G31:G32 G4:G11 F26:G29 G25 H31:I107 I30">
-    <cfRule type="cellIs" dxfId="340" priority="221" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="339" priority="219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="338" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="337" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="336" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="335" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="334" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="333" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="332" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="331" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="330" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="329" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="328" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="327" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" dxfId="326" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="325" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="324" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="323" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="322" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="321" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="320" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="319" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="318" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="317" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="316" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="315" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="314" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="313" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="312" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="311" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="310" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="309" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="308" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="307" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="306" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="305" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="304" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="303" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="302" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="301" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="300" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="299" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:E48">
-    <cfRule type="cellIs" dxfId="298" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="297" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="296" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="295" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="294" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="293" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="292" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="291" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="290" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="289" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="288" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="287" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="286" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="285" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="284" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="283" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="282" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="281" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="280" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="279" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="278" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="277" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="276" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="275" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="274" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72">
-    <cfRule type="cellIs" dxfId="273" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="272" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="271" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="270" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="269" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="268" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="267" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="266" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="265" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="264" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="263" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="262" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="261" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="260" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="259" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="258" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="257" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="256" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="255" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="254" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="253" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="252" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="251" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="250" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="249" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="248" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:E93">
-    <cfRule type="cellIs" dxfId="247" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:D95">
-    <cfRule type="cellIs" dxfId="246" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="245" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="244" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="243" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:E99">
-    <cfRule type="cellIs" dxfId="242" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="241" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="240" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:D101">
-    <cfRule type="cellIs" dxfId="239" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="238" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="237" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="236" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="235" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="234" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="233" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="232" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="231" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="230" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="229" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="228" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="227" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10065,12 +10082,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10107,9 +10124,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18094,13 +18111,21 @@
     </row>
     <row r="84" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="47"/>
-      <c r="B84" s="43"/>
+      <c r="B84" s="43">
+        <v>44457</v>
+      </c>
       <c r="C84" s="60">
         <v>82</v>
       </c>
-      <c r="D84" s="55"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="20"/>
+      <c r="D84" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="20">
+        <v>-83.13</v>
+      </c>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
@@ -18345,14 +18370,22 @@
     </row>
     <row r="85" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="47"/>
-      <c r="B85" s="43"/>
+      <c r="B85" s="43">
+        <v>44460</v>
+      </c>
       <c r="C85" s="60">
         <v>83</v>
       </c>
-      <c r="D85" s="40"/>
-      <c r="E85" s="41"/>
+      <c r="D85" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F85" s="17"/>
-      <c r="G85" s="21"/>
+      <c r="G85" s="21">
+        <v>-20</v>
+      </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="22"/>
@@ -18596,14 +18629,22 @@
     </row>
     <row r="86" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="47"/>
-      <c r="B86" s="43"/>
+      <c r="B86" s="43">
+        <v>44463</v>
+      </c>
       <c r="C86" s="60">
         <v>84</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="41"/>
+      <c r="D86" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="56" t="s">
+        <v>14</v>
+      </c>
       <c r="F86" s="20"/>
-      <c r="G86" s="21"/>
+      <c r="G86" s="21">
+        <v>-430.78</v>
+      </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="22"/>
@@ -18847,14 +18888,22 @@
     </row>
     <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="47"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="15">
+        <v>44467</v>
+      </c>
       <c r="C87" s="16">
         <v>85</v>
       </c>
-      <c r="D87" s="55"/>
-      <c r="E87" s="41"/>
+      <c r="D87" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="56" t="s">
+        <v>14</v>
+      </c>
       <c r="F87" s="20"/>
-      <c r="G87" s="21"/>
+      <c r="G87" s="21">
+        <v>-188.02</v>
+      </c>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="22"/>
@@ -19098,14 +19147,22 @@
     </row>
     <row r="88" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="47"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="15">
+        <v>44469</v>
+      </c>
       <c r="C88" s="16">
         <v>86</v>
       </c>
-      <c r="D88" s="55"/>
-      <c r="E88" s="41"/>
+      <c r="D88" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F88" s="20"/>
-      <c r="G88" s="21"/>
+      <c r="G88" s="21">
+        <v>-33.53</v>
+      </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="22"/>
@@ -19349,14 +19406,22 @@
     </row>
     <row r="89" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="47"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="15">
+        <v>44470</v>
+      </c>
       <c r="C89" s="16">
         <v>87</v>
       </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="41"/>
+      <c r="D89" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E89" s="56" t="s">
+        <v>13</v>
+      </c>
       <c r="F89" s="20"/>
-      <c r="G89" s="21"/>
+      <c r="G89" s="21">
+        <v>-100</v>
+      </c>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="22"/>
@@ -19600,14 +19665,22 @@
     </row>
     <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="47"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="15">
+        <v>44470</v>
+      </c>
       <c r="C90" s="61">
         <v>88</v>
       </c>
-      <c r="D90" s="55"/>
-      <c r="E90" s="23"/>
+      <c r="D90" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F90" s="20"/>
-      <c r="G90" s="21"/>
+      <c r="G90" s="21">
+        <v>-12</v>
+      </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="22"/>
@@ -39676,11 +39749,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>0</v>
+        <v>-83.13</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-4164.66</v>
+        <v>-4948.99</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41613,989 +41686,989 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123:D123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="207" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="206" priority="452" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="205" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="420" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="204" priority="373" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="379" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="203" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="376" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="202" priority="352" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="358" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="201" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="352" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="200" priority="344" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="199" priority="343" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="198" priority="330" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="197" priority="296" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="302" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="193" priority="276" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="192" priority="266" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="191" priority="265" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="190" priority="263" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="189" priority="262" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="188" priority="261" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="187" priority="260" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="186" priority="259" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="185" priority="258" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="184" priority="257" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="183" priority="256" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="182" priority="254" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="181" priority="253" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="180" priority="252" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="179" priority="251" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="178" priority="250" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="177" priority="249" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="176" priority="248" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="175" priority="247" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="174" priority="246" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="173" priority="245" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="172" priority="244" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="171" priority="243" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="170" priority="242" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="169" priority="241" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="168" priority="240" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="167" priority="239" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="166" priority="238" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="165" priority="237" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="164" priority="236" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="163" priority="235" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="162" priority="234" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="161" priority="233" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="160" priority="232" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="159" priority="231" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="158" priority="230" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="157" priority="229" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="156" priority="228" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="155" priority="227" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="154" priority="226" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="153" priority="225" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="152" priority="224" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="151" priority="223" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="150" priority="221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="149" priority="220" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="148" priority="219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="147" priority="218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="146" priority="217" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="145" priority="216" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="144" priority="215" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="143" priority="214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="142" priority="213" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="141" priority="212" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="140" priority="209" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="139" priority="208" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="138" priority="207" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="137" priority="206" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="136" priority="205" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="135" priority="204" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="134" priority="203" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="133" priority="202" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="132" priority="201" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="131" priority="199" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="130" priority="198" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="129" priority="197" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="128" priority="196" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="127" priority="195" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="126" priority="194" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="125" priority="193" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="124" priority="192" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="123" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="122" priority="189" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="121" priority="188" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="120" priority="187" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="119" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="118" priority="185" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="117" priority="184" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="116" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="115" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="114" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="113" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="112" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="111" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="110" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="109" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="108" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="107" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="106" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="105" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="99" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="98" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="97" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="96" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="95" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="94" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="93" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="92" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="91" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="90" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="89" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="88" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="87" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="86" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="84" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="81" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="80" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="78" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="77" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="75" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="74" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="73" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="72" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="70" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="67" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="65" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="53" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="43" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="34" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="33" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="32" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="31" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="30" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="28" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="196" priority="273" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="195" priority="270" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="194" priority="260" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="193" priority="259" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="192" priority="257" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="191" priority="256" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="190" priority="255" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="189" priority="254" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="188" priority="253" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="187" priority="252" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="186" priority="251" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="185" priority="250" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="184" priority="248" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="183" priority="247" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="182" priority="246" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="181" priority="245" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="180" priority="244" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="179" priority="243" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="178" priority="242" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="177" priority="241" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="176" priority="240" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="175" priority="239" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="174" priority="238" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="173" priority="237" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="172" priority="236" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="171" priority="235" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="170" priority="234" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="169" priority="233" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="168" priority="232" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="167" priority="231" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="166" priority="230" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="165" priority="229" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="164" priority="228" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="163" priority="227" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="162" priority="226" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="161" priority="225" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="160" priority="224" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="159" priority="223" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="158" priority="222" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="157" priority="221" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="156" priority="220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="155" priority="219" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="154" priority="218" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="153" priority="217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="152" priority="215" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="151" priority="214" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="150" priority="213" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="149" priority="212" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="148" priority="211" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="147" priority="210" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="146" priority="209" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="145" priority="208" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="144" priority="207" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="143" priority="206" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="142" priority="203" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="141" priority="202" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="140" priority="201" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="139" priority="200" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="138" priority="199" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="137" priority="198" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="136" priority="197" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="135" priority="196" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="134" priority="195" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="133" priority="193" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="132" priority="192" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="131" priority="191" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="130" priority="190" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="129" priority="189" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="128" priority="188" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="127" priority="187" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="126" priority="186" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="125" priority="184" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="124" priority="183" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="123" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="122" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="121" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="120" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="119" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="118" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="117" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="116" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="115" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="114" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="113" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="112" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="111" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="110" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="107" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="102" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="101" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="100" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="98" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="97" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="87" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </condition